--- a/GB-3 BAYINTNAUNG.xlsx
+++ b/GB-3 BAYINTNAUNG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="18195" windowHeight="10665" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="18195" windowHeight="10665" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3200,9 +3200,9 @@
   </sheetPr>
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3213,7 +3213,7 @@
     <col min="4" max="4" width="26.7109375" style="36" customWidth="1"/>
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4748,8 +4748,8 @@
   </sheetPr>
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4887,7 +4887,7 @@
         <v>150000</v>
       </c>
       <c r="H6" s="6">
-        <v>120000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/GB-3 BAYINTNAUNG.xlsx
+++ b/GB-3 BAYINTNAUNG.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="245">
   <si>
     <t>Mitsubishi RVR</t>
   </si>
@@ -766,6 +766,9 @@
   </si>
   <si>
     <t>4Wheel Transfer</t>
+  </si>
+  <si>
+    <t>Paid 11.8.2018</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1079,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1279,6 +1282,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3198,11 +3204,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
+      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4733,6 +4739,23 @@
       <c r="H76" s="35">
         <f>H74-H75</f>
         <v>2380500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="H77" s="77">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F78" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="H78" s="78">
+        <f>H76-H77</f>
+        <v>1880500</v>
       </c>
     </row>
   </sheetData>

--- a/GB-3 BAYINTNAUNG.xlsx
+++ b/GB-3 BAYINTNAUNG.xlsx
@@ -1276,15 +1276,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1603,12 +1603,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
     </row>
     <row r="2" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
@@ -1731,16 +1731,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -3207,8 +3207,8 @@
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4717,7 +4717,7 @@
         <f>SUM(G2:G73)</f>
         <v>3607500</v>
       </c>
-      <c r="H74" s="25">
+      <c r="H74" s="35">
         <f>SUM(H2:H73)</f>
         <v>2893000</v>
       </c>
@@ -4745,12 +4745,12 @@
       <c r="F77" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="H77" s="77">
+      <c r="H77" s="74">
         <v>500000</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F78" s="76" t="s">
+      <c r="F78" s="77" t="s">
         <v>61</v>
       </c>
       <c r="H78" s="78">
@@ -5751,8 +5751,14 @@
     </row>
     <row r="75" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F75" s="30"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
+      <c r="G75" s="25">
+        <f>SUM(G2:G74)</f>
+        <v>1235000</v>
+      </c>
+      <c r="H75" s="25">
+        <f>SUM(H2:H74)</f>
+        <v>563000</v>
+      </c>
     </row>
     <row r="76" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F76" s="26"/>

--- a/GB-3 BAYINTNAUNG.xlsx
+++ b/GB-3 BAYINTNAUNG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="18195" windowHeight="10665" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="18195" windowHeight="10665" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -779,7 +779,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -941,13 +941,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF7030A0"/>
       <name val="Zawgyi-One"/>
       <family val="2"/>
     </font>
@@ -1004,6 +997,19 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Zawgyi-One"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1079,7 +1085,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1185,12 +1191,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1202,36 +1202,36 @@
     <xf numFmtId="11" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1244,7 +1244,7 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1255,7 +1255,7 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1266,25 +1266,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2269,21 +2276,21 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" style="44" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="44" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="44" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="15" style="44" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="65" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="65" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="44"/>
+    <col min="1" max="1" width="4" style="42" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="42" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="42" customWidth="1"/>
+    <col min="6" max="6" width="15" style="42" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="63" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="63" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2305,10 +2312,10 @@
       <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="53" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2319,20 +2326,20 @@
       <c r="B2" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="44" t="s">
         <v>64</v>
       </c>
       <c r="E2" s="28">
         <v>1</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="56">
+      <c r="F2" s="45"/>
+      <c r="G2" s="54">
         <v>1500</v>
       </c>
-      <c r="H2" s="56">
+      <c r="H2" s="54">
         <v>1500</v>
       </c>
     </row>
@@ -2346,17 +2353,17 @@
       <c r="C3" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="44" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="28">
         <v>1</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="56">
+      <c r="F3" s="45"/>
+      <c r="G3" s="54">
         <v>25000</v>
       </c>
-      <c r="H3" s="56">
+      <c r="H3" s="54">
         <v>19000</v>
       </c>
     </row>
@@ -2366,17 +2373,17 @@
       <c r="C4" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="44" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="28">
         <v>1</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="56">
+      <c r="F4" s="45"/>
+      <c r="G4" s="54">
         <v>25000</v>
       </c>
-      <c r="H4" s="56">
+      <c r="H4" s="54">
         <v>15000</v>
       </c>
     </row>
@@ -2386,17 +2393,17 @@
       <c r="C5" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="44" t="s">
         <v>67</v>
       </c>
       <c r="E5" s="28">
         <v>1</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="56">
+      <c r="F5" s="45"/>
+      <c r="G5" s="54">
         <v>25000</v>
       </c>
-      <c r="H5" s="56">
+      <c r="H5" s="54">
         <v>18000</v>
       </c>
     </row>
@@ -2406,17 +2413,17 @@
       <c r="C6" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="44" t="s">
         <v>67</v>
       </c>
       <c r="E6" s="28">
         <v>1</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="56">
+      <c r="F6" s="45"/>
+      <c r="G6" s="54">
         <v>26000</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="54">
         <v>19000</v>
       </c>
     </row>
@@ -2430,15 +2437,15 @@
       <c r="C7" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="44" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="28">
         <v>1</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56">
+      <c r="F7" s="45"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54">
         <v>19000</v>
       </c>
     </row>
@@ -2452,17 +2459,17 @@
       <c r="C8" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="44" t="s">
         <v>75</v>
       </c>
       <c r="E8" s="28">
         <v>1</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="56">
+      <c r="F8" s="45"/>
+      <c r="G8" s="54">
         <v>7000</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="54">
         <v>7500</v>
       </c>
     </row>
@@ -2470,17 +2477,17 @@
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="44" t="s">
         <v>76</v>
       </c>
       <c r="E9" s="28">
         <v>1</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="56">
+      <c r="F9" s="45"/>
+      <c r="G9" s="54">
         <v>13000</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="54">
         <v>9000</v>
       </c>
     </row>
@@ -2488,17 +2495,17 @@
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="44" t="s">
         <v>77</v>
       </c>
       <c r="E10" s="28">
         <v>1</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="56">
+      <c r="F10" s="45"/>
+      <c r="G10" s="54">
         <v>18000</v>
       </c>
-      <c r="H10" s="56">
+      <c r="H10" s="54">
         <v>13000</v>
       </c>
     </row>
@@ -2508,17 +2515,17 @@
       <c r="C11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="46" t="s">
         <v>79</v>
       </c>
       <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="57">
+      <c r="F11" s="47"/>
+      <c r="G11" s="55">
         <v>95000</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="55">
         <v>85000</v>
       </c>
     </row>
@@ -2526,17 +2533,17 @@
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="46" t="s">
         <v>80</v>
       </c>
       <c r="E12" s="8">
         <v>1</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="57">
+      <c r="F12" s="47"/>
+      <c r="G12" s="55">
         <v>35000</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="55">
         <v>32000</v>
       </c>
     </row>
@@ -2550,17 +2557,17 @@
       <c r="C13" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="46" t="s">
         <v>82</v>
       </c>
       <c r="E13" s="8">
         <v>1</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="57">
+      <c r="F13" s="47"/>
+      <c r="G13" s="55">
         <v>60000</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="55">
         <v>48000</v>
       </c>
     </row>
@@ -2568,17 +2575,17 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="46" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="8">
         <v>1</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="57">
+      <c r="F14" s="47"/>
+      <c r="G14" s="55">
         <v>62000</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="55">
         <v>55000</v>
       </c>
     </row>
@@ -2592,17 +2599,17 @@
       <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="46" t="s">
         <v>85</v>
       </c>
       <c r="E15" s="8">
         <v>1</v>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="57">
+      <c r="F15" s="47"/>
+      <c r="G15" s="55">
         <v>250000</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="55">
         <v>240000</v>
       </c>
     </row>
@@ -2616,20 +2623,20 @@
       <c r="C16" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="46" t="s">
         <v>87</v>
       </c>
       <c r="E16" s="8">
         <v>1</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="57">
+      <c r="F16" s="47"/>
+      <c r="G16" s="55">
         <v>150000</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="55">
         <v>135000</v>
       </c>
-      <c r="K16" s="50"/>
+      <c r="K16" s="48"/>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8">
@@ -2641,17 +2648,17 @@
       <c r="C17" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="8">
         <v>1</v>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="57">
+      <c r="F17" s="47"/>
+      <c r="G17" s="55">
         <v>45000</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="55">
         <v>35000</v>
       </c>
     </row>
@@ -2661,17 +2668,17 @@
       <c r="C18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="46" t="s">
         <v>90</v>
       </c>
       <c r="E18" s="8">
         <v>1</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="57">
+      <c r="F18" s="47"/>
+      <c r="G18" s="55">
         <v>12000</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H18" s="55">
         <v>7000</v>
       </c>
     </row>
@@ -2685,17 +2692,17 @@
       <c r="C19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="46" t="s">
         <v>92</v>
       </c>
       <c r="E19" s="8">
         <v>1</v>
       </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="57">
+      <c r="F19" s="47"/>
+      <c r="G19" s="55">
         <v>25000</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="55">
         <v>15000</v>
       </c>
     </row>
@@ -2703,19 +2710,19 @@
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="46" t="s">
         <v>93</v>
       </c>
       <c r="E20" s="8">
         <v>4</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="45">
         <v>8000</v>
       </c>
-      <c r="G20" s="57">
+      <c r="G20" s="55">
         <v>60000</v>
       </c>
-      <c r="H20" s="57">
+      <c r="H20" s="55">
         <v>32000</v>
       </c>
     </row>
@@ -2726,20 +2733,20 @@
       <c r="B21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="46" t="s">
         <v>92</v>
       </c>
       <c r="E21" s="8">
         <v>1</v>
       </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="57">
+      <c r="F21" s="45"/>
+      <c r="G21" s="55">
         <v>18000</v>
       </c>
-      <c r="H21" s="57">
+      <c r="H21" s="55">
         <v>13000</v>
       </c>
     </row>
@@ -2753,55 +2760,55 @@
       <c r="C22" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="46" t="s">
         <v>97</v>
       </c>
       <c r="E22" s="8">
         <v>1</v>
       </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="57">
+      <c r="F22" s="45"/>
+      <c r="G22" s="55">
         <v>50000</v>
       </c>
-      <c r="H22" s="57">
+      <c r="H22" s="55">
         <v>40000</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51" t="s">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="28">
         <v>1</v>
       </c>
       <c r="F23" s="28"/>
-      <c r="G23" s="58">
+      <c r="G23" s="56">
         <v>24000</v>
       </c>
-      <c r="H23" s="58">
+      <c r="H23" s="56">
         <v>22000</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49" t="s">
         <v>99</v>
       </c>
       <c r="E24" s="28">
         <v>2</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="45">
         <v>19000</v>
       </c>
-      <c r="G24" s="56">
+      <c r="G24" s="54">
         <v>40000</v>
       </c>
-      <c r="H24" s="59">
+      <c r="H24" s="57">
         <v>38000</v>
       </c>
     </row>
@@ -2815,17 +2822,17 @@
       <c r="C25" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="49" t="s">
         <v>102</v>
       </c>
       <c r="E25" s="28">
         <v>1</v>
       </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="56">
+      <c r="F25" s="45"/>
+      <c r="G25" s="54">
         <v>45000</v>
       </c>
-      <c r="H25" s="56">
+      <c r="H25" s="54">
         <v>33000</v>
       </c>
     </row>
@@ -2845,11 +2852,11 @@
       <c r="E26" s="28">
         <v>1</v>
       </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="56">
+      <c r="F26" s="45"/>
+      <c r="G26" s="54">
         <v>15000</v>
       </c>
-      <c r="H26" s="56">
+      <c r="H26" s="54">
         <v>9000</v>
       </c>
     </row>
@@ -2869,11 +2876,11 @@
       <c r="E27" s="28">
         <v>1</v>
       </c>
-      <c r="F27" s="47"/>
-      <c r="G27" s="56">
+      <c r="F27" s="45"/>
+      <c r="G27" s="54">
         <v>260000</v>
       </c>
-      <c r="H27" s="56">
+      <c r="H27" s="54">
         <v>70000</v>
       </c>
     </row>
@@ -2893,11 +2900,11 @@
       <c r="E28" s="28">
         <v>2</v>
       </c>
-      <c r="F28" s="47"/>
-      <c r="G28" s="56">
+      <c r="F28" s="45"/>
+      <c r="G28" s="54">
         <v>24000</v>
       </c>
-      <c r="H28" s="56">
+      <c r="H28" s="54">
         <v>16000</v>
       </c>
     </row>
@@ -2905,17 +2912,17 @@
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="49" t="s">
         <v>110</v>
       </c>
       <c r="E29" s="28">
         <v>2</v>
       </c>
-      <c r="F29" s="47"/>
-      <c r="G29" s="56">
+      <c r="F29" s="45"/>
+      <c r="G29" s="54">
         <v>24000</v>
       </c>
-      <c r="H29" s="56">
+      <c r="H29" s="54">
         <v>16000</v>
       </c>
     </row>
@@ -2923,17 +2930,17 @@
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="49" t="s">
         <v>111</v>
       </c>
       <c r="E30" s="28">
         <v>1</v>
       </c>
-      <c r="F30" s="47"/>
-      <c r="G30" s="56">
+      <c r="F30" s="45"/>
+      <c r="G30" s="54">
         <v>85000</v>
       </c>
-      <c r="H30" s="56">
+      <c r="H30" s="54">
         <v>70000</v>
       </c>
     </row>
@@ -2947,35 +2954,35 @@
       <c r="C31" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="49" t="s">
         <v>114</v>
       </c>
       <c r="E31" s="28">
         <v>1</v>
       </c>
-      <c r="F31" s="47"/>
-      <c r="G31" s="56">
+      <c r="F31" s="45"/>
+      <c r="G31" s="54">
         <v>120000</v>
       </c>
-      <c r="H31" s="56">
+      <c r="H31" s="54">
         <v>90000</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51" t="s">
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="28">
         <v>1</v>
       </c>
-      <c r="F32" s="47"/>
-      <c r="G32" s="56">
+      <c r="F32" s="45"/>
+      <c r="G32" s="54">
         <v>35000</v>
       </c>
-      <c r="H32" s="56">
+      <c r="H32" s="54">
         <v>32000</v>
       </c>
     </row>
@@ -2989,19 +2996,19 @@
       <c r="C33" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="49" t="s">
         <v>117</v>
       </c>
       <c r="E33" s="28">
         <v>2</v>
       </c>
-      <c r="F33" s="47">
+      <c r="F33" s="45">
         <v>15000</v>
       </c>
-      <c r="G33" s="56">
+      <c r="G33" s="54">
         <v>40000</v>
       </c>
-      <c r="H33" s="56">
+      <c r="H33" s="54">
         <v>30000</v>
       </c>
     </row>
@@ -3015,17 +3022,17 @@
       <c r="C34" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="49" t="s">
         <v>120</v>
       </c>
       <c r="E34" s="28">
         <v>1</v>
       </c>
-      <c r="F34" s="47"/>
-      <c r="G34" s="56">
+      <c r="F34" s="45"/>
+      <c r="G34" s="54">
         <v>150000</v>
       </c>
-      <c r="H34" s="56">
+      <c r="H34" s="54">
         <v>130000</v>
       </c>
     </row>
@@ -3035,39 +3042,39 @@
       <c r="C35" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="49" t="s">
         <v>122</v>
       </c>
       <c r="E35" s="28">
         <v>2</v>
       </c>
-      <c r="F35" s="47">
+      <c r="F35" s="45">
         <v>32000</v>
       </c>
-      <c r="G35" s="56">
+      <c r="G35" s="54">
         <v>70000</v>
       </c>
-      <c r="H35" s="56">
+      <c r="H35" s="54">
         <v>64000</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51" t="s">
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49" t="s">
         <v>82</v>
       </c>
       <c r="E36" s="28">
         <v>2</v>
       </c>
-      <c r="F36" s="47">
+      <c r="F36" s="45">
         <v>25000</v>
       </c>
-      <c r="G36" s="56">
+      <c r="G36" s="54">
         <v>60000</v>
       </c>
-      <c r="H36" s="56">
+      <c r="H36" s="54">
         <v>50000</v>
       </c>
     </row>
@@ -3077,17 +3084,17 @@
       <c r="C37" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="D37" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E37" s="28">
         <v>1</v>
       </c>
       <c r="F37" s="28"/>
-      <c r="G37" s="56">
+      <c r="G37" s="54">
         <v>80000</v>
       </c>
-      <c r="H37" s="56">
+      <c r="H37" s="54">
         <v>60000</v>
       </c>
     </row>
@@ -3108,15 +3115,15 @@
         <v>1</v>
       </c>
       <c r="F38" s="28"/>
-      <c r="G38" s="56">
+      <c r="G38" s="54">
         <v>150000</v>
       </c>
-      <c r="H38" s="56">
+      <c r="H38" s="54">
         <v>135000</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F39" s="52"/>
+      <c r="F39" s="50"/>
       <c r="G39" s="25">
         <f>SUM(G2:G38)</f>
         <v>2224500</v>
@@ -3127,68 +3134,68 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="53" t="s">
+      <c r="F40" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="G40" s="60"/>
-      <c r="H40" s="61">
+      <c r="G40" s="58"/>
+      <c r="H40" s="59">
         <v>264500</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="52" t="s">
+      <c r="F41" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="G41" s="60"/>
+      <c r="G41" s="58"/>
       <c r="H41" s="25">
         <f>SUM(H39:H40)</f>
         <v>1987500</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F42" s="52" t="s">
+      <c r="F42" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="62"/>
-      <c r="H42" s="63">
+      <c r="G42" s="60"/>
+      <c r="H42" s="61">
         <v>1000000</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F43" s="52" t="s">
+      <c r="F43" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="G43" s="43"/>
-      <c r="H43" s="64">
+      <c r="G43" s="41"/>
+      <c r="H43" s="62">
         <v>987500</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="54" t="s">
+      <c r="F44" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="H44" s="66">
+      <c r="H44" s="64">
         <v>500000</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="54" t="s">
+      <c r="F45" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="H45" s="67">
+      <c r="H45" s="65">
         <v>487500</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="54" t="s">
+      <c r="F46" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="H46" s="68">
+      <c r="H46" s="66">
         <v>500000</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H47" s="69">
+      <c r="H47" s="67">
         <f>H46-H45</f>
         <v>12500</v>
       </c>
@@ -3206,9 +3213,9 @@
   </sheetPr>
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3216,7 +3223,7 @@
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="79" customWidth="1"/>
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
@@ -3230,10 +3237,10 @@
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="38" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -3256,10 +3263,10 @@
       <c r="B2" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="77" t="s">
         <v>129</v>
       </c>
       <c r="E2" s="5">
@@ -3277,7 +3284,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="77" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="5">
@@ -3301,7 +3308,7 @@
       <c r="C4" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="77" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="5">
@@ -3325,7 +3332,7 @@
       <c r="C5" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="77" t="s">
         <v>134</v>
       </c>
       <c r="E5" s="5">
@@ -3349,7 +3356,7 @@
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="77" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="5">
@@ -3367,7 +3374,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="77" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="5">
@@ -3385,7 +3392,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="77" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="5">
@@ -3403,7 +3410,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="77" t="s">
         <v>138</v>
       </c>
       <c r="E9" s="5">
@@ -3421,7 +3428,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="77" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="5">
@@ -3435,11 +3442,11 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="78" t="s">
         <v>139</v>
       </c>
       <c r="E11" s="9">
@@ -3453,7 +3460,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8">
         <v>5</v>
       </c>
@@ -3463,7 +3470,7 @@
       <c r="C12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="78" t="s">
         <v>141</v>
       </c>
       <c r="E12" s="9">
@@ -3477,13 +3484,13 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="78" t="s">
         <v>83</v>
       </c>
       <c r="E13" s="9">
@@ -3497,7 +3504,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8">
         <v>6</v>
       </c>
@@ -3507,7 +3514,7 @@
       <c r="C14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="78" t="s">
         <v>143</v>
       </c>
       <c r="E14" s="9">
@@ -3521,11 +3528,11 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="78" t="s">
         <v>144</v>
       </c>
       <c r="E15" s="9">
@@ -3539,11 +3546,11 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="78" t="s">
         <v>145</v>
       </c>
       <c r="E16" s="9">
@@ -3557,11 +3564,11 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="78" t="s">
         <v>146</v>
       </c>
       <c r="E17" s="9">
@@ -3575,11 +3582,11 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="78" t="s">
         <v>147</v>
       </c>
       <c r="E18" s="9">
@@ -3593,13 +3600,13 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="78" t="s">
         <v>149</v>
       </c>
       <c r="E19" s="9">
@@ -3614,11 +3621,11 @@
       </c>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="78" t="s">
         <v>150</v>
       </c>
       <c r="E20" s="9">
@@ -3635,10 +3642,10 @@
     <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="78" t="s">
         <v>141</v>
       </c>
       <c r="E21" s="9">
@@ -3652,17 +3659,17 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="9">
         <v>7</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="78" t="s">
         <v>87</v>
       </c>
       <c r="E22" s="9">
@@ -3679,10 +3686,10 @@
     <row r="23" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="23" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="5">
@@ -3703,10 +3710,10 @@
       <c r="B24" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="23" t="s">
         <v>156</v>
       </c>
       <c r="E24" s="5">
@@ -3726,7 +3733,7 @@
       <c r="C25" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="23" t="s">
         <v>157</v>
       </c>
       <c r="E25" s="5">
@@ -3744,7 +3751,7 @@
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="77" t="s">
         <v>158</v>
       </c>
       <c r="E26" s="5">
@@ -3764,7 +3771,7 @@
       <c r="C27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="23" t="s">
         <v>159</v>
       </c>
       <c r="E27" s="5">
@@ -3782,7 +3789,7 @@
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="23" t="s">
         <v>160</v>
       </c>
       <c r="E28" s="5">
@@ -3806,7 +3813,7 @@
       <c r="C29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="23" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="5">
@@ -3826,7 +3833,7 @@
       <c r="C30" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="23" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="5">
@@ -3850,7 +3857,7 @@
       <c r="C31" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="23" t="s">
         <v>109</v>
       </c>
       <c r="E31" s="5">
@@ -3870,7 +3877,7 @@
       <c r="C32" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="23" t="s">
         <v>165</v>
       </c>
       <c r="E32" s="5">
@@ -3887,8 +3894,8 @@
     <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="37" t="s">
+      <c r="C33" s="40"/>
+      <c r="D33" s="23" t="s">
         <v>137</v>
       </c>
       <c r="E33" s="28">
@@ -3905,8 +3912,8 @@
     <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="37" t="s">
+      <c r="C34" s="40"/>
+      <c r="D34" s="23" t="s">
         <v>166</v>
       </c>
       <c r="E34" s="23">
@@ -3930,7 +3937,7 @@
       <c r="C35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="23" t="s">
         <v>168</v>
       </c>
       <c r="E35" s="23">
@@ -3954,7 +3961,7 @@
       <c r="C36" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="23" t="s">
         <v>171</v>
       </c>
       <c r="E36" s="23">
@@ -3972,7 +3979,7 @@
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="23" t="s">
         <v>172</v>
       </c>
       <c r="E37" s="23">
@@ -3996,7 +4003,7 @@
       <c r="C38" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="23" t="s">
         <v>175</v>
       </c>
       <c r="E38" s="23">
@@ -4014,7 +4021,7 @@
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="23" t="s">
         <v>77</v>
       </c>
       <c r="E39" s="23">
@@ -4032,7 +4039,7 @@
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="23" t="s">
         <v>176</v>
       </c>
       <c r="E40" s="23">
@@ -4050,7 +4057,7 @@
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="23" t="s">
         <v>177</v>
       </c>
       <c r="E41" s="23">
@@ -4068,7 +4075,7 @@
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="23" t="s">
         <v>178</v>
       </c>
       <c r="E42" s="23">
@@ -4092,7 +4099,7 @@
       <c r="C43" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="23" t="s">
         <v>197</v>
       </c>
       <c r="E43" s="23">
@@ -4110,7 +4117,7 @@
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="23" t="s">
         <v>196</v>
       </c>
       <c r="E44" s="23">
@@ -4128,7 +4135,7 @@
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="23" t="s">
         <v>181</v>
       </c>
       <c r="E45" s="23">
@@ -4152,7 +4159,7 @@
       <c r="C46" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="23" t="s">
         <v>87</v>
       </c>
       <c r="E46" s="23">
@@ -4172,7 +4179,7 @@
       <c r="C47" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D47" s="23" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="23">
@@ -4196,7 +4203,7 @@
       <c r="C48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="23" t="s">
         <v>184</v>
       </c>
       <c r="E48" s="23">
@@ -4214,7 +4221,7 @@
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="23" t="s">
         <v>185</v>
       </c>
       <c r="E49" s="23">
@@ -4232,7 +4239,7 @@
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="23" t="s">
         <v>186</v>
       </c>
       <c r="E50" s="23">
@@ -4250,7 +4257,7 @@
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="23" t="s">
         <v>187</v>
       </c>
       <c r="E51" s="23">
@@ -4268,7 +4275,7 @@
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="77" t="s">
         <v>188</v>
       </c>
       <c r="E52" s="23">
@@ -4292,7 +4299,7 @@
       <c r="C53" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="37" t="s">
+      <c r="D53" s="23" t="s">
         <v>190</v>
       </c>
       <c r="E53" s="23">
@@ -4310,7 +4317,7 @@
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="37" t="s">
+      <c r="D54" s="23" t="s">
         <v>6</v>
       </c>
       <c r="E54" s="23">
@@ -4330,7 +4337,7 @@
       <c r="C55" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="77" t="s">
         <v>191</v>
       </c>
       <c r="E55" s="23">
@@ -4348,7 +4355,7 @@
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="77" t="s">
         <v>192</v>
       </c>
       <c r="E56" s="23">
@@ -4366,7 +4373,7 @@
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="38" t="s">
+      <c r="D57" s="77" t="s">
         <v>193</v>
       </c>
       <c r="E57" s="23">
@@ -4387,7 +4394,7 @@
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="38" t="s">
+      <c r="D58" s="77" t="s">
         <v>111</v>
       </c>
       <c r="E58" s="23">
@@ -4409,7 +4416,7 @@
         <v>194</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="38" t="s">
+      <c r="D59" s="77" t="s">
         <v>76</v>
       </c>
       <c r="E59" s="23">
@@ -4429,7 +4436,7 @@
       <c r="C60" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D60" s="38" t="s">
+      <c r="D60" s="77" t="s">
         <v>196</v>
       </c>
       <c r="E60" s="23">
@@ -4447,7 +4454,7 @@
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="38" t="s">
+      <c r="D61" s="77" t="s">
         <v>197</v>
       </c>
       <c r="E61" s="23">
@@ -4467,7 +4474,7 @@
       <c r="C62" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="77" t="s">
         <v>198</v>
       </c>
       <c r="E62" s="23">
@@ -4491,7 +4498,7 @@
       <c r="C63" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="38" t="s">
+      <c r="D63" s="77" t="s">
         <v>39</v>
       </c>
       <c r="E63" s="23">
@@ -4515,7 +4522,7 @@
       <c r="C64" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="38" t="s">
+      <c r="D64" s="77" t="s">
         <v>202</v>
       </c>
       <c r="E64" s="23">
@@ -4535,7 +4542,7 @@
       <c r="C65" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="38" t="s">
+      <c r="D65" s="77" t="s">
         <v>204</v>
       </c>
       <c r="E65" s="23">
@@ -4559,7 +4566,7 @@
       <c r="C66" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D66" s="38" t="s">
+      <c r="D66" s="77" t="s">
         <v>207</v>
       </c>
       <c r="E66" s="23">
@@ -4577,7 +4584,7 @@
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="38" t="s">
+      <c r="D67" s="77" t="s">
         <v>208</v>
       </c>
       <c r="E67" s="23">
@@ -4595,7 +4602,7 @@
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="38" t="s">
+      <c r="D68" s="77" t="s">
         <v>209</v>
       </c>
       <c r="E68" s="23">
@@ -4613,7 +4620,7 @@
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="38" t="s">
+      <c r="D69" s="77" t="s">
         <v>210</v>
       </c>
       <c r="E69" s="23">
@@ -4633,7 +4640,7 @@
       <c r="C70" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D70" s="38" t="s">
+      <c r="D70" s="77" t="s">
         <v>87</v>
       </c>
       <c r="E70" s="23">
@@ -4657,7 +4664,7 @@
       <c r="C71" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D71" s="38" t="s">
+      <c r="D71" s="77" t="s">
         <v>120</v>
       </c>
       <c r="E71" s="23">
@@ -4675,7 +4682,7 @@
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="38" t="s">
+      <c r="D72" s="37" t="s">
         <v>213</v>
       </c>
       <c r="E72" s="23">
@@ -4695,7 +4702,7 @@
       <c r="C73" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D73" s="38" t="s">
+      <c r="D73" s="77" t="s">
         <v>243</v>
       </c>
       <c r="E73" s="23">
@@ -4745,15 +4752,15 @@
       <c r="F77" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="H77" s="74">
+      <c r="H77" s="72">
         <v>500000</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F78" s="77" t="s">
+      <c r="F78" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="H78" s="78">
+      <c r="H78" s="74">
         <f>H76-H77</f>
         <v>1880500</v>
       </c>
@@ -4771,8 +4778,8 @@
   </sheetPr>
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4780,7 +4787,7 @@
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="25" style="73" customWidth="1"/>
+    <col min="4" max="4" width="25" style="71" customWidth="1"/>
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -4794,7 +4801,7 @@
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="38" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -4820,10 +4827,10 @@
       <c r="B2" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="68" t="s">
         <v>92</v>
       </c>
       <c r="E2" s="5">
@@ -4841,7 +4848,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="68" t="s">
         <v>218</v>
       </c>
       <c r="E3" s="5">
@@ -4859,7 +4866,7 @@
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="68" t="s">
         <v>219</v>
       </c>
       <c r="E4" s="5"/>
@@ -4881,7 +4888,7 @@
       <c r="C5" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="68" t="s">
         <v>221</v>
       </c>
       <c r="E5" s="5">
@@ -4899,7 +4906,7 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="68" t="s">
         <v>223</v>
       </c>
       <c r="E6" s="5">
@@ -4919,7 +4926,7 @@
       <c r="C7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="68" t="s">
         <v>222</v>
       </c>
       <c r="E7" s="5">
@@ -4943,7 +4950,7 @@
       <c r="C8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="68" t="s">
         <v>111</v>
       </c>
       <c r="E8" s="5">
@@ -4967,7 +4974,7 @@
       <c r="C9" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="68" t="s">
         <v>226</v>
       </c>
       <c r="E9" s="5">
@@ -4991,7 +4998,7 @@
       <c r="C10" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="68" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="5">
@@ -5015,7 +5022,7 @@
       <c r="C11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="68" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="5">
@@ -5039,7 +5046,7 @@
       <c r="C12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="69" t="s">
         <v>231</v>
       </c>
       <c r="E12" s="9">
@@ -5055,7 +5062,7 @@
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="69" t="s">
         <v>156</v>
       </c>
       <c r="E13" s="9">
@@ -5071,7 +5078,7 @@
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="69" t="s">
         <v>232</v>
       </c>
       <c r="E14" s="9">
@@ -5087,7 +5094,7 @@
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="69" t="s">
         <v>233</v>
       </c>
       <c r="E15" s="9">
@@ -5103,7 +5110,7 @@
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="69" t="s">
         <v>234</v>
       </c>
       <c r="E16" s="9">
@@ -5119,7 +5126,7 @@
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="69" t="s">
         <v>235</v>
       </c>
       <c r="E17" s="9">
@@ -5135,7 +5142,7 @@
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="69" t="s">
         <v>236</v>
       </c>
       <c r="E18" s="9">
@@ -5151,7 +5158,7 @@
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="69" t="s">
         <v>237</v>
       </c>
       <c r="E19" s="9">
@@ -5167,7 +5174,7 @@
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="69" t="s">
         <v>238</v>
       </c>
       <c r="E20" s="9">
@@ -5184,7 +5191,7 @@
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="69" t="s">
         <v>239</v>
       </c>
       <c r="E21" s="9">
@@ -5200,7 +5207,7 @@
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="69" t="s">
         <v>147</v>
       </c>
       <c r="E22" s="9">
@@ -5218,7 +5225,7 @@
       <c r="C23" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="69" t="s">
         <v>241</v>
       </c>
       <c r="E23" s="9">
@@ -5250,7 +5257,7 @@
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="72"/>
+      <c r="D25" s="70"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
@@ -5260,7 +5267,7 @@
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="72"/>
+      <c r="D26" s="70"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
@@ -5270,7 +5277,7 @@
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="70"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
@@ -5280,7 +5287,7 @@
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="72"/>
+      <c r="D28" s="70"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="6"/>
@@ -5290,7 +5297,7 @@
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="72"/>
+      <c r="D29" s="70"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
@@ -5300,7 +5307,7 @@
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="72"/>
+      <c r="D30" s="70"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
@@ -5310,7 +5317,7 @@
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="72"/>
+      <c r="D31" s="70"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
@@ -5320,7 +5327,7 @@
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="72"/>
+      <c r="D32" s="70"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
@@ -5330,7 +5337,7 @@
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="72"/>
+      <c r="D33" s="70"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
@@ -5339,8 +5346,8 @@
     <row r="34" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="72"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="70"/>
       <c r="E34" s="28"/>
       <c r="F34" s="27"/>
       <c r="G34" s="6"/>
@@ -5349,8 +5356,8 @@
     <row r="35" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="27"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="72"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="70"/>
       <c r="E35" s="23"/>
       <c r="F35" s="27"/>
       <c r="G35" s="6"/>
@@ -5360,7 +5367,7 @@
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="72"/>
+      <c r="D36" s="70"/>
       <c r="E36" s="23"/>
       <c r="F36" s="27"/>
       <c r="G36" s="6"/>
@@ -5370,7 +5377,7 @@
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="72"/>
+      <c r="D37" s="70"/>
       <c r="E37" s="23"/>
       <c r="F37" s="27"/>
       <c r="G37" s="6"/>
@@ -5380,7 +5387,7 @@
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="72"/>
+      <c r="D38" s="70"/>
       <c r="E38" s="23"/>
       <c r="F38" s="27"/>
       <c r="G38" s="6"/>
@@ -5390,7 +5397,7 @@
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="72"/>
+      <c r="D39" s="70"/>
       <c r="E39" s="23"/>
       <c r="F39" s="27"/>
       <c r="G39" s="6"/>
@@ -5400,7 +5407,7 @@
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="72"/>
+      <c r="D40" s="70"/>
       <c r="E40" s="23"/>
       <c r="F40" s="27"/>
       <c r="G40" s="6"/>
@@ -5410,7 +5417,7 @@
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="72"/>
+      <c r="D41" s="70"/>
       <c r="E41" s="23"/>
       <c r="F41" s="27"/>
       <c r="G41" s="6"/>
@@ -5420,7 +5427,7 @@
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="72"/>
+      <c r="D42" s="70"/>
       <c r="E42" s="23"/>
       <c r="F42" s="27"/>
       <c r="G42" s="6"/>
@@ -5430,7 +5437,7 @@
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="72"/>
+      <c r="D43" s="70"/>
       <c r="E43" s="23"/>
       <c r="F43" s="27"/>
       <c r="G43" s="6"/>
@@ -5440,7 +5447,7 @@
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="72"/>
+      <c r="D44" s="70"/>
       <c r="E44" s="23"/>
       <c r="F44" s="27"/>
       <c r="G44" s="6"/>
@@ -5450,7 +5457,7 @@
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="72"/>
+      <c r="D45" s="70"/>
       <c r="E45" s="23"/>
       <c r="F45" s="27"/>
       <c r="G45" s="6"/>
@@ -5460,7 +5467,7 @@
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="72"/>
+      <c r="D46" s="70"/>
       <c r="E46" s="23"/>
       <c r="F46" s="27"/>
       <c r="G46" s="6"/>
@@ -5470,7 +5477,7 @@
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="72"/>
+      <c r="D47" s="70"/>
       <c r="E47" s="23"/>
       <c r="F47" s="27"/>
       <c r="G47" s="6"/>
@@ -5480,7 +5487,7 @@
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="72"/>
+      <c r="D48" s="70"/>
       <c r="E48" s="23"/>
       <c r="F48" s="27"/>
       <c r="G48" s="6"/>
@@ -5490,7 +5497,7 @@
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="72"/>
+      <c r="D49" s="70"/>
       <c r="E49" s="23"/>
       <c r="F49" s="27"/>
       <c r="G49" s="6"/>
@@ -5500,7 +5507,7 @@
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="72"/>
+      <c r="D50" s="70"/>
       <c r="E50" s="23"/>
       <c r="F50" s="27"/>
       <c r="G50" s="6"/>
@@ -5510,7 +5517,7 @@
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="72"/>
+      <c r="D51" s="70"/>
       <c r="E51" s="23"/>
       <c r="F51" s="27"/>
       <c r="G51" s="6"/>
@@ -5520,7 +5527,7 @@
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="72"/>
+      <c r="D52" s="70"/>
       <c r="E52" s="23"/>
       <c r="F52" s="27"/>
       <c r="G52" s="6"/>
@@ -5530,7 +5537,7 @@
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="70"/>
+      <c r="D53" s="68"/>
       <c r="E53" s="23"/>
       <c r="F53" s="27"/>
       <c r="G53" s="6"/>
@@ -5540,7 +5547,7 @@
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="72"/>
+      <c r="D54" s="70"/>
       <c r="E54" s="23"/>
       <c r="F54" s="27"/>
       <c r="G54" s="6"/>
@@ -5550,7 +5557,7 @@
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="72"/>
+      <c r="D55" s="70"/>
       <c r="E55" s="23"/>
       <c r="F55" s="27"/>
       <c r="G55" s="6"/>
@@ -5560,7 +5567,7 @@
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="70"/>
+      <c r="D56" s="68"/>
       <c r="E56" s="23"/>
       <c r="F56" s="27"/>
       <c r="G56" s="6"/>
@@ -5570,7 +5577,7 @@
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="70"/>
+      <c r="D57" s="68"/>
       <c r="E57" s="23"/>
       <c r="F57" s="27"/>
       <c r="G57" s="6"/>
@@ -5580,7 +5587,7 @@
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="70"/>
+      <c r="D58" s="68"/>
       <c r="E58" s="23"/>
       <c r="F58" s="27"/>
       <c r="G58" s="6"/>
@@ -5593,7 +5600,7 @@
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="70"/>
+      <c r="D59" s="68"/>
       <c r="E59" s="23"/>
       <c r="F59" s="27"/>
       <c r="G59" s="6"/>
@@ -5603,7 +5610,7 @@
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="70"/>
+      <c r="D60" s="68"/>
       <c r="E60" s="23"/>
       <c r="F60" s="27"/>
       <c r="G60" s="6"/>
@@ -5613,7 +5620,7 @@
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="70"/>
+      <c r="D61" s="68"/>
       <c r="E61" s="23"/>
       <c r="F61" s="27"/>
       <c r="G61" s="6"/>
@@ -5623,7 +5630,7 @@
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="70"/>
+      <c r="D62" s="68"/>
       <c r="E62" s="23"/>
       <c r="F62" s="27"/>
       <c r="G62" s="6"/>
@@ -5633,7 +5640,7 @@
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="70"/>
+      <c r="D63" s="68"/>
       <c r="E63" s="23"/>
       <c r="F63" s="27"/>
       <c r="G63" s="6"/>
@@ -5643,7 +5650,7 @@
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="70"/>
+      <c r="D64" s="68"/>
       <c r="E64" s="23"/>
       <c r="F64" s="27"/>
       <c r="G64" s="6"/>
@@ -5653,7 +5660,7 @@
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="70"/>
+      <c r="D65" s="68"/>
       <c r="E65" s="23"/>
       <c r="F65" s="27"/>
       <c r="G65" s="6"/>
@@ -5663,7 +5670,7 @@
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="70"/>
+      <c r="D66" s="68"/>
       <c r="E66" s="23"/>
       <c r="F66" s="27"/>
       <c r="G66" s="6"/>
@@ -5673,7 +5680,7 @@
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="70"/>
+      <c r="D67" s="68"/>
       <c r="E67" s="23"/>
       <c r="F67" s="27"/>
       <c r="G67" s="6"/>
@@ -5683,7 +5690,7 @@
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="70"/>
+      <c r="D68" s="68"/>
       <c r="E68" s="23"/>
       <c r="F68" s="27"/>
       <c r="G68" s="6"/>
@@ -5693,7 +5700,7 @@
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="70"/>
+      <c r="D69" s="68"/>
       <c r="E69" s="23"/>
       <c r="F69" s="27"/>
       <c r="G69" s="6"/>
@@ -5703,7 +5710,7 @@
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="70"/>
+      <c r="D70" s="68"/>
       <c r="E70" s="23"/>
       <c r="F70" s="27"/>
       <c r="G70" s="6"/>
@@ -5713,7 +5720,7 @@
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="70"/>
+      <c r="D71" s="68"/>
       <c r="E71" s="23"/>
       <c r="F71" s="27"/>
       <c r="G71" s="6"/>
@@ -5723,7 +5730,7 @@
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="70"/>
+      <c r="D72" s="68"/>
       <c r="E72" s="23"/>
       <c r="F72" s="27"/>
       <c r="G72" s="6"/>
@@ -5733,7 +5740,7 @@
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="70"/>
+      <c r="D73" s="68"/>
       <c r="E73" s="23"/>
       <c r="F73" s="27"/>
       <c r="G73" s="6"/>
@@ -5743,7 +5750,7 @@
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="70"/>
+      <c r="D74" s="68"/>
       <c r="E74" s="23"/>
       <c r="F74" s="27"/>
       <c r="G74" s="6"/>

--- a/GB-3 BAYINTNAUNG.xlsx
+++ b/GB-3 BAYINTNAUNG.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="273">
   <si>
     <t>Mitsubishi RVR</t>
   </si>
@@ -770,6 +770,90 @@
   <si>
     <t>Paid 11.8.2018</t>
   </si>
+  <si>
+    <t>10.8.2018</t>
+  </si>
+  <si>
+    <t>ေနာ္ဇယ္ေခါင္း</t>
+  </si>
+  <si>
+    <t>မီးတန္းေခါင္းနွင့္ေရြ့စင္တာ၀မ္းဆက္လဲ</t>
+  </si>
+  <si>
+    <t>Pump</t>
+  </si>
+  <si>
+    <t>Isuzu</t>
+  </si>
+  <si>
+    <t>Oil Seal</t>
+  </si>
+  <si>
+    <t>Belta</t>
+  </si>
+  <si>
+    <t>11.8.2018</t>
+  </si>
+  <si>
+    <t>CVR</t>
+  </si>
+  <si>
+    <t>13.8.2018</t>
+  </si>
+  <si>
+    <t>14.8.2018</t>
+  </si>
+  <si>
+    <t>15.8.2018</t>
+  </si>
+  <si>
+    <t>အေပၚဂိုင္းဘြတ္</t>
+  </si>
+  <si>
+    <t>အေပၚေဘာဂိြ်ဳင္း</t>
+  </si>
+  <si>
+    <t>Alignment</t>
+  </si>
+  <si>
+    <t>မိန္းလံုးသဲကာ</t>
+  </si>
+  <si>
+    <t>ေကာ္နက္တင္း/မိန္းBearings</t>
+  </si>
+  <si>
+    <t>18.8.2018</t>
+  </si>
+  <si>
+    <t>Main /ေကာ္နက္တင္းBearings</t>
+  </si>
+  <si>
+    <t>Water Pump</t>
+  </si>
+  <si>
+    <t>Lanser</t>
+  </si>
+  <si>
+    <t>Wipper Pump</t>
+  </si>
+  <si>
+    <t>19.8.2018</t>
+  </si>
+  <si>
+    <t>Starex</t>
+  </si>
+  <si>
+    <t>မိန္းပူလီျကိုး</t>
+  </si>
+  <si>
+    <t>Free ပူလီျကိုး</t>
+  </si>
+  <si>
+    <t>20.8.2018</t>
+  </si>
+  <si>
+    <t>ဘယ္ရစ္တိုက္ေရာ့</t>
+  </si>
 </sst>
 </file>
 
@@ -779,7 +863,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -987,22 +1071,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF7030A0"/>
       <name val="Zawgyi-One"/>
@@ -1014,6 +1082,45 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Zawgyi-One"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Zawgyi-One"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Zawgyi-One"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Zawgyi-One"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Zawgyi-One"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Zawgyi-One"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1085,7 +1192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1165,9 +1272,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1272,26 +1376,60 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2282,15 +2420,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" style="42" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="42" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="42" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="42" customWidth="1"/>
-    <col min="6" max="6" width="15" style="42" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="63" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="63" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="4" style="41" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="15" style="41" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="62" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="62" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2312,10 +2450,10 @@
       <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="52" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2326,20 +2464,20 @@
       <c r="B2" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>64</v>
       </c>
       <c r="E2" s="28">
         <v>1</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="54">
+      <c r="F2" s="44"/>
+      <c r="G2" s="53">
         <v>1500</v>
       </c>
-      <c r="H2" s="54">
+      <c r="H2" s="53">
         <v>1500</v>
       </c>
     </row>
@@ -2353,17 +2491,17 @@
       <c r="C3" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="28">
         <v>1</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="54">
+      <c r="F3" s="44"/>
+      <c r="G3" s="53">
         <v>25000</v>
       </c>
-      <c r="H3" s="54">
+      <c r="H3" s="53">
         <v>19000</v>
       </c>
     </row>
@@ -2373,17 +2511,17 @@
       <c r="C4" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="43" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="28">
         <v>1</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="54">
+      <c r="F4" s="44"/>
+      <c r="G4" s="53">
         <v>25000</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="53">
         <v>15000</v>
       </c>
     </row>
@@ -2393,17 +2531,17 @@
       <c r="C5" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>67</v>
       </c>
       <c r="E5" s="28">
         <v>1</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="54">
+      <c r="F5" s="44"/>
+      <c r="G5" s="53">
         <v>25000</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="53">
         <v>18000</v>
       </c>
     </row>
@@ -2413,17 +2551,17 @@
       <c r="C6" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="43" t="s">
         <v>67</v>
       </c>
       <c r="E6" s="28">
         <v>1</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="54">
+      <c r="F6" s="44"/>
+      <c r="G6" s="53">
         <v>26000</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="53">
         <v>19000</v>
       </c>
     </row>
@@ -2437,15 +2575,15 @@
       <c r="C7" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="43" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="28">
         <v>1</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54">
+      <c r="F7" s="44"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53">
         <v>19000</v>
       </c>
     </row>
@@ -2459,17 +2597,17 @@
       <c r="C8" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="43" t="s">
         <v>75</v>
       </c>
       <c r="E8" s="28">
         <v>1</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="54">
+      <c r="F8" s="44"/>
+      <c r="G8" s="53">
         <v>7000</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="53">
         <v>7500</v>
       </c>
     </row>
@@ -2477,17 +2615,17 @@
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="43" t="s">
         <v>76</v>
       </c>
       <c r="E9" s="28">
         <v>1</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="54">
+      <c r="F9" s="44"/>
+      <c r="G9" s="53">
         <v>13000</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="53">
         <v>9000</v>
       </c>
     </row>
@@ -2495,17 +2633,17 @@
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="43" t="s">
         <v>77</v>
       </c>
       <c r="E10" s="28">
         <v>1</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="54">
+      <c r="F10" s="44"/>
+      <c r="G10" s="53">
         <v>18000</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10" s="53">
         <v>13000</v>
       </c>
     </row>
@@ -2515,17 +2653,17 @@
       <c r="C11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="45" t="s">
         <v>79</v>
       </c>
       <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="55">
+      <c r="F11" s="46"/>
+      <c r="G11" s="54">
         <v>95000</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="54">
         <v>85000</v>
       </c>
     </row>
@@ -2533,17 +2671,17 @@
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="45" t="s">
         <v>80</v>
       </c>
       <c r="E12" s="8">
         <v>1</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="55">
+      <c r="F12" s="46"/>
+      <c r="G12" s="54">
         <v>35000</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="54">
         <v>32000</v>
       </c>
     </row>
@@ -2557,17 +2695,17 @@
       <c r="C13" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="45" t="s">
         <v>82</v>
       </c>
       <c r="E13" s="8">
         <v>1</v>
       </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="55">
+      <c r="F13" s="46"/>
+      <c r="G13" s="54">
         <v>60000</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="54">
         <v>48000</v>
       </c>
     </row>
@@ -2575,17 +2713,17 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="45" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="8">
         <v>1</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="55">
+      <c r="F14" s="46"/>
+      <c r="G14" s="54">
         <v>62000</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="54">
         <v>55000</v>
       </c>
     </row>
@@ -2599,17 +2737,17 @@
       <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="45" t="s">
         <v>85</v>
       </c>
       <c r="E15" s="8">
         <v>1</v>
       </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="55">
+      <c r="F15" s="46"/>
+      <c r="G15" s="54">
         <v>250000</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="54">
         <v>240000</v>
       </c>
     </row>
@@ -2623,20 +2761,20 @@
       <c r="C16" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="45" t="s">
         <v>87</v>
       </c>
       <c r="E16" s="8">
         <v>1</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="55">
+      <c r="F16" s="46"/>
+      <c r="G16" s="54">
         <v>150000</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="54">
         <v>135000</v>
       </c>
-      <c r="K16" s="48"/>
+      <c r="K16" s="47"/>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8">
@@ -2648,17 +2786,17 @@
       <c r="C17" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="45" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="8">
         <v>1</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="55">
+      <c r="F17" s="46"/>
+      <c r="G17" s="54">
         <v>45000</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="54">
         <v>35000</v>
       </c>
     </row>
@@ -2668,17 +2806,17 @@
       <c r="C18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="45" t="s">
         <v>90</v>
       </c>
       <c r="E18" s="8">
         <v>1</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="55">
+      <c r="F18" s="46"/>
+      <c r="G18" s="54">
         <v>12000</v>
       </c>
-      <c r="H18" s="55">
+      <c r="H18" s="54">
         <v>7000</v>
       </c>
     </row>
@@ -2692,17 +2830,17 @@
       <c r="C19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="45" t="s">
         <v>92</v>
       </c>
       <c r="E19" s="8">
         <v>1</v>
       </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="55">
+      <c r="F19" s="46"/>
+      <c r="G19" s="54">
         <v>25000</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="54">
         <v>15000</v>
       </c>
     </row>
@@ -2710,19 +2848,19 @@
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="45" t="s">
         <v>93</v>
       </c>
       <c r="E20" s="8">
         <v>4</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="44">
         <v>8000</v>
       </c>
-      <c r="G20" s="55">
+      <c r="G20" s="54">
         <v>60000</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="54">
         <v>32000</v>
       </c>
     </row>
@@ -2733,20 +2871,20 @@
       <c r="B21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="45" t="s">
         <v>92</v>
       </c>
       <c r="E21" s="8">
         <v>1</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="55">
+      <c r="F21" s="44"/>
+      <c r="G21" s="54">
         <v>18000</v>
       </c>
-      <c r="H21" s="55">
+      <c r="H21" s="54">
         <v>13000</v>
       </c>
     </row>
@@ -2760,55 +2898,55 @@
       <c r="C22" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="45" t="s">
         <v>97</v>
       </c>
       <c r="E22" s="8">
         <v>1</v>
       </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="55">
+      <c r="F22" s="44"/>
+      <c r="G22" s="54">
         <v>50000</v>
       </c>
-      <c r="H22" s="55">
+      <c r="H22" s="54">
         <v>40000</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49" t="s">
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="28">
         <v>1</v>
       </c>
       <c r="F23" s="28"/>
-      <c r="G23" s="56">
+      <c r="G23" s="55">
         <v>24000</v>
       </c>
-      <c r="H23" s="56">
+      <c r="H23" s="55">
         <v>22000</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49" t="s">
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48" t="s">
         <v>99</v>
       </c>
       <c r="E24" s="28">
         <v>2</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="44">
         <v>19000</v>
       </c>
-      <c r="G24" s="54">
+      <c r="G24" s="53">
         <v>40000</v>
       </c>
-      <c r="H24" s="57">
+      <c r="H24" s="56">
         <v>38000</v>
       </c>
     </row>
@@ -2822,17 +2960,17 @@
       <c r="C25" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="48" t="s">
         <v>102</v>
       </c>
       <c r="E25" s="28">
         <v>1</v>
       </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="54">
+      <c r="F25" s="44"/>
+      <c r="G25" s="53">
         <v>45000</v>
       </c>
-      <c r="H25" s="54">
+      <c r="H25" s="53">
         <v>33000</v>
       </c>
     </row>
@@ -2852,11 +2990,11 @@
       <c r="E26" s="28">
         <v>1</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="54">
+      <c r="F26" s="44"/>
+      <c r="G26" s="53">
         <v>15000</v>
       </c>
-      <c r="H26" s="54">
+      <c r="H26" s="53">
         <v>9000</v>
       </c>
     </row>
@@ -2876,11 +3014,11 @@
       <c r="E27" s="28">
         <v>1</v>
       </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="54">
+      <c r="F27" s="44"/>
+      <c r="G27" s="53">
         <v>260000</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H27" s="53">
         <v>70000</v>
       </c>
     </row>
@@ -2900,11 +3038,11 @@
       <c r="E28" s="28">
         <v>2</v>
       </c>
-      <c r="F28" s="45"/>
-      <c r="G28" s="54">
+      <c r="F28" s="44"/>
+      <c r="G28" s="53">
         <v>24000</v>
       </c>
-      <c r="H28" s="54">
+      <c r="H28" s="53">
         <v>16000</v>
       </c>
     </row>
@@ -2912,17 +3050,17 @@
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="48" t="s">
         <v>110</v>
       </c>
       <c r="E29" s="28">
         <v>2</v>
       </c>
-      <c r="F29" s="45"/>
-      <c r="G29" s="54">
+      <c r="F29" s="44"/>
+      <c r="G29" s="53">
         <v>24000</v>
       </c>
-      <c r="H29" s="54">
+      <c r="H29" s="53">
         <v>16000</v>
       </c>
     </row>
@@ -2930,17 +3068,17 @@
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="48" t="s">
         <v>111</v>
       </c>
       <c r="E30" s="28">
         <v>1</v>
       </c>
-      <c r="F30" s="45"/>
-      <c r="G30" s="54">
+      <c r="F30" s="44"/>
+      <c r="G30" s="53">
         <v>85000</v>
       </c>
-      <c r="H30" s="54">
+      <c r="H30" s="53">
         <v>70000</v>
       </c>
     </row>
@@ -2954,35 +3092,35 @@
       <c r="C31" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="48" t="s">
         <v>114</v>
       </c>
       <c r="E31" s="28">
         <v>1</v>
       </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="54">
+      <c r="F31" s="44"/>
+      <c r="G31" s="53">
         <v>120000</v>
       </c>
-      <c r="H31" s="54">
+      <c r="H31" s="53">
         <v>90000</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49" t="s">
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="28">
         <v>1</v>
       </c>
-      <c r="F32" s="45"/>
-      <c r="G32" s="54">
+      <c r="F32" s="44"/>
+      <c r="G32" s="53">
         <v>35000</v>
       </c>
-      <c r="H32" s="54">
+      <c r="H32" s="53">
         <v>32000</v>
       </c>
     </row>
@@ -2996,19 +3134,19 @@
       <c r="C33" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="48" t="s">
         <v>117</v>
       </c>
       <c r="E33" s="28">
         <v>2</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="44">
         <v>15000</v>
       </c>
-      <c r="G33" s="54">
+      <c r="G33" s="53">
         <v>40000</v>
       </c>
-      <c r="H33" s="54">
+      <c r="H33" s="53">
         <v>30000</v>
       </c>
     </row>
@@ -3022,17 +3160,17 @@
       <c r="C34" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="48" t="s">
         <v>120</v>
       </c>
       <c r="E34" s="28">
         <v>1</v>
       </c>
-      <c r="F34" s="45"/>
-      <c r="G34" s="54">
+      <c r="F34" s="44"/>
+      <c r="G34" s="53">
         <v>150000</v>
       </c>
-      <c r="H34" s="54">
+      <c r="H34" s="53">
         <v>130000</v>
       </c>
     </row>
@@ -3042,39 +3180,39 @@
       <c r="C35" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="48" t="s">
         <v>122</v>
       </c>
       <c r="E35" s="28">
         <v>2</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="44">
         <v>32000</v>
       </c>
-      <c r="G35" s="54">
+      <c r="G35" s="53">
         <v>70000</v>
       </c>
-      <c r="H35" s="54">
+      <c r="H35" s="53">
         <v>64000</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49" t="s">
+      <c r="A36" s="48"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48" t="s">
         <v>82</v>
       </c>
       <c r="E36" s="28">
         <v>2</v>
       </c>
-      <c r="F36" s="45">
+      <c r="F36" s="44">
         <v>25000</v>
       </c>
-      <c r="G36" s="54">
+      <c r="G36" s="53">
         <v>60000</v>
       </c>
-      <c r="H36" s="54">
+      <c r="H36" s="53">
         <v>50000</v>
       </c>
     </row>
@@ -3084,17 +3222,17 @@
       <c r="C37" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="48" t="s">
         <v>123</v>
       </c>
       <c r="E37" s="28">
         <v>1</v>
       </c>
       <c r="F37" s="28"/>
-      <c r="G37" s="54">
+      <c r="G37" s="53">
         <v>80000</v>
       </c>
-      <c r="H37" s="54">
+      <c r="H37" s="53">
         <v>60000</v>
       </c>
     </row>
@@ -3115,15 +3253,15 @@
         <v>1</v>
       </c>
       <c r="F38" s="28"/>
-      <c r="G38" s="54">
+      <c r="G38" s="53">
         <v>150000</v>
       </c>
-      <c r="H38" s="54">
+      <c r="H38" s="53">
         <v>135000</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F39" s="50"/>
+      <c r="F39" s="49"/>
       <c r="G39" s="25">
         <f>SUM(G2:G38)</f>
         <v>2224500</v>
@@ -3134,68 +3272,68 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="51" t="s">
+      <c r="F40" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="G40" s="58"/>
-      <c r="H40" s="59">
+      <c r="G40" s="57"/>
+      <c r="H40" s="58">
         <v>264500</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="50" t="s">
+      <c r="F41" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="G41" s="58"/>
+      <c r="G41" s="57"/>
       <c r="H41" s="25">
         <f>SUM(H39:H40)</f>
         <v>1987500</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F42" s="50" t="s">
+      <c r="F42" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="60"/>
-      <c r="H42" s="61">
+      <c r="G42" s="59"/>
+      <c r="H42" s="60">
         <v>1000000</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="G43" s="41"/>
-      <c r="H43" s="62">
+      <c r="G43" s="40"/>
+      <c r="H43" s="61">
         <v>987500</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="52" t="s">
+      <c r="F44" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="H44" s="64">
+      <c r="H44" s="63">
         <v>500000</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="52" t="s">
+      <c r="F45" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="H45" s="65">
+      <c r="H45" s="64">
         <v>487500</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="52" t="s">
+      <c r="F46" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="H46" s="66">
+      <c r="H46" s="65">
         <v>500000</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H47" s="67">
+      <c r="H47" s="66">
         <f>H46-H45</f>
         <v>12500</v>
       </c>
@@ -3222,8 +3360,8 @@
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="79" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="74" customWidth="1"/>
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
@@ -3237,10 +3375,10 @@
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -3263,10 +3401,10 @@
       <c r="B2" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="72" t="s">
         <v>129</v>
       </c>
       <c r="E2" s="5">
@@ -3284,7 +3422,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="72" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="5">
@@ -3308,7 +3446,7 @@
       <c r="C4" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="5">
@@ -3332,7 +3470,7 @@
       <c r="C5" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="72" t="s">
         <v>134</v>
       </c>
       <c r="E5" s="5">
@@ -3356,7 +3494,7 @@
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="72" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="5">
@@ -3374,7 +3512,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="72" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="5">
@@ -3392,7 +3530,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="72" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="5">
@@ -3410,7 +3548,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="72" t="s">
         <v>138</v>
       </c>
       <c r="E9" s="5">
@@ -3428,7 +3566,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="72" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="5">
@@ -3446,7 +3584,7 @@
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="73" t="s">
         <v>139</v>
       </c>
       <c r="E11" s="9">
@@ -3470,7 +3608,7 @@
       <c r="C12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="73" t="s">
         <v>141</v>
       </c>
       <c r="E12" s="9">
@@ -3490,7 +3628,7 @@
       <c r="C13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="78" t="s">
+      <c r="D13" s="73" t="s">
         <v>83</v>
       </c>
       <c r="E13" s="9">
@@ -3514,7 +3652,7 @@
       <c r="C14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="73" t="s">
         <v>143</v>
       </c>
       <c r="E14" s="9">
@@ -3532,7 +3670,7 @@
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="78" t="s">
+      <c r="D15" s="73" t="s">
         <v>144</v>
       </c>
       <c r="E15" s="9">
@@ -3550,7 +3688,7 @@
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="73" t="s">
         <v>145</v>
       </c>
       <c r="E16" s="9">
@@ -3568,7 +3706,7 @@
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="73" t="s">
         <v>146</v>
       </c>
       <c r="E17" s="9">
@@ -3586,7 +3724,7 @@
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="78" t="s">
+      <c r="D18" s="73" t="s">
         <v>147</v>
       </c>
       <c r="E18" s="9">
@@ -3606,7 +3744,7 @@
       <c r="C19" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="78" t="s">
+      <c r="D19" s="73" t="s">
         <v>149</v>
       </c>
       <c r="E19" s="9">
@@ -3625,7 +3763,7 @@
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="73" t="s">
         <v>150</v>
       </c>
       <c r="E20" s="9">
@@ -3645,7 +3783,7 @@
       <c r="C21" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D21" s="78" t="s">
+      <c r="D21" s="73" t="s">
         <v>141</v>
       </c>
       <c r="E21" s="9">
@@ -3669,7 +3807,7 @@
       <c r="C22" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="78" t="s">
+      <c r="D22" s="73" t="s">
         <v>87</v>
       </c>
       <c r="E22" s="9">
@@ -3751,7 +3889,7 @@
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="77" t="s">
+      <c r="D26" s="72" t="s">
         <v>158</v>
       </c>
       <c r="E26" s="5">
@@ -3894,7 +4032,7 @@
     <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
-      <c r="C33" s="40"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="23" t="s">
         <v>137</v>
       </c>
@@ -3912,7 +4050,7 @@
     <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
-      <c r="C34" s="40"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="23" t="s">
         <v>166</v>
       </c>
@@ -4275,7 +4413,7 @@
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="77" t="s">
+      <c r="D52" s="72" t="s">
         <v>188</v>
       </c>
       <c r="E52" s="23">
@@ -4337,7 +4475,7 @@
       <c r="C55" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="77" t="s">
+      <c r="D55" s="72" t="s">
         <v>191</v>
       </c>
       <c r="E55" s="23">
@@ -4355,7 +4493,7 @@
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="77" t="s">
+      <c r="D56" s="72" t="s">
         <v>192</v>
       </c>
       <c r="E56" s="23">
@@ -4373,7 +4511,7 @@
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="77" t="s">
+      <c r="D57" s="72" t="s">
         <v>193</v>
       </c>
       <c r="E57" s="23">
@@ -4394,7 +4532,7 @@
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="77" t="s">
+      <c r="D58" s="72" t="s">
         <v>111</v>
       </c>
       <c r="E58" s="23">
@@ -4416,7 +4554,7 @@
         <v>194</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="77" t="s">
+      <c r="D59" s="72" t="s">
         <v>76</v>
       </c>
       <c r="E59" s="23">
@@ -4436,7 +4574,7 @@
       <c r="C60" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D60" s="77" t="s">
+      <c r="D60" s="72" t="s">
         <v>196</v>
       </c>
       <c r="E60" s="23">
@@ -4454,7 +4592,7 @@
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="77" t="s">
+      <c r="D61" s="72" t="s">
         <v>197</v>
       </c>
       <c r="E61" s="23">
@@ -4474,7 +4612,7 @@
       <c r="C62" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D62" s="77" t="s">
+      <c r="D62" s="72" t="s">
         <v>198</v>
       </c>
       <c r="E62" s="23">
@@ -4498,7 +4636,7 @@
       <c r="C63" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="77" t="s">
+      <c r="D63" s="72" t="s">
         <v>39</v>
       </c>
       <c r="E63" s="23">
@@ -4522,7 +4660,7 @@
       <c r="C64" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="77" t="s">
+      <c r="D64" s="72" t="s">
         <v>202</v>
       </c>
       <c r="E64" s="23">
@@ -4542,7 +4680,7 @@
       <c r="C65" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="77" t="s">
+      <c r="D65" s="72" t="s">
         <v>204</v>
       </c>
       <c r="E65" s="23">
@@ -4566,7 +4704,7 @@
       <c r="C66" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D66" s="77" t="s">
+      <c r="D66" s="72" t="s">
         <v>207</v>
       </c>
       <c r="E66" s="23">
@@ -4584,7 +4722,7 @@
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="77" t="s">
+      <c r="D67" s="72" t="s">
         <v>208</v>
       </c>
       <c r="E67" s="23">
@@ -4602,7 +4740,7 @@
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="77" t="s">
+      <c r="D68" s="72" t="s">
         <v>209</v>
       </c>
       <c r="E68" s="23">
@@ -4620,7 +4758,7 @@
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="77" t="s">
+      <c r="D69" s="72" t="s">
         <v>210</v>
       </c>
       <c r="E69" s="23">
@@ -4640,7 +4778,7 @@
       <c r="C70" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D70" s="77" t="s">
+      <c r="D70" s="72" t="s">
         <v>87</v>
       </c>
       <c r="E70" s="23">
@@ -4664,7 +4802,7 @@
       <c r="C71" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D71" s="77" t="s">
+      <c r="D71" s="72" t="s">
         <v>120</v>
       </c>
       <c r="E71" s="23">
@@ -4682,7 +4820,7 @@
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="37" t="s">
+      <c r="D72" s="36" t="s">
         <v>213</v>
       </c>
       <c r="E72" s="23">
@@ -4702,7 +4840,7 @@
       <c r="C73" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D73" s="77" t="s">
+      <c r="D73" s="72" t="s">
         <v>243</v>
       </c>
       <c r="E73" s="23">
@@ -4724,7 +4862,7 @@
         <f>SUM(G2:G73)</f>
         <v>3607500</v>
       </c>
-      <c r="H74" s="35">
+      <c r="H74" s="34">
         <f>SUM(H2:H73)</f>
         <v>2893000</v>
       </c>
@@ -4734,33 +4872,33 @@
         <v>215</v>
       </c>
       <c r="G75" s="26"/>
-      <c r="H75" s="32">
+      <c r="H75" s="31">
         <v>512500</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F76" s="33" t="s">
+      <c r="F76" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G76" s="34"/>
-      <c r="H76" s="35">
+      <c r="G76" s="33"/>
+      <c r="H76" s="34">
         <f>H74-H75</f>
         <v>2380500</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F77" s="31" t="s">
+      <c r="F77" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="H77" s="72">
+      <c r="H77" s="69">
         <v>500000</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F78" s="73" t="s">
+      <c r="F78" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="H78" s="74">
+      <c r="H78" s="71">
         <f>H76-H77</f>
         <v>1880500</v>
       </c>
@@ -4778,1004 +4916,1260 @@
   </sheetPr>
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="25" style="71" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="4" style="79" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="79" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="77" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" style="77" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="79" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="79" customWidth="1"/>
+    <col min="7" max="7" width="15" style="79" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="79" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="78" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="67">
+        <v>1</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="80" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6">
+      <c r="E2" s="67">
+        <v>1</v>
+      </c>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81">
         <v>15000</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="81">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="68" t="s">
+    <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6">
+      <c r="E3" s="67">
+        <v>1</v>
+      </c>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81">
         <v>25000</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="81">
         <v>18000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="68" t="s">
+    <row r="4" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6">
+      <c r="E4" s="67"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81">
         <v>160000</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="81">
         <v>130000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="67">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6">
+      <c r="E5" s="67">
+        <v>1</v>
+      </c>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81">
         <v>150000</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="81">
         <v>120000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="68" t="s">
+    <row r="6" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6">
+      <c r="E6" s="67">
+        <v>1</v>
+      </c>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81">
         <v>150000</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="81">
         <v>90000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
+    <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6">
+      <c r="E7" s="67">
+        <v>1</v>
+      </c>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81">
         <v>85000</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="81">
         <v>80000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="67">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6">
+      <c r="E8" s="67">
+        <v>1</v>
+      </c>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81">
         <v>75000</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="81">
         <v>28000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="67">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6">
+      <c r="E9" s="67">
+        <v>1</v>
+      </c>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81">
         <v>18000</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="81">
         <v>13000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="67">
         <v>5</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6">
+      <c r="E10" s="67">
+        <v>1</v>
+      </c>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81">
         <v>35000</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="81">
         <v>24000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="67">
         <v>6</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6">
+      <c r="E11" s="67">
+        <v>1</v>
+      </c>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81">
         <v>60000</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="81">
         <v>50000</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="8">
+      <c r="A12" s="68">
         <v>7</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="68" t="s">
         <v>231</v>
       </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11">
+      <c r="E12" s="68">
+        <v>1</v>
+      </c>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82">
         <v>20000</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="82"/>
     </row>
     <row r="13" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="69" t="s">
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="9">
-        <v>1</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11">
+      <c r="E13" s="68">
+        <v>1</v>
+      </c>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82">
         <v>70000</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="82"/>
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="69" t="s">
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11">
+      <c r="E14" s="68">
+        <v>1</v>
+      </c>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82">
         <v>65000</v>
       </c>
-      <c r="H14" s="11"/>
+      <c r="H14" s="82"/>
     </row>
     <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="69" t="s">
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68" t="s">
         <v>233</v>
       </c>
-      <c r="E15" s="9">
-        <v>1</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11">
+      <c r="E15" s="68">
+        <v>1</v>
+      </c>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82">
         <v>155000</v>
       </c>
-      <c r="H15" s="11"/>
+      <c r="H15" s="82"/>
     </row>
     <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="69" t="s">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68" t="s">
         <v>234</v>
       </c>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11">
+      <c r="E16" s="68">
+        <v>1</v>
+      </c>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82">
         <v>23000</v>
       </c>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="69" t="s">
+      <c r="H16" s="82"/>
+    </row>
+    <row r="17" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="E17" s="9">
-        <v>1</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11">
+      <c r="E17" s="68">
+        <v>1</v>
+      </c>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82">
         <v>8000</v>
       </c>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="69" t="s">
+      <c r="H17" s="82"/>
+    </row>
+    <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="E18" s="9">
-        <v>1</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11">
+      <c r="E18" s="68">
+        <v>1</v>
+      </c>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82">
         <v>5000</v>
       </c>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="69" t="s">
+      <c r="H18" s="82"/>
+    </row>
+    <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68" t="s">
         <v>237</v>
       </c>
-      <c r="E19" s="9">
-        <v>1</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11">
+      <c r="E19" s="68">
+        <v>1</v>
+      </c>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82">
         <v>10000</v>
       </c>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="69" t="s">
+      <c r="H19" s="82"/>
+    </row>
+    <row r="20" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11">
+      <c r="E20" s="68">
+        <v>1</v>
+      </c>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82">
         <v>2000</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="69" t="s">
+      <c r="H20" s="82"/>
+    </row>
+    <row r="21" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="E21" s="9">
-        <v>1</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11">
+      <c r="E21" s="68">
+        <v>1</v>
+      </c>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82">
         <v>9000</v>
       </c>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="69" t="s">
+      <c r="H21" s="82"/>
+    </row>
+    <row r="22" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="E22" s="9">
-        <v>1</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11">
+      <c r="E22" s="68">
+        <v>1</v>
+      </c>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82">
         <v>25000</v>
       </c>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9" t="s">
+      <c r="H22" s="82"/>
+    </row>
+    <row r="23" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="68" t="s">
         <v>241</v>
       </c>
-      <c r="E23" s="9">
-        <v>1</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11">
+      <c r="E23" s="68">
+        <v>1</v>
+      </c>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82">
         <v>45000</v>
       </c>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
+      <c r="H23" s="82"/>
+    </row>
+    <row r="24" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67" t="s">
         <v>242</v>
       </c>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="24">
+      <c r="E24" s="67">
+        <v>1</v>
+      </c>
+      <c r="F24" s="67"/>
+      <c r="G24" s="83">
         <v>25000</v>
       </c>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="O58" t="s">
+      <c r="H24" s="83"/>
+    </row>
+    <row r="25" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="67">
+        <v>8</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="E25" s="67">
+        <v>4</v>
+      </c>
+      <c r="F25" s="67">
+        <v>135000</v>
+      </c>
+      <c r="G25" s="81">
+        <v>540000</v>
+      </c>
+      <c r="H25" s="84"/>
+    </row>
+    <row r="26" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="E26" s="67">
+        <v>1</v>
+      </c>
+      <c r="F26" s="67"/>
+      <c r="G26" s="81">
+        <v>130000</v>
+      </c>
+      <c r="H26" s="81">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="67"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="E27" s="67">
+        <v>1</v>
+      </c>
+      <c r="F27" s="67"/>
+      <c r="G27" s="81">
+        <v>130000</v>
+      </c>
+      <c r="H27" s="81">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="67"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="E28" s="67">
+        <v>1</v>
+      </c>
+      <c r="F28" s="67"/>
+      <c r="G28" s="81">
+        <v>10000</v>
+      </c>
+      <c r="H28" s="81">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="67"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="D29" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="67">
+        <v>1</v>
+      </c>
+      <c r="F29" s="67"/>
+      <c r="G29" s="81">
+        <v>35000</v>
+      </c>
+      <c r="H29" s="81">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="67">
+        <v>9</v>
+      </c>
+      <c r="B30" s="67" t="s">
+        <v>252</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" s="67">
+        <v>1</v>
+      </c>
+      <c r="F30" s="67"/>
+      <c r="G30" s="81">
+        <v>35000</v>
+      </c>
+      <c r="H30" s="81">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="67">
+        <v>10</v>
+      </c>
+      <c r="B31" s="67" t="s">
+        <v>254</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="67">
+        <v>1</v>
+      </c>
+      <c r="F31" s="67"/>
+      <c r="G31" s="81">
+        <v>60000</v>
+      </c>
+      <c r="H31" s="81">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="67">
+        <v>11</v>
+      </c>
+      <c r="B32" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="67">
+        <v>1</v>
+      </c>
+      <c r="F32" s="67"/>
+      <c r="G32" s="81">
+        <v>6000</v>
+      </c>
+      <c r="H32" s="81">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="67">
+        <v>12</v>
+      </c>
+      <c r="B33" s="67" t="s">
+        <v>256</v>
+      </c>
+      <c r="C33" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" s="67">
+        <v>2</v>
+      </c>
+      <c r="F33" s="67"/>
+      <c r="G33" s="81">
+        <v>60000</v>
+      </c>
+      <c r="H33" s="81"/>
+    </row>
+    <row r="34" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="85"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="E34" s="67">
+        <v>4</v>
+      </c>
+      <c r="F34" s="85"/>
+      <c r="G34" s="81">
+        <v>60000</v>
+      </c>
+      <c r="H34" s="81"/>
+    </row>
+    <row r="35" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="85"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="67" t="s">
+        <v>258</v>
+      </c>
+      <c r="E35" s="67">
+        <v>2</v>
+      </c>
+      <c r="F35" s="85"/>
+      <c r="G35" s="81">
+        <v>76000</v>
+      </c>
+      <c r="H35" s="81"/>
+    </row>
+    <row r="36" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="67"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="67">
+        <v>2</v>
+      </c>
+      <c r="F36" s="85"/>
+      <c r="G36" s="81">
+        <v>70000</v>
+      </c>
+      <c r="H36" s="81">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="67"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="67">
+        <v>2</v>
+      </c>
+      <c r="F37" s="85"/>
+      <c r="G37" s="81">
+        <v>36000</v>
+      </c>
+      <c r="H37" s="81">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="67"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="E38" s="67">
+        <v>2</v>
+      </c>
+      <c r="F38" s="85"/>
+      <c r="G38" s="81">
+        <v>16000</v>
+      </c>
+      <c r="H38" s="81">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="67"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="E39" s="67">
+        <v>2</v>
+      </c>
+      <c r="F39" s="85"/>
+      <c r="G39" s="81">
+        <v>10000</v>
+      </c>
+      <c r="H39" s="81">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="67"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="E40" s="36">
+        <v>1</v>
+      </c>
+      <c r="F40" s="85"/>
+      <c r="G40" s="81">
+        <v>45000</v>
+      </c>
+      <c r="H40" s="81"/>
+    </row>
+    <row r="41" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="67"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" s="36">
+        <v>1</v>
+      </c>
+      <c r="F41" s="85"/>
+      <c r="G41" s="81">
+        <v>55000</v>
+      </c>
+      <c r="H41" s="81"/>
+    </row>
+    <row r="42" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="67"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="E42" s="36">
+        <v>1</v>
+      </c>
+      <c r="F42" s="85"/>
+      <c r="G42" s="81">
+        <v>9000</v>
+      </c>
+      <c r="H42" s="81"/>
+    </row>
+    <row r="43" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="67">
+        <v>13</v>
+      </c>
+      <c r="B43" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="C43" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="36">
+        <v>1</v>
+      </c>
+      <c r="F43" s="85"/>
+      <c r="G43" s="81">
+        <v>75000</v>
+      </c>
+      <c r="H43" s="81">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="67"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="E44" s="36">
+        <v>1</v>
+      </c>
+      <c r="F44" s="85"/>
+      <c r="G44" s="81">
+        <v>40000</v>
+      </c>
+      <c r="H44" s="81">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="67"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" s="36">
+        <v>1</v>
+      </c>
+      <c r="F45" s="85"/>
+      <c r="G45" s="81">
+        <v>40000</v>
+      </c>
+      <c r="H45" s="81">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="67"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67" t="s">
+        <v>264</v>
+      </c>
+      <c r="E46" s="36">
+        <v>1</v>
+      </c>
+      <c r="F46" s="85"/>
+      <c r="G46" s="81">
+        <v>60000</v>
+      </c>
+      <c r="H46" s="81">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="67"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67" t="s">
+        <v>265</v>
+      </c>
+      <c r="D47" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="E47" s="36">
+        <v>1</v>
+      </c>
+      <c r="F47" s="85"/>
+      <c r="G47" s="81">
+        <v>10000</v>
+      </c>
+      <c r="H47" s="81">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="67">
+        <v>14</v>
+      </c>
+      <c r="B48" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="C48" s="67" t="s">
+        <v>268</v>
+      </c>
+      <c r="D48" s="67" t="s">
+        <v>269</v>
+      </c>
+      <c r="E48" s="36">
+        <v>1</v>
+      </c>
+      <c r="F48" s="85"/>
+      <c r="G48" s="81">
+        <v>25000</v>
+      </c>
+      <c r="H48" s="81"/>
+    </row>
+    <row r="49" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="67"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="E49" s="36">
+        <v>1</v>
+      </c>
+      <c r="F49" s="85"/>
+      <c r="G49" s="81">
+        <v>22000</v>
+      </c>
+      <c r="H49" s="81"/>
+    </row>
+    <row r="50" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="67">
+        <v>15</v>
+      </c>
+      <c r="B50" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="C50" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="36">
+        <v>1</v>
+      </c>
+      <c r="F50" s="85"/>
+      <c r="G50" s="81">
+        <v>25000</v>
+      </c>
+      <c r="H50" s="81"/>
+    </row>
+    <row r="51" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="67"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="D51" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="E51" s="36">
+        <v>2</v>
+      </c>
+      <c r="F51" s="85"/>
+      <c r="G51" s="81">
+        <v>50000</v>
+      </c>
+      <c r="H51" s="81"/>
+    </row>
+    <row r="52" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="67"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="81"/>
+    </row>
+    <row r="53" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="67"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+    </row>
+    <row r="54" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="67"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="81"/>
+    </row>
+    <row r="55" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="67"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="81"/>
+    </row>
+    <row r="56" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="67"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+    </row>
+    <row r="57" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="67"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="81"/>
+    </row>
+    <row r="58" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="67"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="81"/>
+      <c r="O58" s="79" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-    </row>
-    <row r="68" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="68"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-    </row>
-    <row r="70" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="68"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-    </row>
-    <row r="71" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-    </row>
-    <row r="72" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="68"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-    </row>
-    <row r="73" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="68"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-    </row>
-    <row r="74" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F75" s="30"/>
-      <c r="G75" s="25">
+    <row r="59" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="67"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="81"/>
+    </row>
+    <row r="60" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="67"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+    </row>
+    <row r="61" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="67"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="81"/>
+    </row>
+    <row r="62" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="67"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="85"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="81"/>
+    </row>
+    <row r="63" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="67"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="81"/>
+    </row>
+    <row r="64" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="67"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="81"/>
+      <c r="H64" s="81"/>
+    </row>
+    <row r="65" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="67"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="81"/>
+      <c r="H65" s="81"/>
+    </row>
+    <row r="66" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="67"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="81"/>
+      <c r="H66" s="81"/>
+    </row>
+    <row r="67" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="67"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="81"/>
+      <c r="H67" s="81"/>
+    </row>
+    <row r="68" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="67"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="81"/>
+    </row>
+    <row r="69" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="67"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="81"/>
+      <c r="H69" s="81"/>
+    </row>
+    <row r="70" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="67"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="81"/>
+      <c r="H70" s="81"/>
+    </row>
+    <row r="71" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="67"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="81"/>
+      <c r="H71" s="81"/>
+    </row>
+    <row r="72" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="67"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="81"/>
+      <c r="H72" s="81"/>
+    </row>
+    <row r="73" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="67"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="81"/>
+      <c r="H73" s="81"/>
+    </row>
+    <row r="74" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="67"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="81"/>
+      <c r="H74" s="81"/>
+    </row>
+    <row r="75" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F75" s="87"/>
+      <c r="G75" s="88">
         <f>SUM(G2:G74)</f>
-        <v>1235000</v>
-      </c>
-      <c r="H75" s="25">
+        <v>2965000</v>
+      </c>
+      <c r="H75" s="88">
         <f>SUM(H2:H74)</f>
-        <v>563000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="32"/>
-    </row>
-    <row r="77" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F77" s="33"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="35"/>
+        <v>1228500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F76" s="87"/>
+      <c r="G76" s="87"/>
+      <c r="H76" s="89"/>
+    </row>
+    <row r="77" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F77" s="90"/>
+      <c r="G77" s="91"/>
+      <c r="H77" s="92"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5793,8 +6187,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="31"/>
-    <col min="4" max="4" width="9.140625" style="36"/>
+    <col min="3" max="3" width="9.140625" style="30"/>
+    <col min="4" max="4" width="9.140625" style="35"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.48" right="0.24" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GB-3 BAYINTNAUNG.xlsx
+++ b/GB-3 BAYINTNAUNG.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="279">
   <si>
     <t>Mitsubishi RVR</t>
   </si>
@@ -852,7 +852,25 @@
     <t>20.8.2018</t>
   </si>
   <si>
-    <t>ဘယ္ရစ္တိုက္ေရာ့</t>
+    <t>21.8.2018</t>
+  </si>
+  <si>
+    <t>C Clutch Ball</t>
+  </si>
+  <si>
+    <t>Power Steering Pump</t>
+  </si>
+  <si>
+    <t>25.8.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harrier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steering Gun </t>
+  </si>
+  <si>
+    <t>26.8.2018</t>
   </si>
 </sst>
 </file>
@@ -1386,12 +1404,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1428,6 +1440,12 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1748,12 +1766,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
     </row>
     <row r="2" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
@@ -1876,16 +1894,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -3352,7 +3370,7 @@
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
@@ -4914,48 +4932,48 @@
   <sheetPr>
     <tabColor theme="3" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4" style="79" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="79" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="77" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" style="77" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="79" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="79" customWidth="1"/>
-    <col min="7" max="7" width="15" style="79" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="79" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="79"/>
+    <col min="1" max="1" width="4" style="77" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="77" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="75" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" style="75" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="77" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="77" customWidth="1"/>
+    <col min="7" max="7" width="15" style="77" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="77" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="76" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4966,7 +4984,7 @@
       <c r="B2" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="78" t="s">
         <v>217</v>
       </c>
       <c r="D2" s="67" t="s">
@@ -4975,11 +4993,11 @@
       <c r="E2" s="67">
         <v>1</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81">
+      <c r="F2" s="79"/>
+      <c r="G2" s="79">
         <v>15000</v>
       </c>
-      <c r="H2" s="81">
+      <c r="H2" s="79">
         <v>10000</v>
       </c>
     </row>
@@ -4993,11 +5011,11 @@
       <c r="E3" s="67">
         <v>1</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81">
+      <c r="F3" s="79"/>
+      <c r="G3" s="79">
         <v>25000</v>
       </c>
-      <c r="H3" s="81">
+      <c r="H3" s="79">
         <v>18000</v>
       </c>
     </row>
@@ -5009,11 +5027,11 @@
         <v>219</v>
       </c>
       <c r="E4" s="67"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81">
+      <c r="F4" s="79"/>
+      <c r="G4" s="79">
         <v>160000</v>
       </c>
-      <c r="H4" s="81">
+      <c r="H4" s="79">
         <v>130000</v>
       </c>
     </row>
@@ -5033,11 +5051,11 @@
       <c r="E5" s="67">
         <v>1</v>
       </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81">
+      <c r="F5" s="79"/>
+      <c r="G5" s="79">
         <v>150000</v>
       </c>
-      <c r="H5" s="81">
+      <c r="H5" s="79">
         <v>120000</v>
       </c>
     </row>
@@ -5051,11 +5069,11 @@
       <c r="E6" s="67">
         <v>1</v>
       </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81">
+      <c r="F6" s="79"/>
+      <c r="G6" s="79">
         <v>150000</v>
       </c>
-      <c r="H6" s="81">
+      <c r="H6" s="79">
         <v>90000</v>
       </c>
     </row>
@@ -5071,11 +5089,11 @@
       <c r="E7" s="67">
         <v>1</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81">
+      <c r="F7" s="79"/>
+      <c r="G7" s="79">
         <v>85000</v>
       </c>
-      <c r="H7" s="81">
+      <c r="H7" s="79">
         <v>80000</v>
       </c>
     </row>
@@ -5095,11 +5113,11 @@
       <c r="E8" s="67">
         <v>1</v>
       </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81">
+      <c r="F8" s="79"/>
+      <c r="G8" s="79">
         <v>75000</v>
       </c>
-      <c r="H8" s="81">
+      <c r="H8" s="79">
         <v>28000</v>
       </c>
     </row>
@@ -5119,11 +5137,11 @@
       <c r="E9" s="67">
         <v>1</v>
       </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81">
+      <c r="F9" s="79"/>
+      <c r="G9" s="79">
         <v>18000</v>
       </c>
-      <c r="H9" s="81">
+      <c r="H9" s="79">
         <v>13000</v>
       </c>
     </row>
@@ -5143,11 +5161,11 @@
       <c r="E10" s="67">
         <v>1</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81">
+      <c r="F10" s="79"/>
+      <c r="G10" s="79">
         <v>35000</v>
       </c>
-      <c r="H10" s="81">
+      <c r="H10" s="79">
         <v>24000</v>
       </c>
     </row>
@@ -5167,11 +5185,11 @@
       <c r="E11" s="67">
         <v>1</v>
       </c>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81">
+      <c r="F11" s="79"/>
+      <c r="G11" s="79">
         <v>60000</v>
       </c>
-      <c r="H11" s="81">
+      <c r="H11" s="79">
         <v>50000</v>
       </c>
     </row>
@@ -5191,11 +5209,13 @@
       <c r="E12" s="68">
         <v>1</v>
       </c>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82">
+      <c r="F12" s="80"/>
+      <c r="G12" s="80">
         <v>20000</v>
       </c>
-      <c r="H12" s="82"/>
+      <c r="H12" s="80">
+        <v>18000</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="68"/>
@@ -5207,11 +5227,13 @@
       <c r="E13" s="68">
         <v>1</v>
       </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82">
+      <c r="F13" s="80"/>
+      <c r="G13" s="80">
         <v>70000</v>
       </c>
-      <c r="H13" s="82"/>
+      <c r="H13" s="80">
+        <v>55000</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="68"/>
@@ -5223,11 +5245,13 @@
       <c r="E14" s="68">
         <v>1</v>
       </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82">
+      <c r="F14" s="80"/>
+      <c r="G14" s="80">
         <v>65000</v>
       </c>
-      <c r="H14" s="82"/>
+      <c r="H14" s="80">
+        <v>58000</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="68"/>
@@ -5239,11 +5263,13 @@
       <c r="E15" s="68">
         <v>1</v>
       </c>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82">
+      <c r="F15" s="80"/>
+      <c r="G15" s="80">
         <v>155000</v>
       </c>
-      <c r="H15" s="82"/>
+      <c r="H15" s="80">
+        <v>145000</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="68"/>
@@ -5255,11 +5281,11 @@
       <c r="E16" s="68">
         <v>1</v>
       </c>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82">
+      <c r="F16" s="80"/>
+      <c r="G16" s="80">
         <v>23000</v>
       </c>
-      <c r="H16" s="82"/>
+      <c r="H16" s="80"/>
     </row>
     <row r="17" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="68"/>
@@ -5271,11 +5297,13 @@
       <c r="E17" s="68">
         <v>1</v>
       </c>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82">
+      <c r="F17" s="80"/>
+      <c r="G17" s="80">
         <v>8000</v>
       </c>
-      <c r="H17" s="82"/>
+      <c r="H17" s="80">
+        <v>7000</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="68"/>
@@ -5287,11 +5315,11 @@
       <c r="E18" s="68">
         <v>1</v>
       </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82">
+      <c r="F18" s="80"/>
+      <c r="G18" s="80">
         <v>5000</v>
       </c>
-      <c r="H18" s="82"/>
+      <c r="H18" s="80"/>
     </row>
     <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="68"/>
@@ -5303,11 +5331,11 @@
       <c r="E19" s="68">
         <v>1</v>
       </c>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82">
+      <c r="F19" s="80"/>
+      <c r="G19" s="80">
         <v>10000</v>
       </c>
-      <c r="H19" s="82"/>
+      <c r="H19" s="80"/>
     </row>
     <row r="20" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="68"/>
@@ -5319,11 +5347,11 @@
       <c r="E20" s="68">
         <v>1</v>
       </c>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82">
+      <c r="F20" s="80"/>
+      <c r="G20" s="80">
         <v>2000</v>
       </c>
-      <c r="H20" s="82"/>
+      <c r="H20" s="80"/>
     </row>
     <row r="21" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="68"/>
@@ -5335,11 +5363,13 @@
       <c r="E21" s="68">
         <v>1</v>
       </c>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82">
+      <c r="F21" s="80"/>
+      <c r="G21" s="80">
         <v>9000</v>
       </c>
-      <c r="H21" s="82"/>
+      <c r="H21" s="80">
+        <v>8000</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="68"/>
@@ -5351,11 +5381,11 @@
       <c r="E22" s="68">
         <v>1</v>
       </c>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82">
+      <c r="F22" s="80"/>
+      <c r="G22" s="80">
         <v>25000</v>
       </c>
-      <c r="H22" s="82"/>
+      <c r="H22" s="80"/>
     </row>
     <row r="23" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="68"/>
@@ -5369,11 +5399,11 @@
       <c r="E23" s="68">
         <v>1</v>
       </c>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82">
+      <c r="F23" s="80"/>
+      <c r="G23" s="80">
         <v>45000</v>
       </c>
-      <c r="H23" s="82"/>
+      <c r="H23" s="80"/>
     </row>
     <row r="24" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="36"/>
@@ -5386,10 +5416,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="67"/>
-      <c r="G24" s="83">
+      <c r="G24" s="81">
         <v>25000</v>
       </c>
-      <c r="H24" s="83"/>
+      <c r="H24" s="81"/>
     </row>
     <row r="25" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="67">
@@ -5410,10 +5440,10 @@
       <c r="F25" s="67">
         <v>135000</v>
       </c>
-      <c r="G25" s="81">
+      <c r="G25" s="79">
         <v>540000</v>
       </c>
-      <c r="H25" s="84"/>
+      <c r="H25" s="82"/>
     </row>
     <row r="26" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="67"/>
@@ -5426,10 +5456,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="67"/>
-      <c r="G26" s="81">
+      <c r="G26" s="79">
         <v>130000</v>
       </c>
-      <c r="H26" s="81">
+      <c r="H26" s="79">
         <v>120000</v>
       </c>
     </row>
@@ -5444,10 +5474,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="67"/>
-      <c r="G27" s="81">
+      <c r="G27" s="79">
         <v>130000</v>
       </c>
-      <c r="H27" s="81">
+      <c r="H27" s="79">
         <v>120000</v>
       </c>
     </row>
@@ -5464,10 +5494,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="67"/>
-      <c r="G28" s="81">
+      <c r="G28" s="79">
         <v>10000</v>
       </c>
-      <c r="H28" s="81">
+      <c r="H28" s="79">
         <v>8500</v>
       </c>
     </row>
@@ -5484,10 +5514,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="67"/>
-      <c r="G29" s="81">
+      <c r="G29" s="79">
         <v>35000</v>
       </c>
-      <c r="H29" s="81">
+      <c r="H29" s="79">
         <v>30000</v>
       </c>
     </row>
@@ -5508,10 +5538,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="67"/>
-      <c r="G30" s="81">
+      <c r="G30" s="79">
         <v>35000</v>
       </c>
-      <c r="H30" s="81">
+      <c r="H30" s="79">
         <v>28000</v>
       </c>
     </row>
@@ -5532,10 +5562,10 @@
         <v>1</v>
       </c>
       <c r="F31" s="67"/>
-      <c r="G31" s="81">
+      <c r="G31" s="79">
         <v>60000</v>
       </c>
-      <c r="H31" s="81">
+      <c r="H31" s="79">
         <v>40000</v>
       </c>
     </row>
@@ -5556,10 +5586,10 @@
         <v>1</v>
       </c>
       <c r="F32" s="67"/>
-      <c r="G32" s="81">
+      <c r="G32" s="79">
         <v>6000</v>
       </c>
-      <c r="H32" s="81">
+      <c r="H32" s="79">
         <v>4000</v>
       </c>
     </row>
@@ -5580,42 +5610,44 @@
         <v>2</v>
       </c>
       <c r="F33" s="67"/>
-      <c r="G33" s="81">
+      <c r="G33" s="79">
         <v>60000</v>
       </c>
-      <c r="H33" s="81"/>
+      <c r="H33" s="79">
+        <v>30000</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="86"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
       <c r="D34" s="67" t="s">
         <v>257</v>
       </c>
       <c r="E34" s="67">
         <v>4</v>
       </c>
-      <c r="F34" s="85"/>
-      <c r="G34" s="81">
+      <c r="F34" s="83"/>
+      <c r="G34" s="79">
         <v>60000</v>
       </c>
-      <c r="H34" s="81"/>
+      <c r="H34" s="79"/>
     </row>
     <row r="35" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="86"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="84"/>
       <c r="D35" s="67" t="s">
         <v>258</v>
       </c>
       <c r="E35" s="67">
         <v>2</v>
       </c>
-      <c r="F35" s="85"/>
-      <c r="G35" s="81">
+      <c r="F35" s="83"/>
+      <c r="G35" s="79">
         <v>76000</v>
       </c>
-      <c r="H35" s="81"/>
+      <c r="H35" s="79"/>
     </row>
     <row r="36" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="67"/>
@@ -5629,11 +5661,11 @@
       <c r="E36" s="67">
         <v>2</v>
       </c>
-      <c r="F36" s="85"/>
-      <c r="G36" s="81">
+      <c r="F36" s="83"/>
+      <c r="G36" s="79">
         <v>70000</v>
       </c>
-      <c r="H36" s="81">
+      <c r="H36" s="79">
         <v>60000</v>
       </c>
     </row>
@@ -5647,11 +5679,11 @@
       <c r="E37" s="67">
         <v>2</v>
       </c>
-      <c r="F37" s="85"/>
-      <c r="G37" s="81">
+      <c r="F37" s="83"/>
+      <c r="G37" s="79">
         <v>36000</v>
       </c>
-      <c r="H37" s="81">
+      <c r="H37" s="79">
         <v>30000</v>
       </c>
     </row>
@@ -5665,11 +5697,11 @@
       <c r="E38" s="67">
         <v>2</v>
       </c>
-      <c r="F38" s="85"/>
-      <c r="G38" s="81">
+      <c r="F38" s="83"/>
+      <c r="G38" s="79">
         <v>16000</v>
       </c>
-      <c r="H38" s="81">
+      <c r="H38" s="79">
         <v>8000</v>
       </c>
     </row>
@@ -5683,11 +5715,11 @@
       <c r="E39" s="67">
         <v>2</v>
       </c>
-      <c r="F39" s="85"/>
-      <c r="G39" s="81">
+      <c r="F39" s="83"/>
+      <c r="G39" s="79">
         <v>10000</v>
       </c>
-      <c r="H39" s="81">
+      <c r="H39" s="79">
         <v>6000</v>
       </c>
     </row>
@@ -5700,14 +5732,14 @@
       <c r="D40" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="E40" s="36">
-        <v>1</v>
-      </c>
-      <c r="F40" s="85"/>
-      <c r="G40" s="81">
+      <c r="E40" s="67">
+        <v>1</v>
+      </c>
+      <c r="F40" s="83"/>
+      <c r="G40" s="79">
         <v>45000</v>
       </c>
-      <c r="H40" s="81"/>
+      <c r="H40" s="79"/>
     </row>
     <row r="41" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="67"/>
@@ -5716,14 +5748,14 @@
       <c r="D41" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="E41" s="36">
-        <v>1</v>
-      </c>
-      <c r="F41" s="85"/>
-      <c r="G41" s="81">
+      <c r="E41" s="67">
+        <v>1</v>
+      </c>
+      <c r="F41" s="83"/>
+      <c r="G41" s="79">
         <v>55000</v>
       </c>
-      <c r="H41" s="81"/>
+      <c r="H41" s="79"/>
     </row>
     <row r="42" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="67"/>
@@ -5732,14 +5764,14 @@
       <c r="D42" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="E42" s="36">
-        <v>1</v>
-      </c>
-      <c r="F42" s="85"/>
-      <c r="G42" s="81">
+      <c r="E42" s="67">
+        <v>1</v>
+      </c>
+      <c r="F42" s="83"/>
+      <c r="G42" s="79">
         <v>9000</v>
       </c>
-      <c r="H42" s="81"/>
+      <c r="H42" s="79"/>
     </row>
     <row r="43" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="67">
@@ -5754,14 +5786,14 @@
       <c r="D43" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="E43" s="36">
-        <v>1</v>
-      </c>
-      <c r="F43" s="85"/>
-      <c r="G43" s="81">
+      <c r="E43" s="67">
+        <v>1</v>
+      </c>
+      <c r="F43" s="83"/>
+      <c r="G43" s="79">
         <v>75000</v>
       </c>
-      <c r="H43" s="81">
+      <c r="H43" s="79">
         <v>70000</v>
       </c>
     </row>
@@ -5772,14 +5804,14 @@
       <c r="D44" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="E44" s="36">
-        <v>1</v>
-      </c>
-      <c r="F44" s="85"/>
-      <c r="G44" s="81">
+      <c r="E44" s="67">
+        <v>1</v>
+      </c>
+      <c r="F44" s="83"/>
+      <c r="G44" s="79">
         <v>40000</v>
       </c>
-      <c r="H44" s="81">
+      <c r="H44" s="79">
         <v>38000</v>
       </c>
     </row>
@@ -5790,14 +5822,14 @@
       <c r="D45" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="E45" s="36">
-        <v>1</v>
-      </c>
-      <c r="F45" s="85"/>
-      <c r="G45" s="81">
+      <c r="E45" s="67">
+        <v>1</v>
+      </c>
+      <c r="F45" s="83"/>
+      <c r="G45" s="79">
         <v>40000</v>
       </c>
-      <c r="H45" s="81">
+      <c r="H45" s="79">
         <v>38000</v>
       </c>
     </row>
@@ -5808,14 +5840,14 @@
       <c r="D46" s="67" t="s">
         <v>264</v>
       </c>
-      <c r="E46" s="36">
-        <v>1</v>
-      </c>
-      <c r="F46" s="85"/>
-      <c r="G46" s="81">
+      <c r="E46" s="67">
+        <v>1</v>
+      </c>
+      <c r="F46" s="83"/>
+      <c r="G46" s="79">
         <v>60000</v>
       </c>
-      <c r="H46" s="81">
+      <c r="H46" s="79">
         <v>55000</v>
       </c>
     </row>
@@ -5828,14 +5860,14 @@
       <c r="D47" s="67" t="s">
         <v>266</v>
       </c>
-      <c r="E47" s="36">
-        <v>1</v>
-      </c>
-      <c r="F47" s="85"/>
-      <c r="G47" s="81">
+      <c r="E47" s="67">
+        <v>1</v>
+      </c>
+      <c r="F47" s="83"/>
+      <c r="G47" s="79">
         <v>10000</v>
       </c>
-      <c r="H47" s="81">
+      <c r="H47" s="79">
         <v>10000</v>
       </c>
     </row>
@@ -5852,14 +5884,16 @@
       <c r="D48" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="E48" s="36">
-        <v>1</v>
-      </c>
-      <c r="F48" s="85"/>
-      <c r="G48" s="81">
+      <c r="E48" s="67">
+        <v>1</v>
+      </c>
+      <c r="F48" s="83"/>
+      <c r="G48" s="79">
         <v>25000</v>
       </c>
-      <c r="H48" s="81"/>
+      <c r="H48" s="79">
+        <v>19000</v>
+      </c>
     </row>
     <row r="49" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="67"/>
@@ -5868,14 +5902,16 @@
       <c r="D49" s="67" t="s">
         <v>270</v>
       </c>
-      <c r="E49" s="36">
-        <v>1</v>
-      </c>
-      <c r="F49" s="85"/>
-      <c r="G49" s="81">
+      <c r="E49" s="67">
+        <v>1</v>
+      </c>
+      <c r="F49" s="83"/>
+      <c r="G49" s="79">
         <v>22000</v>
       </c>
-      <c r="H49" s="81"/>
+      <c r="H49" s="79">
+        <v>18000</v>
+      </c>
     </row>
     <row r="50" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="67">
@@ -5890,82 +5926,144 @@
       <c r="D50" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="E50" s="36">
-        <v>1</v>
-      </c>
-      <c r="F50" s="85"/>
-      <c r="G50" s="81">
+      <c r="E50" s="67">
+        <v>1</v>
+      </c>
+      <c r="F50" s="83"/>
+      <c r="G50" s="79">
         <v>25000</v>
       </c>
-      <c r="H50" s="81"/>
+      <c r="H50" s="79">
+        <v>12000</v>
+      </c>
     </row>
     <row r="51" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="67"/>
-      <c r="B51" s="67"/>
+      <c r="A51" s="67">
+        <v>16</v>
+      </c>
+      <c r="B51" s="67" t="s">
+        <v>272</v>
+      </c>
       <c r="C51" s="67" t="s">
-        <v>249</v>
+        <v>49</v>
       </c>
       <c r="D51" s="67" t="s">
-        <v>272</v>
-      </c>
-      <c r="E51" s="36">
-        <v>2</v>
-      </c>
-      <c r="F51" s="85"/>
-      <c r="G51" s="81">
-        <v>50000</v>
-      </c>
-      <c r="H51" s="81"/>
+        <v>273</v>
+      </c>
+      <c r="E51" s="67">
+        <v>1</v>
+      </c>
+      <c r="F51" s="83"/>
+      <c r="G51" s="79">
+        <v>85000</v>
+      </c>
+      <c r="H51" s="79">
+        <v>70000</v>
+      </c>
     </row>
     <row r="52" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="67"/>
       <c r="B52" s="67"/>
       <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
+      <c r="D52" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" s="67">
+        <v>1</v>
+      </c>
+      <c r="F52" s="83"/>
+      <c r="G52" s="79">
+        <v>35000</v>
+      </c>
+      <c r="H52" s="79">
+        <v>35000</v>
+      </c>
     </row>
     <row r="53" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="67"/>
       <c r="B53" s="67"/>
       <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
+      <c r="D53" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="E53" s="67">
+        <v>1</v>
+      </c>
+      <c r="F53" s="83"/>
+      <c r="G53" s="79">
+        <v>150000</v>
+      </c>
+      <c r="H53" s="79">
+        <v>120000</v>
+      </c>
     </row>
     <row r="54" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="67"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
+      <c r="A54" s="67">
+        <v>17</v>
+      </c>
+      <c r="B54" s="67" t="s">
+        <v>275</v>
+      </c>
+      <c r="C54" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="D54" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="E54" s="67">
+        <v>1</v>
+      </c>
+      <c r="F54" s="83"/>
+      <c r="G54" s="79">
+        <v>170000</v>
+      </c>
+      <c r="H54" s="79">
+        <v>130000</v>
+      </c>
     </row>
     <row r="55" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="67"/>
       <c r="B55" s="67"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
+      <c r="C55" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="D55" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="67">
+        <v>1</v>
+      </c>
+      <c r="F55" s="83"/>
+      <c r="G55" s="79">
+        <v>90000</v>
+      </c>
+      <c r="H55" s="79">
+        <v>75000</v>
+      </c>
     </row>
     <row r="56" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="67"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
+      <c r="A56" s="67">
+        <v>18</v>
+      </c>
+      <c r="B56" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="C56" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="67">
+        <v>1</v>
+      </c>
+      <c r="F56" s="83"/>
+      <c r="G56" s="79">
+        <v>25000</v>
+      </c>
+      <c r="H56" s="79">
+        <v>18000</v>
+      </c>
     </row>
     <row r="57" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="67"/>
@@ -5973,9 +6071,12 @@
       <c r="C57" s="67"/>
       <c r="D57" s="67"/>
       <c r="E57" s="36"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
+      <c r="O57" s="77" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="58" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="67"/>
@@ -5983,12 +6084,9 @@
       <c r="C58" s="67"/>
       <c r="D58" s="67"/>
       <c r="E58" s="36"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="81"/>
-      <c r="O58" s="79" t="s">
-        <v>199</v>
-      </c>
+      <c r="F58" s="83"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
     </row>
     <row r="59" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="67"/>
@@ -5996,9 +6094,9 @@
       <c r="C59" s="67"/>
       <c r="D59" s="67"/>
       <c r="E59" s="36"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="81"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="79"/>
     </row>
     <row r="60" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="67"/>
@@ -6006,9 +6104,9 @@
       <c r="C60" s="67"/>
       <c r="D60" s="67"/>
       <c r="E60" s="36"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="79"/>
+      <c r="H60" s="79"/>
     </row>
     <row r="61" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="67"/>
@@ -6016,9 +6114,9 @@
       <c r="C61" s="67"/>
       <c r="D61" s="67"/>
       <c r="E61" s="36"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="81"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="79"/>
     </row>
     <row r="62" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="67"/>
@@ -6026,9 +6124,9 @@
       <c r="C62" s="67"/>
       <c r="D62" s="67"/>
       <c r="E62" s="36"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="81"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="79"/>
+      <c r="H62" s="79"/>
     </row>
     <row r="63" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="67"/>
@@ -6036,9 +6134,9 @@
       <c r="C63" s="67"/>
       <c r="D63" s="67"/>
       <c r="E63" s="36"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="81"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="79"/>
     </row>
     <row r="64" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="67"/>
@@ -6046,9 +6144,9 @@
       <c r="C64" s="67"/>
       <c r="D64" s="67"/>
       <c r="E64" s="36"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="81"/>
-      <c r="H64" s="81"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="79"/>
+      <c r="H64" s="79"/>
     </row>
     <row r="65" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="67"/>
@@ -6056,9 +6154,9 @@
       <c r="C65" s="67"/>
       <c r="D65" s="67"/>
       <c r="E65" s="36"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="81"/>
-      <c r="H65" s="81"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="79"/>
     </row>
     <row r="66" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="67"/>
@@ -6066,9 +6164,9 @@
       <c r="C66" s="67"/>
       <c r="D66" s="67"/>
       <c r="E66" s="36"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="81"/>
-      <c r="H66" s="81"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="79"/>
     </row>
     <row r="67" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="67"/>
@@ -6076,9 +6174,9 @@
       <c r="C67" s="67"/>
       <c r="D67" s="67"/>
       <c r="E67" s="36"/>
-      <c r="F67" s="85"/>
-      <c r="G67" s="81"/>
-      <c r="H67" s="81"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="79"/>
+      <c r="H67" s="79"/>
     </row>
     <row r="68" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="67"/>
@@ -6086,9 +6184,9 @@
       <c r="C68" s="67"/>
       <c r="D68" s="67"/>
       <c r="E68" s="36"/>
-      <c r="F68" s="85"/>
-      <c r="G68" s="81"/>
-      <c r="H68" s="81"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="79"/>
     </row>
     <row r="69" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="67"/>
@@ -6096,9 +6194,9 @@
       <c r="C69" s="67"/>
       <c r="D69" s="67"/>
       <c r="E69" s="36"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="81"/>
-      <c r="H69" s="81"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="79"/>
+      <c r="H69" s="79"/>
     </row>
     <row r="70" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="67"/>
@@ -6106,9 +6204,9 @@
       <c r="C70" s="67"/>
       <c r="D70" s="67"/>
       <c r="E70" s="36"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="81"/>
-      <c r="H70" s="81"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="79"/>
+      <c r="H70" s="79"/>
     </row>
     <row r="71" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="67"/>
@@ -6116,9 +6214,9 @@
       <c r="C71" s="67"/>
       <c r="D71" s="67"/>
       <c r="E71" s="36"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="81"/>
-      <c r="H71" s="81"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="79"/>
     </row>
     <row r="72" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="67"/>
@@ -6126,9 +6224,9 @@
       <c r="C72" s="67"/>
       <c r="D72" s="67"/>
       <c r="E72" s="36"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="81"/>
-      <c r="H72" s="81"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="79"/>
+      <c r="H72" s="79"/>
     </row>
     <row r="73" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="67"/>
@@ -6136,40 +6234,30 @@
       <c r="C73" s="67"/>
       <c r="D73" s="67"/>
       <c r="E73" s="36"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="81"/>
-      <c r="H73" s="81"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="79"/>
+      <c r="H73" s="79"/>
     </row>
     <row r="74" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="67"/>
-      <c r="B74" s="67"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="36"/>
       <c r="F74" s="85"/>
-      <c r="G74" s="81"/>
-      <c r="H74" s="81"/>
+      <c r="G74" s="86">
+        <f>SUM(G2:G73)</f>
+        <v>3470000</v>
+      </c>
+      <c r="H74" s="86">
+        <f>SUM(H2:H73)</f>
+        <v>2046500</v>
+      </c>
     </row>
     <row r="75" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F75" s="87"/>
-      <c r="G75" s="88">
-        <f>SUM(G2:G74)</f>
-        <v>2965000</v>
-      </c>
-      <c r="H75" s="88">
-        <f>SUM(H2:H74)</f>
-        <v>1228500</v>
-      </c>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="87"/>
     </row>
     <row r="76" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F76" s="87"/>
-      <c r="G76" s="87"/>
-      <c r="H76" s="89"/>
-    </row>
-    <row r="77" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F77" s="90"/>
-      <c r="G77" s="91"/>
-      <c r="H77" s="92"/>
+      <c r="F76" s="88"/>
+      <c r="G76" s="89"/>
+      <c r="H76" s="90"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GB-3 BAYINTNAUNG.xlsx
+++ b/GB-3 BAYINTNAUNG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="18195" windowHeight="10665" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="18195" windowHeight="10665" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="320">
   <si>
     <t>Mitsubishi RVR</t>
   </si>
@@ -870,7 +870,130 @@
     <t xml:space="preserve">Steering Gun </t>
   </si>
   <si>
-    <t>26.8.2018</t>
+    <t>27.8.2018</t>
+  </si>
+  <si>
+    <t>28.8.2018</t>
+  </si>
+  <si>
+    <t>Shock Absorber</t>
+  </si>
+  <si>
+    <t>Ball joint</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>29.8.2018</t>
+  </si>
+  <si>
+    <t>ဆာဗိုလ္မာစတာဘရိတ္ဆံု</t>
+  </si>
+  <si>
+    <t>30.8.2018</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>31.8.2018</t>
+  </si>
+  <si>
+    <t>မိန္းေကာ္</t>
+  </si>
+  <si>
+    <t>ကလပ္ေဘာ</t>
+  </si>
+  <si>
+    <t>၇ိန္း</t>
+  </si>
+  <si>
+    <t>ေကာ္နက္တင္း</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>3.9.2018</t>
+  </si>
+  <si>
+    <t>7E-4532</t>
+  </si>
+  <si>
+    <t>8B-1401</t>
+  </si>
+  <si>
+    <t>2Cက၇ိုင္းပူလီ/Heat Plugတန္း</t>
+  </si>
+  <si>
+    <t>Silicon Gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil Seal Hydraulic </t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Forklift</t>
+  </si>
+  <si>
+    <t>ဘီးသဲကာ</t>
+  </si>
+  <si>
+    <t>Honda Insight</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>Car Name</t>
+  </si>
+  <si>
+    <t>Car No.</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>4.9.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fielder </t>
+  </si>
+  <si>
+    <t>ေရွ့ဒ၇မ္</t>
+  </si>
+  <si>
+    <t>ေနာက္တန္းဘြတ္</t>
+  </si>
+  <si>
+    <t>Cancel 1</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Hijet/GB</t>
+  </si>
+  <si>
+    <t>2Kt</t>
+  </si>
+  <si>
+    <t>5.9.2018</t>
+  </si>
+  <si>
+    <t>FF-1166</t>
+  </si>
+  <si>
+    <t>3J-7342</t>
+  </si>
+  <si>
+    <t>5F-6481</t>
   </si>
 </sst>
 </file>
@@ -881,7 +1004,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1035,13 +1158,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF7030A0"/>
       <name val="Zawgyi-One"/>
       <family val="2"/>
@@ -1064,13 +1180,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
-      <name val="Zawgyi-One"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF0070C0"/>
       <name val="Zawgyi-One"/>
       <family val="2"/>
     </font>
@@ -1136,6 +1245,38 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Zawgyi-One"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Zawgyi-One"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Zawgyi-One"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Zawgyi-One"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Zawgyi-One"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Zawgyi-One"/>
       <family val="2"/>
@@ -1210,7 +1351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1306,11 +1447,10 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1324,13 +1464,13 @@
     <xf numFmtId="11" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1342,16 +1482,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1366,7 +1503,7 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1377,7 +1514,7 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1388,58 +1525,90 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1766,12 +1935,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
     </row>
     <row r="2" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
@@ -1894,16 +2063,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -2432,21 +2601,21 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" style="41" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="41" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="41" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="41" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="41" customWidth="1"/>
-    <col min="6" max="6" width="15" style="41" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="62" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="62" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="41"/>
+    <col min="1" max="1" width="4" style="40" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="15" style="40" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="60" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="60" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2468,10 +2637,10 @@
       <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="36" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2482,20 +2651,20 @@
       <c r="B2" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>64</v>
       </c>
       <c r="E2" s="28">
         <v>1</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="53">
+      <c r="F2" s="43"/>
+      <c r="G2" s="51">
         <v>1500</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="51">
         <v>1500</v>
       </c>
     </row>
@@ -2509,17 +2678,17 @@
       <c r="C3" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="28">
         <v>1</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="53">
+      <c r="F3" s="43"/>
+      <c r="G3" s="51">
         <v>25000</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="51">
         <v>19000</v>
       </c>
     </row>
@@ -2529,17 +2698,17 @@
       <c r="C4" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="42" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="28">
         <v>1</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="53">
+      <c r="F4" s="43"/>
+      <c r="G4" s="51">
         <v>25000</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="51">
         <v>15000</v>
       </c>
     </row>
@@ -2549,17 +2718,17 @@
       <c r="C5" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="42" t="s">
         <v>67</v>
       </c>
       <c r="E5" s="28">
         <v>1</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="53">
+      <c r="F5" s="43"/>
+      <c r="G5" s="51">
         <v>25000</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="51">
         <v>18000</v>
       </c>
     </row>
@@ -2569,17 +2738,17 @@
       <c r="C6" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>67</v>
       </c>
       <c r="E6" s="28">
         <v>1</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="53">
+      <c r="F6" s="43"/>
+      <c r="G6" s="51">
         <v>26000</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="51">
         <v>19000</v>
       </c>
     </row>
@@ -2593,15 +2762,15 @@
       <c r="C7" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="42" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="28">
         <v>1</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53">
+      <c r="F7" s="43"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51">
         <v>19000</v>
       </c>
     </row>
@@ -2615,17 +2784,17 @@
       <c r="C8" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="42" t="s">
         <v>75</v>
       </c>
       <c r="E8" s="28">
         <v>1</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="53">
+      <c r="F8" s="43"/>
+      <c r="G8" s="51">
         <v>7000</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="51">
         <v>7500</v>
       </c>
     </row>
@@ -2633,17 +2802,17 @@
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="42" t="s">
         <v>76</v>
       </c>
       <c r="E9" s="28">
         <v>1</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="53">
+      <c r="F9" s="43"/>
+      <c r="G9" s="51">
         <v>13000</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="51">
         <v>9000</v>
       </c>
     </row>
@@ -2651,17 +2820,17 @@
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="42" t="s">
         <v>77</v>
       </c>
       <c r="E10" s="28">
         <v>1</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="53">
+      <c r="F10" s="43"/>
+      <c r="G10" s="51">
         <v>18000</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="51">
         <v>13000</v>
       </c>
     </row>
@@ -2671,17 +2840,17 @@
       <c r="C11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="44" t="s">
         <v>79</v>
       </c>
       <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="54">
+      <c r="F11" s="45"/>
+      <c r="G11" s="52">
         <v>95000</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="52">
         <v>85000</v>
       </c>
     </row>
@@ -2689,17 +2858,17 @@
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="44" t="s">
         <v>80</v>
       </c>
       <c r="E12" s="8">
         <v>1</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="54">
+      <c r="F12" s="45"/>
+      <c r="G12" s="52">
         <v>35000</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="52">
         <v>32000</v>
       </c>
     </row>
@@ -2713,17 +2882,17 @@
       <c r="C13" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="44" t="s">
         <v>82</v>
       </c>
       <c r="E13" s="8">
         <v>1</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="54">
+      <c r="F13" s="45"/>
+      <c r="G13" s="52">
         <v>60000</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="52">
         <v>48000</v>
       </c>
     </row>
@@ -2731,17 +2900,17 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="44" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="8">
         <v>1</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="54">
+      <c r="F14" s="45"/>
+      <c r="G14" s="52">
         <v>62000</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="52">
         <v>55000</v>
       </c>
     </row>
@@ -2755,17 +2924,17 @@
       <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="44" t="s">
         <v>85</v>
       </c>
       <c r="E15" s="8">
         <v>1</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="54">
+      <c r="F15" s="45"/>
+      <c r="G15" s="52">
         <v>250000</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H15" s="52">
         <v>240000</v>
       </c>
     </row>
@@ -2779,20 +2948,20 @@
       <c r="C16" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="44" t="s">
         <v>87</v>
       </c>
       <c r="E16" s="8">
         <v>1</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="54">
+      <c r="F16" s="45"/>
+      <c r="G16" s="52">
         <v>150000</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16" s="52">
         <v>135000</v>
       </c>
-      <c r="K16" s="47"/>
+      <c r="K16" s="46"/>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8">
@@ -2804,17 +2973,17 @@
       <c r="C17" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="44" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="8">
         <v>1</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="54">
+      <c r="F17" s="45"/>
+      <c r="G17" s="52">
         <v>45000</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="52">
         <v>35000</v>
       </c>
     </row>
@@ -2824,17 +2993,17 @@
       <c r="C18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="44" t="s">
         <v>90</v>
       </c>
       <c r="E18" s="8">
         <v>1</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="54">
+      <c r="F18" s="45"/>
+      <c r="G18" s="52">
         <v>12000</v>
       </c>
-      <c r="H18" s="54">
+      <c r="H18" s="52">
         <v>7000</v>
       </c>
     </row>
@@ -2848,17 +3017,17 @@
       <c r="C19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="44" t="s">
         <v>92</v>
       </c>
       <c r="E19" s="8">
         <v>1</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="54">
+      <c r="F19" s="45"/>
+      <c r="G19" s="52">
         <v>25000</v>
       </c>
-      <c r="H19" s="54">
+      <c r="H19" s="52">
         <v>15000</v>
       </c>
     </row>
@@ -2866,19 +3035,19 @@
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="44" t="s">
         <v>93</v>
       </c>
       <c r="E20" s="8">
         <v>4</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="43">
         <v>8000</v>
       </c>
-      <c r="G20" s="54">
+      <c r="G20" s="52">
         <v>60000</v>
       </c>
-      <c r="H20" s="54">
+      <c r="H20" s="52">
         <v>32000</v>
       </c>
     </row>
@@ -2889,20 +3058,20 @@
       <c r="B21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="44" t="s">
         <v>92</v>
       </c>
       <c r="E21" s="8">
         <v>1</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="54">
+      <c r="F21" s="43"/>
+      <c r="G21" s="52">
         <v>18000</v>
       </c>
-      <c r="H21" s="54">
+      <c r="H21" s="52">
         <v>13000</v>
       </c>
     </row>
@@ -2916,55 +3085,55 @@
       <c r="C22" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="44" t="s">
         <v>97</v>
       </c>
       <c r="E22" s="8">
         <v>1</v>
       </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="54">
+      <c r="F22" s="43"/>
+      <c r="G22" s="52">
         <v>50000</v>
       </c>
-      <c r="H22" s="54">
+      <c r="H22" s="52">
         <v>40000</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48" t="s">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="28">
         <v>1</v>
       </c>
       <c r="F23" s="28"/>
-      <c r="G23" s="55">
+      <c r="G23" s="53">
         <v>24000</v>
       </c>
-      <c r="H23" s="55">
+      <c r="H23" s="53">
         <v>22000</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48" t="s">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47" t="s">
         <v>99</v>
       </c>
       <c r="E24" s="28">
         <v>2</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="43">
         <v>19000</v>
       </c>
-      <c r="G24" s="53">
+      <c r="G24" s="51">
         <v>40000</v>
       </c>
-      <c r="H24" s="56">
+      <c r="H24" s="54">
         <v>38000</v>
       </c>
     </row>
@@ -2978,17 +3147,17 @@
       <c r="C25" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="47" t="s">
         <v>102</v>
       </c>
       <c r="E25" s="28">
         <v>1</v>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="53">
+      <c r="F25" s="43"/>
+      <c r="G25" s="51">
         <v>45000</v>
       </c>
-      <c r="H25" s="53">
+      <c r="H25" s="51">
         <v>33000</v>
       </c>
     </row>
@@ -3008,11 +3177,11 @@
       <c r="E26" s="28">
         <v>1</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="53">
+      <c r="F26" s="43"/>
+      <c r="G26" s="51">
         <v>15000</v>
       </c>
-      <c r="H26" s="53">
+      <c r="H26" s="51">
         <v>9000</v>
       </c>
     </row>
@@ -3032,11 +3201,11 @@
       <c r="E27" s="28">
         <v>1</v>
       </c>
-      <c r="F27" s="44"/>
-      <c r="G27" s="53">
+      <c r="F27" s="43"/>
+      <c r="G27" s="51">
         <v>260000</v>
       </c>
-      <c r="H27" s="53">
+      <c r="H27" s="51">
         <v>70000</v>
       </c>
     </row>
@@ -3056,11 +3225,11 @@
       <c r="E28" s="28">
         <v>2</v>
       </c>
-      <c r="F28" s="44"/>
-      <c r="G28" s="53">
+      <c r="F28" s="43"/>
+      <c r="G28" s="51">
         <v>24000</v>
       </c>
-      <c r="H28" s="53">
+      <c r="H28" s="51">
         <v>16000</v>
       </c>
     </row>
@@ -3068,17 +3237,17 @@
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="47" t="s">
         <v>110</v>
       </c>
       <c r="E29" s="28">
         <v>2</v>
       </c>
-      <c r="F29" s="44"/>
-      <c r="G29" s="53">
+      <c r="F29" s="43"/>
+      <c r="G29" s="51">
         <v>24000</v>
       </c>
-      <c r="H29" s="53">
+      <c r="H29" s="51">
         <v>16000</v>
       </c>
     </row>
@@ -3086,17 +3255,17 @@
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="47" t="s">
         <v>111</v>
       </c>
       <c r="E30" s="28">
         <v>1</v>
       </c>
-      <c r="F30" s="44"/>
-      <c r="G30" s="53">
+      <c r="F30" s="43"/>
+      <c r="G30" s="51">
         <v>85000</v>
       </c>
-      <c r="H30" s="53">
+      <c r="H30" s="51">
         <v>70000</v>
       </c>
     </row>
@@ -3110,35 +3279,35 @@
       <c r="C31" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="48" t="s">
+      <c r="D31" s="47" t="s">
         <v>114</v>
       </c>
       <c r="E31" s="28">
         <v>1</v>
       </c>
-      <c r="F31" s="44"/>
-      <c r="G31" s="53">
+      <c r="F31" s="43"/>
+      <c r="G31" s="51">
         <v>120000</v>
       </c>
-      <c r="H31" s="53">
+      <c r="H31" s="51">
         <v>90000</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48" t="s">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="28">
         <v>1</v>
       </c>
-      <c r="F32" s="44"/>
-      <c r="G32" s="53">
+      <c r="F32" s="43"/>
+      <c r="G32" s="51">
         <v>35000</v>
       </c>
-      <c r="H32" s="53">
+      <c r="H32" s="51">
         <v>32000</v>
       </c>
     </row>
@@ -3152,19 +3321,19 @@
       <c r="C33" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="47" t="s">
         <v>117</v>
       </c>
       <c r="E33" s="28">
         <v>2</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33" s="43">
         <v>15000</v>
       </c>
-      <c r="G33" s="53">
+      <c r="G33" s="51">
         <v>40000</v>
       </c>
-      <c r="H33" s="53">
+      <c r="H33" s="51">
         <v>30000</v>
       </c>
     </row>
@@ -3178,17 +3347,17 @@
       <c r="C34" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="48" t="s">
+      <c r="D34" s="47" t="s">
         <v>120</v>
       </c>
       <c r="E34" s="28">
         <v>1</v>
       </c>
-      <c r="F34" s="44"/>
-      <c r="G34" s="53">
+      <c r="F34" s="43"/>
+      <c r="G34" s="51">
         <v>150000</v>
       </c>
-      <c r="H34" s="53">
+      <c r="H34" s="51">
         <v>130000</v>
       </c>
     </row>
@@ -3198,39 +3367,39 @@
       <c r="C35" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="48" t="s">
+      <c r="D35" s="47" t="s">
         <v>122</v>
       </c>
       <c r="E35" s="28">
         <v>2</v>
       </c>
-      <c r="F35" s="44">
+      <c r="F35" s="43">
         <v>32000</v>
       </c>
-      <c r="G35" s="53">
+      <c r="G35" s="51">
         <v>70000</v>
       </c>
-      <c r="H35" s="53">
+      <c r="H35" s="51">
         <v>64000</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48" t="s">
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47" t="s">
         <v>82</v>
       </c>
       <c r="E36" s="28">
         <v>2</v>
       </c>
-      <c r="F36" s="44">
+      <c r="F36" s="43">
         <v>25000</v>
       </c>
-      <c r="G36" s="53">
+      <c r="G36" s="51">
         <v>60000</v>
       </c>
-      <c r="H36" s="53">
+      <c r="H36" s="51">
         <v>50000</v>
       </c>
     </row>
@@ -3240,17 +3409,17 @@
       <c r="C37" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="48" t="s">
+      <c r="D37" s="47" t="s">
         <v>123</v>
       </c>
       <c r="E37" s="28">
         <v>1</v>
       </c>
       <c r="F37" s="28"/>
-      <c r="G37" s="53">
+      <c r="G37" s="51">
         <v>80000</v>
       </c>
-      <c r="H37" s="53">
+      <c r="H37" s="51">
         <v>60000</v>
       </c>
     </row>
@@ -3271,15 +3440,15 @@
         <v>1</v>
       </c>
       <c r="F38" s="28"/>
-      <c r="G38" s="53">
+      <c r="G38" s="51">
         <v>150000</v>
       </c>
-      <c r="H38" s="53">
+      <c r="H38" s="51">
         <v>135000</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F39" s="49"/>
+      <c r="F39" s="48"/>
       <c r="G39" s="25">
         <f>SUM(G2:G38)</f>
         <v>2224500</v>
@@ -3290,68 +3459,68 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="50" t="s">
+      <c r="F40" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="G40" s="57"/>
-      <c r="H40" s="58">
+      <c r="G40" s="55"/>
+      <c r="H40" s="56">
         <v>264500</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="G41" s="57"/>
+      <c r="G41" s="55"/>
       <c r="H41" s="25">
         <f>SUM(H39:H40)</f>
         <v>1987500</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F42" s="49" t="s">
+      <c r="F42" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="59"/>
-      <c r="H42" s="60">
+      <c r="G42" s="57"/>
+      <c r="H42" s="58">
         <v>1000000</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F43" s="49" t="s">
+      <c r="F43" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="G43" s="40"/>
-      <c r="H43" s="61">
+      <c r="G43" s="39"/>
+      <c r="H43" s="59">
         <v>987500</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="51" t="s">
+      <c r="F44" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="H44" s="63">
+      <c r="H44" s="61">
         <v>500000</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="51" t="s">
+      <c r="F45" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="H45" s="64">
+      <c r="H45" s="62">
         <v>487500</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="51" t="s">
+      <c r="F46" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="H46" s="65">
+      <c r="H46" s="63">
         <v>500000</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H47" s="66">
+      <c r="H47" s="64">
         <f>H46-H45</f>
         <v>12500</v>
       </c>
@@ -3370,8 +3539,8 @@
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3379,7 +3548,7 @@
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="74" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="72" customWidth="1"/>
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
@@ -3393,10 +3562,10 @@
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -3419,10 +3588,10 @@
       <c r="B2" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="70" t="s">
         <v>129</v>
       </c>
       <c r="E2" s="5">
@@ -3440,7 +3609,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="70" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="5">
@@ -3464,7 +3633,7 @@
       <c r="C4" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="70" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="5">
@@ -3488,7 +3657,7 @@
       <c r="C5" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="70" t="s">
         <v>134</v>
       </c>
       <c r="E5" s="5">
@@ -3512,7 +3681,7 @@
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="70" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="5">
@@ -3530,7 +3699,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="70" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="5">
@@ -3548,7 +3717,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="70" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="5">
@@ -3566,7 +3735,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="70" t="s">
         <v>138</v>
       </c>
       <c r="E9" s="5">
@@ -3584,7 +3753,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="5">
@@ -3602,7 +3771,7 @@
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="71" t="s">
         <v>139</v>
       </c>
       <c r="E11" s="9">
@@ -3626,7 +3795,7 @@
       <c r="C12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="71" t="s">
         <v>141</v>
       </c>
       <c r="E12" s="9">
@@ -3646,7 +3815,7 @@
       <c r="C13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="71" t="s">
         <v>83</v>
       </c>
       <c r="E13" s="9">
@@ -3670,7 +3839,7 @@
       <c r="C14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="71" t="s">
         <v>143</v>
       </c>
       <c r="E14" s="9">
@@ -3688,7 +3857,7 @@
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="71" t="s">
         <v>144</v>
       </c>
       <c r="E15" s="9">
@@ -3706,7 +3875,7 @@
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="71" t="s">
         <v>145</v>
       </c>
       <c r="E16" s="9">
@@ -3724,7 +3893,7 @@
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="71" t="s">
         <v>146</v>
       </c>
       <c r="E17" s="9">
@@ -3742,7 +3911,7 @@
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="71" t="s">
         <v>147</v>
       </c>
       <c r="E18" s="9">
@@ -3762,7 +3931,7 @@
       <c r="C19" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="73" t="s">
+      <c r="D19" s="71" t="s">
         <v>149</v>
       </c>
       <c r="E19" s="9">
@@ -3781,7 +3950,7 @@
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="71" t="s">
         <v>150</v>
       </c>
       <c r="E20" s="9">
@@ -3801,7 +3970,7 @@
       <c r="C21" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="71" t="s">
         <v>141</v>
       </c>
       <c r="E21" s="9">
@@ -3825,7 +3994,7 @@
       <c r="C22" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="71" t="s">
         <v>87</v>
       </c>
       <c r="E22" s="9">
@@ -3907,7 +4076,7 @@
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="70" t="s">
         <v>158</v>
       </c>
       <c r="E26" s="5">
@@ -4050,7 +4219,7 @@
     <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
-      <c r="C33" s="39"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="23" t="s">
         <v>137</v>
       </c>
@@ -4068,7 +4237,7 @@
     <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
-      <c r="C34" s="39"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="23" t="s">
         <v>166</v>
       </c>
@@ -4315,7 +4484,7 @@
       <c r="C46" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="5" t="s">
         <v>87</v>
       </c>
       <c r="E46" s="23">
@@ -4335,7 +4504,7 @@
       <c r="C47" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="5" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="23">
@@ -4359,7 +4528,7 @@
       <c r="C48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="5" t="s">
         <v>184</v>
       </c>
       <c r="E48" s="23">
@@ -4377,7 +4546,7 @@
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="5" t="s">
         <v>185</v>
       </c>
       <c r="E49" s="23">
@@ -4395,7 +4564,7 @@
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="5" t="s">
         <v>186</v>
       </c>
       <c r="E50" s="23">
@@ -4413,7 +4582,7 @@
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E51" s="23">
@@ -4431,7 +4600,7 @@
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="72" t="s">
+      <c r="D52" s="70" t="s">
         <v>188</v>
       </c>
       <c r="E52" s="23">
@@ -4473,7 +4642,7 @@
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E54" s="23">
@@ -4493,7 +4662,7 @@
       <c r="C55" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="72" t="s">
+      <c r="D55" s="70" t="s">
         <v>191</v>
       </c>
       <c r="E55" s="23">
@@ -4511,7 +4680,7 @@
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="72" t="s">
+      <c r="D56" s="70" t="s">
         <v>192</v>
       </c>
       <c r="E56" s="23">
@@ -4529,7 +4698,7 @@
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="72" t="s">
+      <c r="D57" s="70" t="s">
         <v>193</v>
       </c>
       <c r="E57" s="23">
@@ -4550,7 +4719,7 @@
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="72" t="s">
+      <c r="D58" s="70" t="s">
         <v>111</v>
       </c>
       <c r="E58" s="23">
@@ -4572,7 +4741,7 @@
         <v>194</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="72" t="s">
+      <c r="D59" s="70" t="s">
         <v>76</v>
       </c>
       <c r="E59" s="23">
@@ -4592,7 +4761,7 @@
       <c r="C60" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D60" s="72" t="s">
+      <c r="D60" s="70" t="s">
         <v>196</v>
       </c>
       <c r="E60" s="23">
@@ -4610,7 +4779,7 @@
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="72" t="s">
+      <c r="D61" s="70" t="s">
         <v>197</v>
       </c>
       <c r="E61" s="23">
@@ -4630,7 +4799,7 @@
       <c r="C62" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D62" s="72" t="s">
+      <c r="D62" s="70" t="s">
         <v>198</v>
       </c>
       <c r="E62" s="23">
@@ -4654,7 +4823,7 @@
       <c r="C63" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="72" t="s">
+      <c r="D63" s="70" t="s">
         <v>39</v>
       </c>
       <c r="E63" s="23">
@@ -4678,7 +4847,7 @@
       <c r="C64" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="72" t="s">
+      <c r="D64" s="70" t="s">
         <v>202</v>
       </c>
       <c r="E64" s="23">
@@ -4698,7 +4867,7 @@
       <c r="C65" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="72" t="s">
+      <c r="D65" s="70" t="s">
         <v>204</v>
       </c>
       <c r="E65" s="23">
@@ -4722,7 +4891,7 @@
       <c r="C66" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D66" s="72" t="s">
+      <c r="D66" s="70" t="s">
         <v>207</v>
       </c>
       <c r="E66" s="23">
@@ -4740,7 +4909,7 @@
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="72" t="s">
+      <c r="D67" s="70" t="s">
         <v>208</v>
       </c>
       <c r="E67" s="23">
@@ -4758,7 +4927,7 @@
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="72" t="s">
+      <c r="D68" s="70" t="s">
         <v>209</v>
       </c>
       <c r="E68" s="23">
@@ -4776,7 +4945,7 @@
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="72" t="s">
+      <c r="D69" s="70" t="s">
         <v>210</v>
       </c>
       <c r="E69" s="23">
@@ -4796,7 +4965,7 @@
       <c r="C70" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D70" s="72" t="s">
+      <c r="D70" s="70" t="s">
         <v>87</v>
       </c>
       <c r="E70" s="23">
@@ -4820,7 +4989,7 @@
       <c r="C71" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D71" s="72" t="s">
+      <c r="D71" s="70" t="s">
         <v>120</v>
       </c>
       <c r="E71" s="23">
@@ -4838,7 +5007,7 @@
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="36" t="s">
+      <c r="D72" s="35" t="s">
         <v>213</v>
       </c>
       <c r="E72" s="23">
@@ -4858,7 +5027,7 @@
       <c r="C73" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D73" s="72" t="s">
+      <c r="D73" s="70" t="s">
         <v>243</v>
       </c>
       <c r="E73" s="23">
@@ -4908,15 +5077,15 @@
       <c r="F77" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="H77" s="69">
+      <c r="H77" s="67">
         <v>500000</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F78" s="70" t="s">
+      <c r="F78" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="H78" s="71">
+      <c r="H78" s="69">
         <f>H76-H77</f>
         <v>1880500</v>
       </c>
@@ -4932,1354 +5101,2600 @@
   <sheetPr>
     <tabColor theme="3" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4" style="77" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="77" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="75" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" style="75" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="77" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="77" customWidth="1"/>
-    <col min="7" max="7" width="15" style="77" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="77" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="77"/>
+    <col min="1" max="1" width="4" style="75" customWidth="1"/>
+    <col min="2" max="2" width="13" style="75" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="73" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="73" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="75" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="75" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="75" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="75" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="74" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="67">
-        <v>1</v>
-      </c>
-      <c r="B2" s="67" t="s">
+      <c r="A2" s="65">
+        <v>1</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="76" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="67">
-        <v>1</v>
-      </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79">
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86">
         <v>15000</v>
       </c>
-      <c r="H2" s="79">
+      <c r="H2" s="86">
         <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="67">
-        <v>1</v>
-      </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79">
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86">
         <v>25000</v>
       </c>
-      <c r="H3" s="79">
+      <c r="H3" s="86">
         <v>18000</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67" t="s">
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79">
+      <c r="E4" s="7"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86">
         <v>160000</v>
       </c>
-      <c r="H4" s="79">
+      <c r="H4" s="86">
         <v>130000</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="67">
+      <c r="A5" s="65">
         <v>2</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="65" t="s">
         <v>220</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="67">
-        <v>1</v>
-      </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79">
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86">
         <v>150000</v>
       </c>
-      <c r="H5" s="79">
+      <c r="H5" s="86">
         <v>120000</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="67"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67" t="s">
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E6" s="67">
-        <v>1</v>
-      </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79">
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86">
         <v>150000</v>
       </c>
-      <c r="H6" s="79">
+      <c r="H6" s="86">
         <v>90000</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="67"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E7" s="67">
-        <v>1</v>
-      </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79">
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86">
         <v>85000</v>
       </c>
-      <c r="H7" s="79">
+      <c r="H7" s="86">
         <v>80000</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="67">
+      <c r="A8" s="65">
         <v>3</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="67">
-        <v>1</v>
-      </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79">
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86">
         <v>75000</v>
       </c>
-      <c r="H8" s="79">
+      <c r="H8" s="86">
         <v>28000</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="67">
+      <c r="A9" s="65">
         <v>4</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E9" s="67">
-        <v>1</v>
-      </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79">
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86">
         <v>18000</v>
       </c>
-      <c r="H9" s="79">
+      <c r="H9" s="86">
         <v>13000</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="67">
+      <c r="A10" s="65">
         <v>5</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="65" t="s">
         <v>228</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="67">
-        <v>1</v>
-      </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79">
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86">
         <v>35000</v>
       </c>
-      <c r="H10" s="79">
+      <c r="H10" s="86">
         <v>24000</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="67">
+      <c r="A11" s="65">
         <v>6</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="67">
-        <v>1</v>
-      </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79">
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86">
         <v>60000</v>
       </c>
-      <c r="H11" s="79">
+      <c r="H11" s="86">
         <v>50000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="68">
+    <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="66">
         <v>7</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="E12" s="68">
-        <v>1</v>
-      </c>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80">
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88">
         <v>20000</v>
       </c>
-      <c r="H12" s="80">
+      <c r="H12" s="88">
         <v>18000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68" t="s">
+    <row r="13" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="68">
-        <v>1</v>
-      </c>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80">
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88">
         <v>70000</v>
       </c>
-      <c r="H13" s="80">
+      <c r="H13" s="88">
         <v>55000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68" t="s">
+    <row r="14" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E14" s="68">
-        <v>1</v>
-      </c>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80">
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88">
         <v>65000</v>
       </c>
-      <c r="H14" s="80">
+      <c r="H14" s="88">
         <v>58000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68" t="s">
+    <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="E15" s="68">
-        <v>1</v>
-      </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80">
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88">
         <v>155000</v>
       </c>
-      <c r="H15" s="80">
+      <c r="H15" s="88">
         <v>145000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68" t="s">
+    <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E16" s="68">
-        <v>1</v>
-      </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80">
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88">
         <v>23000</v>
       </c>
-      <c r="H16" s="80"/>
-    </row>
-    <row r="17" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68" t="s">
+      <c r="H16" s="88"/>
+    </row>
+    <row r="17" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="E17" s="68">
-        <v>1</v>
-      </c>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80">
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88">
         <v>8000</v>
       </c>
-      <c r="H17" s="80">
+      <c r="H17" s="88">
         <v>7000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68" t="s">
+    <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E18" s="68">
-        <v>1</v>
-      </c>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80">
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88">
         <v>5000</v>
       </c>
-      <c r="H18" s="80"/>
-    </row>
-    <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68" t="s">
+      <c r="H18" s="88"/>
+    </row>
+    <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E19" s="68">
-        <v>1</v>
-      </c>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80">
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88">
         <v>10000</v>
       </c>
-      <c r="H19" s="80"/>
-    </row>
-    <row r="20" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="68"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68" t="s">
+      <c r="H19" s="88">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="E20" s="68">
-        <v>1</v>
-      </c>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80">
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88">
         <v>2000</v>
       </c>
-      <c r="H20" s="80"/>
-    </row>
-    <row r="21" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68" t="s">
+      <c r="H20" s="88"/>
+    </row>
+    <row r="21" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="E21" s="68">
-        <v>1</v>
-      </c>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80">
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88">
         <v>9000</v>
       </c>
-      <c r="H21" s="80">
+      <c r="H21" s="88">
         <v>8000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68" t="s">
+    <row r="22" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E22" s="68">
-        <v>1</v>
-      </c>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80">
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88">
         <v>25000</v>
       </c>
-      <c r="H22" s="80"/>
-    </row>
-    <row r="23" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68" t="s">
+      <c r="H22" s="88"/>
+    </row>
+    <row r="23" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E23" s="68">
-        <v>1</v>
-      </c>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80">
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88">
         <v>45000</v>
       </c>
-      <c r="H23" s="80"/>
+      <c r="H23" s="88">
+        <v>30000</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E24" s="67">
-        <v>1</v>
-      </c>
-      <c r="F24" s="67"/>
-      <c r="G24" s="81">
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="89">
         <v>25000</v>
       </c>
-      <c r="H24" s="81"/>
+      <c r="H24" s="89">
+        <v>19000</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="67">
+      <c r="A25" s="65">
         <v>8</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E25" s="67">
+      <c r="E25" s="7">
         <v>4</v>
       </c>
-      <c r="F25" s="67">
+      <c r="F25" s="7">
         <v>135000</v>
       </c>
-      <c r="G25" s="79">
+      <c r="G25" s="86">
         <v>540000</v>
       </c>
-      <c r="H25" s="82"/>
+      <c r="H25" s="90"/>
     </row>
     <row r="26" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67" t="s">
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="E26" s="67">
-        <v>1</v>
-      </c>
-      <c r="F26" s="67"/>
-      <c r="G26" s="79">
+      <c r="E26" s="7">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="86">
         <v>130000</v>
       </c>
-      <c r="H26" s="79">
+      <c r="H26" s="86">
         <v>120000</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="67"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67" t="s">
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="E27" s="67">
-        <v>1</v>
-      </c>
-      <c r="F27" s="67"/>
-      <c r="G27" s="79">
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="86">
         <v>130000</v>
       </c>
-      <c r="H27" s="79">
+      <c r="H27" s="86">
         <v>120000</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="67"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67" t="s">
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65" t="s">
         <v>249</v>
       </c>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E28" s="67">
-        <v>1</v>
-      </c>
-      <c r="F28" s="67"/>
-      <c r="G28" s="79">
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="86">
         <v>10000</v>
       </c>
-      <c r="H28" s="79">
+      <c r="H28" s="86">
         <v>8500</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="67"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67" t="s">
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="67">
-        <v>1</v>
-      </c>
-      <c r="F29" s="67"/>
-      <c r="G29" s="79">
+      <c r="E29" s="7">
+        <v>1</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="86">
         <v>35000</v>
       </c>
-      <c r="H29" s="79">
+      <c r="H29" s="86">
         <v>30000</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="67">
+      <c r="A30" s="65">
         <v>9</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="65" t="s">
         <v>252</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E30" s="67">
-        <v>1</v>
-      </c>
-      <c r="F30" s="67"/>
-      <c r="G30" s="79">
+      <c r="E30" s="7">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="86">
         <v>35000</v>
       </c>
-      <c r="H30" s="79">
+      <c r="H30" s="86">
         <v>28000</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="67">
+      <c r="A31" s="65">
         <v>10</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="67">
-        <v>1</v>
-      </c>
-      <c r="F31" s="67"/>
-      <c r="G31" s="79">
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="86">
         <v>60000</v>
       </c>
-      <c r="H31" s="79">
+      <c r="H31" s="86">
         <v>40000</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="67">
+      <c r="A32" s="65">
         <v>11</v>
       </c>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="67">
-        <v>1</v>
-      </c>
-      <c r="F32" s="67"/>
-      <c r="G32" s="79">
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="86">
         <v>6000</v>
       </c>
-      <c r="H32" s="79">
+      <c r="H32" s="86">
         <v>4000</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="67">
+      <c r="A33" s="65">
         <v>12</v>
       </c>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="C33" s="67" t="s">
+      <c r="C33" s="65" t="s">
         <v>249</v>
       </c>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E33" s="67">
+      <c r="E33" s="7">
         <v>2</v>
       </c>
-      <c r="F33" s="67"/>
-      <c r="G33" s="79">
+      <c r="F33" s="7"/>
+      <c r="G33" s="86">
         <v>60000</v>
       </c>
-      <c r="H33" s="79">
+      <c r="H33" s="86">
         <v>30000</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="83"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="67" t="s">
+    <row r="34" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="77"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="E34" s="67">
+      <c r="E34" s="7">
         <v>4</v>
       </c>
-      <c r="F34" s="83"/>
-      <c r="G34" s="79">
+      <c r="F34" s="91"/>
+      <c r="G34" s="86">
         <v>60000</v>
       </c>
-      <c r="H34" s="79"/>
-    </row>
-    <row r="35" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="83"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="67" t="s">
+      <c r="H34" s="86"/>
+    </row>
+    <row r="35" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="E35" s="67">
+      <c r="E35" s="7">
         <v>2</v>
       </c>
-      <c r="F35" s="83"/>
-      <c r="G35" s="79">
+      <c r="F35" s="91"/>
+      <c r="G35" s="86">
         <v>76000</v>
       </c>
-      <c r="H35" s="79"/>
-    </row>
-    <row r="36" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="67"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67" t="s">
+      <c r="H35" s="86"/>
+    </row>
+    <row r="36" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="67" t="s">
+      <c r="D36" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="67">
+      <c r="E36" s="7">
         <v>2</v>
       </c>
-      <c r="F36" s="83"/>
-      <c r="G36" s="79">
+      <c r="F36" s="91"/>
+      <c r="G36" s="86">
         <v>70000</v>
       </c>
-      <c r="H36" s="79">
+      <c r="H36" s="86">
         <v>60000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="67"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67" t="s">
+    <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="65"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="67">
+      <c r="E37" s="7">
         <v>2</v>
       </c>
-      <c r="F37" s="83"/>
-      <c r="G37" s="79">
+      <c r="F37" s="91"/>
+      <c r="G37" s="86">
         <v>36000</v>
       </c>
-      <c r="H37" s="79">
+      <c r="H37" s="86">
         <v>30000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="67"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67" t="s">
+    <row r="38" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E38" s="67">
+      <c r="E38" s="7">
         <v>2</v>
       </c>
-      <c r="F38" s="83"/>
-      <c r="G38" s="79">
+      <c r="F38" s="91"/>
+      <c r="G38" s="86">
         <v>16000</v>
       </c>
-      <c r="H38" s="79">
+      <c r="H38" s="86">
         <v>8000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="67"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67" t="s">
+    <row r="39" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E39" s="67">
+      <c r="E39" s="7">
         <v>2</v>
       </c>
-      <c r="F39" s="83"/>
-      <c r="G39" s="79">
+      <c r="F39" s="91"/>
+      <c r="G39" s="86">
         <v>10000</v>
       </c>
-      <c r="H39" s="79">
+      <c r="H39" s="86">
         <v>6000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="67"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67" t="s">
+    <row r="40" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="67" t="s">
+      <c r="D40" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="E40" s="67">
-        <v>1</v>
-      </c>
-      <c r="F40" s="83"/>
-      <c r="G40" s="79">
+      <c r="E40" s="7">
+        <v>1</v>
+      </c>
+      <c r="F40" s="91"/>
+      <c r="G40" s="86">
         <v>45000</v>
       </c>
-      <c r="H40" s="79"/>
-    </row>
-    <row r="41" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="67"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67" t="s">
+      <c r="H40" s="86"/>
+    </row>
+    <row r="41" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E41" s="67">
-        <v>1</v>
-      </c>
-      <c r="F41" s="83"/>
-      <c r="G41" s="79">
+      <c r="E41" s="7">
+        <v>1</v>
+      </c>
+      <c r="F41" s="91"/>
+      <c r="G41" s="86">
         <v>55000</v>
       </c>
-      <c r="H41" s="79"/>
-    </row>
-    <row r="42" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="67"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67" t="s">
+      <c r="H41" s="86"/>
+    </row>
+    <row r="42" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E42" s="67">
-        <v>1</v>
-      </c>
-      <c r="F42" s="83"/>
-      <c r="G42" s="79">
+      <c r="E42" s="7">
+        <v>1</v>
+      </c>
+      <c r="F42" s="91"/>
+      <c r="G42" s="86">
         <v>9000</v>
       </c>
-      <c r="H42" s="79"/>
-    </row>
-    <row r="43" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="67">
+      <c r="H42" s="86"/>
+    </row>
+    <row r="43" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="65">
         <v>13</v>
       </c>
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="C43" s="67" t="s">
+      <c r="C43" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="67" t="s">
+      <c r="D43" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E43" s="67">
-        <v>1</v>
-      </c>
-      <c r="F43" s="83"/>
-      <c r="G43" s="79">
+      <c r="E43" s="7">
+        <v>1</v>
+      </c>
+      <c r="F43" s="91"/>
+      <c r="G43" s="86">
         <v>75000</v>
       </c>
-      <c r="H43" s="79">
+      <c r="H43" s="86">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1</v>
+      </c>
+      <c r="F44" s="91"/>
+      <c r="G44" s="86">
+        <v>40000</v>
+      </c>
+      <c r="H44" s="86">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1</v>
+      </c>
+      <c r="F45" s="91"/>
+      <c r="G45" s="86">
+        <v>40000</v>
+      </c>
+      <c r="H45" s="86">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E46" s="7">
+        <v>1</v>
+      </c>
+      <c r="F46" s="91"/>
+      <c r="G46" s="86">
+        <v>60000</v>
+      </c>
+      <c r="H46" s="86">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65" t="s">
+        <v>265</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E47" s="7">
+        <v>1</v>
+      </c>
+      <c r="F47" s="91"/>
+      <c r="G47" s="86">
+        <v>10000</v>
+      </c>
+      <c r="H47" s="86">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="65">
+        <v>14</v>
+      </c>
+      <c r="B48" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="C48" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E48" s="7">
+        <v>1</v>
+      </c>
+      <c r="F48" s="91"/>
+      <c r="G48" s="86">
+        <v>25000</v>
+      </c>
+      <c r="H48" s="86">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="65"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E49" s="7">
+        <v>1</v>
+      </c>
+      <c r="F49" s="91"/>
+      <c r="G49" s="86">
+        <v>22000</v>
+      </c>
+      <c r="H49" s="86">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="65">
+        <v>15</v>
+      </c>
+      <c r="B50" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="C50" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="7">
+        <v>1</v>
+      </c>
+      <c r="F50" s="91"/>
+      <c r="G50" s="86">
+        <v>25000</v>
+      </c>
+      <c r="H50" s="86">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="65">
+        <v>16</v>
+      </c>
+      <c r="B51" s="65" t="s">
+        <v>272</v>
+      </c>
+      <c r="C51" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E51" s="7">
+        <v>1</v>
+      </c>
+      <c r="F51" s="91"/>
+      <c r="G51" s="86">
+        <v>85000</v>
+      </c>
+      <c r="H51" s="86">
         <v>70000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="67"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67" t="s">
-        <v>263</v>
-      </c>
-      <c r="E44" s="67">
-        <v>1</v>
-      </c>
-      <c r="F44" s="83"/>
-      <c r="G44" s="79">
+    <row r="52" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="65"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" s="7">
+        <v>1</v>
+      </c>
+      <c r="F52" s="91"/>
+      <c r="G52" s="86">
+        <v>35000</v>
+      </c>
+      <c r="H52" s="86">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="65"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E53" s="7">
+        <v>1</v>
+      </c>
+      <c r="F53" s="91"/>
+      <c r="G53" s="86">
+        <v>150000</v>
+      </c>
+      <c r="H53" s="86">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="65">
+        <v>17</v>
+      </c>
+      <c r="B54" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="C54" s="65" t="s">
+        <v>276</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E54" s="7">
+        <v>1</v>
+      </c>
+      <c r="F54" s="91"/>
+      <c r="G54" s="86">
+        <v>170000</v>
+      </c>
+      <c r="H54" s="86">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="65"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65" t="s">
+        <v>249</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1</v>
+      </c>
+      <c r="F55" s="91"/>
+      <c r="G55" s="86">
+        <v>90000</v>
+      </c>
+      <c r="H55" s="86">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="65">
+        <v>18</v>
+      </c>
+      <c r="B56" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="C56" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="7">
+        <v>1</v>
+      </c>
+      <c r="F56" s="91"/>
+      <c r="G56" s="86">
+        <v>25000</v>
+      </c>
+      <c r="H56" s="86">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="65">
+        <v>19</v>
+      </c>
+      <c r="B57" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="C57" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E57" s="42">
+        <v>1</v>
+      </c>
+      <c r="F57" s="91"/>
+      <c r="G57" s="86">
+        <v>70000</v>
+      </c>
+      <c r="H57" s="86">
+        <v>55000</v>
+      </c>
+      <c r="O57" s="75" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="65"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E58" s="42">
+        <v>1</v>
+      </c>
+      <c r="F58" s="91"/>
+      <c r="G58" s="86">
+        <v>35000</v>
+      </c>
+      <c r="H58" s="86">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="65"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E59" s="42">
+        <v>1</v>
+      </c>
+      <c r="F59" s="91"/>
+      <c r="G59" s="86">
+        <v>30000</v>
+      </c>
+      <c r="H59" s="86">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="65">
+        <v>20</v>
+      </c>
+      <c r="B60" s="65" t="s">
+        <v>283</v>
+      </c>
+      <c r="C60" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E60" s="42">
+        <v>1</v>
+      </c>
+      <c r="F60" s="91"/>
+      <c r="G60" s="86">
+        <v>48000</v>
+      </c>
+      <c r="H60" s="86">
         <v>40000</v>
       </c>
-      <c r="H44" s="79">
+    </row>
+    <row r="61" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="65">
+        <v>21</v>
+      </c>
+      <c r="B61" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="C61" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E61" s="42">
+        <v>1</v>
+      </c>
+      <c r="F61" s="91"/>
+      <c r="G61" s="86">
+        <v>180000</v>
+      </c>
+      <c r="H61" s="86">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="65"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" s="42">
+        <v>1</v>
+      </c>
+      <c r="F62" s="91"/>
+      <c r="G62" s="86">
+        <v>20000</v>
+      </c>
+      <c r="H62" s="86">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="65">
+        <v>22</v>
+      </c>
+      <c r="B63" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="C63" s="65" t="s">
+        <v>249</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E63" s="42">
+        <v>1</v>
+      </c>
+      <c r="F63" s="91"/>
+      <c r="G63" s="86">
+        <v>45000</v>
+      </c>
+      <c r="H63" s="86">
         <v>38000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="67"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67" t="s">
-        <v>184</v>
-      </c>
-      <c r="E45" s="67">
-        <v>1</v>
-      </c>
-      <c r="F45" s="83"/>
-      <c r="G45" s="79">
+    <row r="64" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="65"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E64" s="42">
+        <v>1</v>
+      </c>
+      <c r="F64" s="91"/>
+      <c r="G64" s="86">
+        <v>30000</v>
+      </c>
+      <c r="H64" s="86">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="65"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" s="42">
+        <v>1</v>
+      </c>
+      <c r="F65" s="91"/>
+      <c r="G65" s="86">
+        <v>75000</v>
+      </c>
+      <c r="H65" s="86">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="65"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="42">
+        <v>1</v>
+      </c>
+      <c r="F66" s="91"/>
+      <c r="G66" s="86">
         <v>40000</v>
       </c>
-      <c r="H45" s="79">
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="67"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67" t="s">
-        <v>264</v>
-      </c>
-      <c r="E46" s="67">
-        <v>1</v>
-      </c>
-      <c r="F46" s="83"/>
-      <c r="G46" s="79">
-        <v>60000</v>
-      </c>
-      <c r="H46" s="79">
-        <v>55000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="67"/>
-      <c r="B47" s="67"/>
-      <c r="C47" s="67" t="s">
-        <v>265</v>
-      </c>
-      <c r="D47" s="67" t="s">
-        <v>266</v>
-      </c>
-      <c r="E47" s="67">
-        <v>1</v>
-      </c>
-      <c r="F47" s="83"/>
-      <c r="G47" s="79">
-        <v>10000</v>
-      </c>
-      <c r="H47" s="79">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="67">
-        <v>14</v>
-      </c>
-      <c r="B48" s="67" t="s">
-        <v>267</v>
-      </c>
-      <c r="C48" s="67" t="s">
-        <v>268</v>
-      </c>
-      <c r="D48" s="67" t="s">
-        <v>269</v>
-      </c>
-      <c r="E48" s="67">
-        <v>1</v>
-      </c>
-      <c r="F48" s="83"/>
-      <c r="G48" s="79">
+      <c r="H66" s="86">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="65"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E67" s="42">
+        <v>1</v>
+      </c>
+      <c r="F67" s="91"/>
+      <c r="G67" s="86">
+        <v>77000</v>
+      </c>
+      <c r="H67" s="86">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="65"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E68" s="42">
+        <v>1</v>
+      </c>
+      <c r="F68" s="91"/>
+      <c r="G68" s="86">
+        <v>30000</v>
+      </c>
+      <c r="H68" s="86">
         <v>25000</v>
       </c>
-      <c r="H48" s="79">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="67"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="E49" s="67">
-        <v>1</v>
-      </c>
-      <c r="F49" s="83"/>
-      <c r="G49" s="79">
-        <v>22000</v>
-      </c>
-      <c r="H49" s="79">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="67">
-        <v>15</v>
-      </c>
-      <c r="B50" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="C50" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="E50" s="67">
-        <v>1</v>
-      </c>
-      <c r="F50" s="83"/>
-      <c r="G50" s="79">
-        <v>25000</v>
-      </c>
-      <c r="H50" s="79">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="67">
-        <v>16</v>
-      </c>
-      <c r="B51" s="67" t="s">
-        <v>272</v>
-      </c>
-      <c r="C51" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="67" t="s">
-        <v>273</v>
-      </c>
-      <c r="E51" s="67">
-        <v>1</v>
-      </c>
-      <c r="F51" s="83"/>
-      <c r="G51" s="79">
-        <v>85000</v>
-      </c>
-      <c r="H51" s="79">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="67"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67" t="s">
-        <v>196</v>
-      </c>
-      <c r="E52" s="67">
-        <v>1</v>
-      </c>
-      <c r="F52" s="83"/>
-      <c r="G52" s="79">
-        <v>35000</v>
-      </c>
-      <c r="H52" s="79">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="67"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67" t="s">
-        <v>274</v>
-      </c>
-      <c r="E53" s="67">
-        <v>1</v>
-      </c>
-      <c r="F53" s="83"/>
-      <c r="G53" s="79">
-        <v>150000</v>
-      </c>
-      <c r="H53" s="79">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="67">
-        <v>17</v>
-      </c>
-      <c r="B54" s="67" t="s">
-        <v>275</v>
-      </c>
-      <c r="C54" s="67" t="s">
-        <v>276</v>
-      </c>
-      <c r="D54" s="67" t="s">
-        <v>277</v>
-      </c>
-      <c r="E54" s="67">
-        <v>1</v>
-      </c>
-      <c r="F54" s="83"/>
-      <c r="G54" s="79">
-        <v>170000</v>
-      </c>
-      <c r="H54" s="79">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="67"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="67" t="s">
-        <v>249</v>
-      </c>
-      <c r="D55" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" s="67">
-        <v>1</v>
-      </c>
-      <c r="F55" s="83"/>
-      <c r="G55" s="79">
-        <v>90000</v>
-      </c>
-      <c r="H55" s="79">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="67">
-        <v>18</v>
-      </c>
-      <c r="B56" s="67" t="s">
-        <v>278</v>
-      </c>
-      <c r="C56" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="E56" s="67">
-        <v>1</v>
-      </c>
-      <c r="F56" s="83"/>
-      <c r="G56" s="79">
-        <v>25000</v>
-      </c>
-      <c r="H56" s="79">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="67"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
-      <c r="O57" s="77" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="67"/>
-      <c r="B58" s="67"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-    </row>
-    <row r="59" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="67"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="79"/>
-    </row>
-    <row r="60" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="67"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="79"/>
-      <c r="H60" s="79"/>
-    </row>
-    <row r="61" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="67"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="79"/>
-    </row>
-    <row r="62" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="67"/>
-      <c r="B62" s="67"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="79"/>
-    </row>
-    <row r="63" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="67"/>
-      <c r="B63" s="67"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="79"/>
-    </row>
-    <row r="64" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="67"/>
-      <c r="B64" s="67"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="79"/>
-    </row>
-    <row r="65" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="67"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="79"/>
-    </row>
-    <row r="66" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="67"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="79"/>
-    </row>
-    <row r="67" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="67"/>
-      <c r="B67" s="67"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="79"/>
-    </row>
-    <row r="68" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="67"/>
-      <c r="B68" s="67"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="79"/>
     </row>
     <row r="69" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="67"/>
-      <c r="B69" s="67"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="83"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="95">
+        <f>SUM(G2:G68)</f>
+        <v>4150000</v>
+      </c>
+      <c r="H69" s="95">
+        <f>SUM(H2:H68)</f>
+        <v>2654500</v>
+      </c>
     </row>
     <row r="70" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="67"/>
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="83"/>
+      <c r="F70" s="79"/>
       <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
+      <c r="H70" s="80"/>
     </row>
     <row r="71" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="67"/>
-      <c r="B71" s="67"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="79"/>
-    </row>
-    <row r="72" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="67"/>
-      <c r="B72" s="67"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="79"/>
-      <c r="H72" s="79"/>
-    </row>
-    <row r="73" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="67"/>
-      <c r="B73" s="67"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="79"/>
-      <c r="H73" s="79"/>
-    </row>
-    <row r="74" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F74" s="85"/>
-      <c r="G74" s="86">
-        <f>SUM(G2:G73)</f>
-        <v>3470000</v>
-      </c>
-      <c r="H74" s="86">
-        <f>SUM(H2:H73)</f>
-        <v>2046500</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="87"/>
-    </row>
-    <row r="76" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F76" s="88"/>
-      <c r="G76" s="89"/>
-      <c r="H76" s="90"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="82"/>
+      <c r="H71" s="83"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.46" right="0.47" top="0.47" bottom="0.38" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:D1"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="30"/>
-    <col min="4" max="4" width="9.140625" style="35"/>
+    <col min="1" max="1" width="4" style="84" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="84" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="84" customWidth="1"/>
+    <col min="4" max="4" width="15" style="84" customWidth="1"/>
+    <col min="5" max="5" width="17" style="93" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" style="93" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" style="84" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="84" customWidth="1"/>
+    <col min="9" max="11" width="14.140625" style="84" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="84" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="84"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="76" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86">
+        <v>70000</v>
+      </c>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+    </row>
+    <row r="3" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+    </row>
+    <row r="4" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+    </row>
+    <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+    </row>
+    <row r="6" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="87" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6" s="87" t="s">
+        <v>301</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+    </row>
+    <row r="7" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" s="102" t="s">
+        <v>317</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86">
+        <v>25000</v>
+      </c>
+      <c r="L7" s="86"/>
+    </row>
+    <row r="8" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
+      <c r="H8" s="87" t="s">
+        <v>312</v>
+      </c>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86">
+        <v>18000</v>
+      </c>
+      <c r="L8" s="86"/>
+    </row>
+    <row r="9" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86">
+        <v>23000</v>
+      </c>
+      <c r="L9" s="86"/>
+    </row>
+    <row r="10" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="86">
+        <v>75000</v>
+      </c>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86">
+        <v>150000</v>
+      </c>
+      <c r="L10" s="100" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86">
+        <v>50000</v>
+      </c>
+      <c r="L11" s="100" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88">
+        <v>45000</v>
+      </c>
+      <c r="L12" s="88"/>
+    </row>
+    <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="101" t="s">
+        <v>315</v>
+      </c>
+      <c r="F13" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="101">
+        <v>1</v>
+      </c>
+      <c r="H13" s="101" t="s">
+        <v>292</v>
+      </c>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+    </row>
+    <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88">
+        <v>200000</v>
+      </c>
+      <c r="L14" s="88"/>
+    </row>
+    <row r="15" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+    </row>
+    <row r="16" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+    </row>
+    <row r="17" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+    </row>
+    <row r="18" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+    </row>
+    <row r="19" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+    </row>
+    <row r="20" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+    </row>
+    <row r="21" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+    </row>
+    <row r="22" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+    </row>
+    <row r="23" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+    </row>
+    <row r="24" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+    </row>
+    <row r="25" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="7">
+        <v>8</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="90"/>
+    </row>
+    <row r="26" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+    </row>
+    <row r="27" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+    </row>
+    <row r="28" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+    </row>
+    <row r="29" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+    </row>
+    <row r="30" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="7">
+        <v>9</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+    </row>
+    <row r="31" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="7">
+        <v>10</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+    </row>
+    <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="7">
+        <v>11</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+    </row>
+    <row r="33" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="7">
+        <v>12</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+    </row>
+    <row r="34" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="91"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+    </row>
+    <row r="35" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="91"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+    </row>
+    <row r="36" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
+    </row>
+    <row r="37" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
+    </row>
+    <row r="38" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="86"/>
+    </row>
+    <row r="39" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="86"/>
+    </row>
+    <row r="40" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="86"/>
+    </row>
+    <row r="41" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="86"/>
+    </row>
+    <row r="42" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+    </row>
+    <row r="43" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="7">
+        <v>13</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="86"/>
+    </row>
+    <row r="44" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="91"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="86"/>
+    </row>
+    <row r="45" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="91"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="86"/>
+    </row>
+    <row r="46" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="91"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="86"/>
+    </row>
+    <row r="47" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="91"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="86"/>
+      <c r="L47" s="86"/>
+    </row>
+    <row r="48" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="7">
+        <v>14</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="91"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="86"/>
+      <c r="L48" s="86"/>
+    </row>
+    <row r="49" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="91"/>
+      <c r="J49" s="86"/>
+      <c r="K49" s="86"/>
+      <c r="L49" s="86"/>
+    </row>
+    <row r="50" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="7">
+        <v>15</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="91"/>
+      <c r="J50" s="86"/>
+      <c r="K50" s="86"/>
+      <c r="L50" s="86"/>
+    </row>
+    <row r="51" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="7">
+        <v>16</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="86"/>
+      <c r="K51" s="86"/>
+      <c r="L51" s="86"/>
+    </row>
+    <row r="52" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="91"/>
+      <c r="J52" s="86"/>
+      <c r="K52" s="86"/>
+      <c r="L52" s="86"/>
+    </row>
+    <row r="53" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="91"/>
+      <c r="J53" s="86"/>
+      <c r="K53" s="86"/>
+      <c r="L53" s="86"/>
+    </row>
+    <row r="54" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="7">
+        <v>17</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="86"/>
+      <c r="K54" s="86"/>
+      <c r="L54" s="86"/>
+    </row>
+    <row r="55" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="91"/>
+      <c r="J55" s="86"/>
+      <c r="K55" s="86"/>
+      <c r="L55" s="86"/>
+    </row>
+    <row r="56" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="7">
+        <v>18</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="91"/>
+      <c r="J56" s="86"/>
+      <c r="K56" s="86"/>
+      <c r="L56" s="86"/>
+    </row>
+    <row r="57" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="7">
+        <v>19</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="91"/>
+      <c r="J57" s="86"/>
+      <c r="K57" s="86"/>
+      <c r="L57" s="86"/>
+      <c r="S57" s="84" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="91"/>
+      <c r="J58" s="86"/>
+      <c r="K58" s="86"/>
+      <c r="L58" s="86"/>
+    </row>
+    <row r="59" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="91"/>
+      <c r="J59" s="86"/>
+      <c r="K59" s="86"/>
+      <c r="L59" s="86"/>
+    </row>
+    <row r="60" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="7">
+        <v>20</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="91"/>
+      <c r="J60" s="86"/>
+      <c r="K60" s="86"/>
+      <c r="L60" s="86"/>
+    </row>
+    <row r="61" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="7">
+        <v>21</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="91"/>
+      <c r="J61" s="86"/>
+      <c r="K61" s="86"/>
+      <c r="L61" s="86"/>
+    </row>
+    <row r="62" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="91"/>
+      <c r="J62" s="86"/>
+      <c r="K62" s="86"/>
+      <c r="L62" s="86"/>
+    </row>
+    <row r="63" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="7">
+        <v>22</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="91"/>
+      <c r="J63" s="86"/>
+      <c r="K63" s="86"/>
+      <c r="L63" s="86"/>
+    </row>
+    <row r="64" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="91"/>
+      <c r="J64" s="86"/>
+      <c r="K64" s="86"/>
+      <c r="L64" s="86"/>
+    </row>
+    <row r="65" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="91"/>
+      <c r="J65" s="86"/>
+      <c r="K65" s="86"/>
+      <c r="L65" s="86"/>
+    </row>
+    <row r="66" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="91"/>
+      <c r="J66" s="86"/>
+      <c r="K66" s="86"/>
+      <c r="L66" s="86"/>
+    </row>
+    <row r="67" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="91"/>
+      <c r="J67" s="86"/>
+      <c r="K67" s="86"/>
+      <c r="L67" s="86"/>
+    </row>
+    <row r="68" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="91"/>
+      <c r="J68" s="86"/>
+      <c r="K68" s="86"/>
+      <c r="L68" s="86"/>
+    </row>
+    <row r="69" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I69" s="94"/>
+      <c r="J69" s="95"/>
+      <c r="K69" s="95"/>
+      <c r="L69" s="95"/>
+    </row>
+    <row r="70" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I70" s="94"/>
+      <c r="J70" s="94"/>
+      <c r="K70" s="94"/>
+      <c r="L70" s="96"/>
+    </row>
+    <row r="71" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I71" s="97"/>
+      <c r="J71" s="98"/>
+      <c r="K71" s="98"/>
+      <c r="L71" s="99"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.48" right="0.24" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GB-3 BAYINTNAUNG.xlsx
+++ b/GB-3 BAYINTNAUNG.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="320">
   <si>
     <t>Mitsubishi RVR</t>
   </si>
@@ -972,9 +972,6 @@
     <t>ေနာက္တန္းဘြတ္</t>
   </si>
   <si>
-    <t>Cancel 1</t>
-  </si>
-  <si>
     <t>Paid</t>
   </si>
   <si>
@@ -994,6 +991,9 @@
   </si>
   <si>
     <t>5F-6481</t>
+  </si>
+  <si>
+    <t>Return</t>
   </si>
 </sst>
 </file>
@@ -6518,7 +6518,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -6571,7 +6571,7 @@
         <v>15</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6599,7 +6599,9 @@
       <c r="J2" s="86">
         <v>70000</v>
       </c>
-      <c r="K2" s="86"/>
+      <c r="K2" s="86">
+        <v>23000</v>
+      </c>
       <c r="L2" s="86"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6621,7 +6623,9 @@
       <c r="H3" s="7"/>
       <c r="I3" s="86"/>
       <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
+      <c r="K3" s="86">
+        <v>50000</v>
+      </c>
       <c r="L3" s="86"/>
     </row>
     <row r="4" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6641,7 +6645,9 @@
       <c r="H4" s="7"/>
       <c r="I4" s="86"/>
       <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
+      <c r="K4" s="86">
+        <v>1500</v>
+      </c>
       <c r="L4" s="86"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6661,7 +6667,9 @@
       <c r="H5" s="7"/>
       <c r="I5" s="86"/>
       <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
+      <c r="K5" s="86">
+        <v>13000</v>
+      </c>
       <c r="L5" s="86"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6683,7 +6691,9 @@
       </c>
       <c r="I6" s="86"/>
       <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
+      <c r="K6" s="86">
+        <v>38000</v>
+      </c>
       <c r="L6" s="86"/>
     </row>
     <row r="7" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6697,7 +6707,7 @@
         <v>308</v>
       </c>
       <c r="D7" s="102" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>309</v>
@@ -6728,11 +6738,9 @@
         <v>311</v>
       </c>
       <c r="G8" s="7">
-        <v>2</v>
-      </c>
-      <c r="H8" s="87" t="s">
-        <v>312</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H8" s="87"/>
       <c r="I8" s="86"/>
       <c r="J8" s="86"/>
       <c r="K8" s="86">
@@ -6769,7 +6777,7 @@
         <v>308</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>164</v>
@@ -6789,7 +6797,7 @@
         <v>150000</v>
       </c>
       <c r="L10" s="100" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6813,7 +6821,7 @@
         <v>50000</v>
       </c>
       <c r="L11" s="100" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6822,7 +6830,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>138</v>
@@ -6844,7 +6852,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="101" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F13" s="101" t="s">
         <v>40</v>
@@ -6853,7 +6861,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="101" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="I13" s="88"/>
       <c r="J13" s="88"/>
@@ -6864,10 +6872,10 @@
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>96</v>

--- a/GB-3 BAYINTNAUNG.xlsx
+++ b/GB-3 BAYINTNAUNG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="18195" windowHeight="10665" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="18195" windowHeight="10665" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="321">
   <si>
     <t>Mitsubishi RVR</t>
   </si>
@@ -995,6 +995,9 @@
   <si>
     <t>Return</t>
   </si>
+  <si>
+    <t>Paid 8.9.2018</t>
+  </si>
 </sst>
 </file>
 
@@ -1004,7 +1007,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1281,6 +1284,15 @@
       <name val="Zawgyi-One"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u val="singleAccounting"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1351,7 +1363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1617,6 +1629,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3536,11 +3550,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5027,7 +5041,7 @@
       <c r="C73" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D73" s="70" t="s">
+      <c r="D73" s="42" t="s">
         <v>243</v>
       </c>
       <c r="E73" s="23">
@@ -5088,6 +5102,24 @@
       <c r="H78" s="69">
         <f>H76-H77</f>
         <v>1880500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="F79" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="G79" s="30"/>
+      <c r="H79" s="105">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F80" s="106" t="s">
+        <v>61</v>
+      </c>
+      <c r="H80" s="69">
+        <f>H78-H79</f>
+        <v>1380500</v>
       </c>
     </row>
   </sheetData>
@@ -5103,8 +5135,8 @@
   </sheetPr>
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6516,8 +6548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>

--- a/GB-3 BAYINTNAUNG.xlsx
+++ b/GB-3 BAYINTNAUNG.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="322">
   <si>
     <t>Mitsubishi RVR</t>
   </si>
@@ -997,6 +997,9 @@
   </si>
   <si>
     <t>Paid 8.9.2018</t>
+  </si>
+  <si>
+    <t>Paid 12.9.2018</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1450,9 +1453,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1545,7 +1545,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1629,8 +1628,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1949,12 +1951,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
     </row>
     <row r="2" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
@@ -2077,16 +2079,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -2621,15 +2623,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" style="40" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="40" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="15" style="40" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="60" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="60" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="40"/>
+    <col min="1" max="1" width="4" style="39" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="15" style="39" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="59" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="59" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2651,10 +2653,10 @@
       <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2665,20 +2667,20 @@
       <c r="B2" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>64</v>
       </c>
       <c r="E2" s="28">
         <v>1</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="51">
+      <c r="F2" s="42"/>
+      <c r="G2" s="50">
         <v>1500</v>
       </c>
-      <c r="H2" s="51">
+      <c r="H2" s="50">
         <v>1500</v>
       </c>
     </row>
@@ -2692,17 +2694,17 @@
       <c r="C3" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="28">
         <v>1</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="51">
+      <c r="F3" s="42"/>
+      <c r="G3" s="50">
         <v>25000</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H3" s="50">
         <v>19000</v>
       </c>
     </row>
@@ -2712,17 +2714,17 @@
       <c r="C4" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="28">
         <v>1</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="51">
+      <c r="F4" s="42"/>
+      <c r="G4" s="50">
         <v>25000</v>
       </c>
-      <c r="H4" s="51">
+      <c r="H4" s="50">
         <v>15000</v>
       </c>
     </row>
@@ -2732,17 +2734,17 @@
       <c r="C5" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>67</v>
       </c>
       <c r="E5" s="28">
         <v>1</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="51">
+      <c r="F5" s="42"/>
+      <c r="G5" s="50">
         <v>25000</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="50">
         <v>18000</v>
       </c>
     </row>
@@ -2752,17 +2754,17 @@
       <c r="C6" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="41" t="s">
         <v>67</v>
       </c>
       <c r="E6" s="28">
         <v>1</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="51">
+      <c r="F6" s="42"/>
+      <c r="G6" s="50">
         <v>26000</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="50">
         <v>19000</v>
       </c>
     </row>
@@ -2776,15 +2778,15 @@
       <c r="C7" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="28">
         <v>1</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51">
+      <c r="F7" s="42"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50">
         <v>19000</v>
       </c>
     </row>
@@ -2798,17 +2800,17 @@
       <c r="C8" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="41" t="s">
         <v>75</v>
       </c>
       <c r="E8" s="28">
         <v>1</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="51">
+      <c r="F8" s="42"/>
+      <c r="G8" s="50">
         <v>7000</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="50">
         <v>7500</v>
       </c>
     </row>
@@ -2816,17 +2818,17 @@
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="41" t="s">
         <v>76</v>
       </c>
       <c r="E9" s="28">
         <v>1</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="51">
+      <c r="F9" s="42"/>
+      <c r="G9" s="50">
         <v>13000</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="50">
         <v>9000</v>
       </c>
     </row>
@@ -2834,17 +2836,17 @@
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="41" t="s">
         <v>77</v>
       </c>
       <c r="E10" s="28">
         <v>1</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="51">
+      <c r="F10" s="42"/>
+      <c r="G10" s="50">
         <v>18000</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="50">
         <v>13000</v>
       </c>
     </row>
@@ -2854,17 +2856,17 @@
       <c r="C11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="43" t="s">
         <v>79</v>
       </c>
       <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="52">
+      <c r="F11" s="44"/>
+      <c r="G11" s="51">
         <v>95000</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="51">
         <v>85000</v>
       </c>
     </row>
@@ -2872,17 +2874,17 @@
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E12" s="8">
         <v>1</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="52">
+      <c r="F12" s="44"/>
+      <c r="G12" s="51">
         <v>35000</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="51">
         <v>32000</v>
       </c>
     </row>
@@ -2896,17 +2898,17 @@
       <c r="C13" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="43" t="s">
         <v>82</v>
       </c>
       <c r="E13" s="8">
         <v>1</v>
       </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="52">
+      <c r="F13" s="44"/>
+      <c r="G13" s="51">
         <v>60000</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="51">
         <v>48000</v>
       </c>
     </row>
@@ -2914,17 +2916,17 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="43" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="8">
         <v>1</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="52">
+      <c r="F14" s="44"/>
+      <c r="G14" s="51">
         <v>62000</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="51">
         <v>55000</v>
       </c>
     </row>
@@ -2938,17 +2940,17 @@
       <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="43" t="s">
         <v>85</v>
       </c>
       <c r="E15" s="8">
         <v>1</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="52">
+      <c r="F15" s="44"/>
+      <c r="G15" s="51">
         <v>250000</v>
       </c>
-      <c r="H15" s="52">
+      <c r="H15" s="51">
         <v>240000</v>
       </c>
     </row>
@@ -2962,20 +2964,20 @@
       <c r="C16" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="43" t="s">
         <v>87</v>
       </c>
       <c r="E16" s="8">
         <v>1</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="52">
+      <c r="F16" s="44"/>
+      <c r="G16" s="51">
         <v>150000</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="51">
         <v>135000</v>
       </c>
-      <c r="K16" s="46"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8">
@@ -2987,17 +2989,17 @@
       <c r="C17" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="43" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="8">
         <v>1</v>
       </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="52">
+      <c r="F17" s="44"/>
+      <c r="G17" s="51">
         <v>45000</v>
       </c>
-      <c r="H17" s="52">
+      <c r="H17" s="51">
         <v>35000</v>
       </c>
     </row>
@@ -3007,17 +3009,17 @@
       <c r="C18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="43" t="s">
         <v>90</v>
       </c>
       <c r="E18" s="8">
         <v>1</v>
       </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="52">
+      <c r="F18" s="44"/>
+      <c r="G18" s="51">
         <v>12000</v>
       </c>
-      <c r="H18" s="52">
+      <c r="H18" s="51">
         <v>7000</v>
       </c>
     </row>
@@ -3031,17 +3033,17 @@
       <c r="C19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="43" t="s">
         <v>92</v>
       </c>
       <c r="E19" s="8">
         <v>1</v>
       </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="52">
+      <c r="F19" s="44"/>
+      <c r="G19" s="51">
         <v>25000</v>
       </c>
-      <c r="H19" s="52">
+      <c r="H19" s="51">
         <v>15000</v>
       </c>
     </row>
@@ -3049,19 +3051,19 @@
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="43" t="s">
         <v>93</v>
       </c>
       <c r="E20" s="8">
         <v>4</v>
       </c>
-      <c r="F20" s="43">
+      <c r="F20" s="42">
         <v>8000</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="51">
         <v>60000</v>
       </c>
-      <c r="H20" s="52">
+      <c r="H20" s="51">
         <v>32000</v>
       </c>
     </row>
@@ -3072,20 +3074,20 @@
       <c r="B21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="43" t="s">
         <v>92</v>
       </c>
       <c r="E21" s="8">
         <v>1</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="52">
+      <c r="F21" s="42"/>
+      <c r="G21" s="51">
         <v>18000</v>
       </c>
-      <c r="H21" s="52">
+      <c r="H21" s="51">
         <v>13000</v>
       </c>
     </row>
@@ -3099,55 +3101,55 @@
       <c r="C22" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="43" t="s">
         <v>97</v>
       </c>
       <c r="E22" s="8">
         <v>1</v>
       </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="52">
+      <c r="F22" s="42"/>
+      <c r="G22" s="51">
         <v>50000</v>
       </c>
-      <c r="H22" s="52">
+      <c r="H22" s="51">
         <v>40000</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47" t="s">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="28">
         <v>1</v>
       </c>
       <c r="F23" s="28"/>
-      <c r="G23" s="53">
+      <c r="G23" s="52">
         <v>24000</v>
       </c>
-      <c r="H23" s="53">
+      <c r="H23" s="52">
         <v>22000</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46" t="s">
         <v>99</v>
       </c>
       <c r="E24" s="28">
         <v>2</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="42">
         <v>19000</v>
       </c>
-      <c r="G24" s="51">
+      <c r="G24" s="50">
         <v>40000</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="53">
         <v>38000</v>
       </c>
     </row>
@@ -3161,17 +3163,17 @@
       <c r="C25" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="46" t="s">
         <v>102</v>
       </c>
       <c r="E25" s="28">
         <v>1</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="51">
+      <c r="F25" s="42"/>
+      <c r="G25" s="50">
         <v>45000</v>
       </c>
-      <c r="H25" s="51">
+      <c r="H25" s="50">
         <v>33000</v>
       </c>
     </row>
@@ -3191,11 +3193,11 @@
       <c r="E26" s="28">
         <v>1</v>
       </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="51">
+      <c r="F26" s="42"/>
+      <c r="G26" s="50">
         <v>15000</v>
       </c>
-      <c r="H26" s="51">
+      <c r="H26" s="50">
         <v>9000</v>
       </c>
     </row>
@@ -3215,11 +3217,11 @@
       <c r="E27" s="28">
         <v>1</v>
       </c>
-      <c r="F27" s="43"/>
-      <c r="G27" s="51">
+      <c r="F27" s="42"/>
+      <c r="G27" s="50">
         <v>260000</v>
       </c>
-      <c r="H27" s="51">
+      <c r="H27" s="50">
         <v>70000</v>
       </c>
     </row>
@@ -3239,11 +3241,11 @@
       <c r="E28" s="28">
         <v>2</v>
       </c>
-      <c r="F28" s="43"/>
-      <c r="G28" s="51">
+      <c r="F28" s="42"/>
+      <c r="G28" s="50">
         <v>24000</v>
       </c>
-      <c r="H28" s="51">
+      <c r="H28" s="50">
         <v>16000</v>
       </c>
     </row>
@@ -3251,17 +3253,17 @@
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="46" t="s">
         <v>110</v>
       </c>
       <c r="E29" s="28">
         <v>2</v>
       </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="51">
+      <c r="F29" s="42"/>
+      <c r="G29" s="50">
         <v>24000</v>
       </c>
-      <c r="H29" s="51">
+      <c r="H29" s="50">
         <v>16000</v>
       </c>
     </row>
@@ -3269,17 +3271,17 @@
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="46" t="s">
         <v>111</v>
       </c>
       <c r="E30" s="28">
         <v>1</v>
       </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="51">
+      <c r="F30" s="42"/>
+      <c r="G30" s="50">
         <v>85000</v>
       </c>
-      <c r="H30" s="51">
+      <c r="H30" s="50">
         <v>70000</v>
       </c>
     </row>
@@ -3293,35 +3295,35 @@
       <c r="C31" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="46" t="s">
         <v>114</v>
       </c>
       <c r="E31" s="28">
         <v>1</v>
       </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="51">
+      <c r="F31" s="42"/>
+      <c r="G31" s="50">
         <v>120000</v>
       </c>
-      <c r="H31" s="51">
+      <c r="H31" s="50">
         <v>90000</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47" t="s">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="28">
         <v>1</v>
       </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="51">
+      <c r="F32" s="42"/>
+      <c r="G32" s="50">
         <v>35000</v>
       </c>
-      <c r="H32" s="51">
+      <c r="H32" s="50">
         <v>32000</v>
       </c>
     </row>
@@ -3335,19 +3337,19 @@
       <c r="C33" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="46" t="s">
         <v>117</v>
       </c>
       <c r="E33" s="28">
         <v>2</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="42">
         <v>15000</v>
       </c>
-      <c r="G33" s="51">
+      <c r="G33" s="50">
         <v>40000</v>
       </c>
-      <c r="H33" s="51">
+      <c r="H33" s="50">
         <v>30000</v>
       </c>
     </row>
@@ -3361,17 +3363,17 @@
       <c r="C34" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="46" t="s">
         <v>120</v>
       </c>
       <c r="E34" s="28">
         <v>1</v>
       </c>
-      <c r="F34" s="43"/>
-      <c r="G34" s="51">
+      <c r="F34" s="42"/>
+      <c r="G34" s="50">
         <v>150000</v>
       </c>
-      <c r="H34" s="51">
+      <c r="H34" s="50">
         <v>130000</v>
       </c>
     </row>
@@ -3381,39 +3383,39 @@
       <c r="C35" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="47" t="s">
+      <c r="D35" s="46" t="s">
         <v>122</v>
       </c>
       <c r="E35" s="28">
         <v>2</v>
       </c>
-      <c r="F35" s="43">
+      <c r="F35" s="42">
         <v>32000</v>
       </c>
-      <c r="G35" s="51">
+      <c r="G35" s="50">
         <v>70000</v>
       </c>
-      <c r="H35" s="51">
+      <c r="H35" s="50">
         <v>64000</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47" t="s">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46" t="s">
         <v>82</v>
       </c>
       <c r="E36" s="28">
         <v>2</v>
       </c>
-      <c r="F36" s="43">
+      <c r="F36" s="42">
         <v>25000</v>
       </c>
-      <c r="G36" s="51">
+      <c r="G36" s="50">
         <v>60000</v>
       </c>
-      <c r="H36" s="51">
+      <c r="H36" s="50">
         <v>50000</v>
       </c>
     </row>
@@ -3423,17 +3425,17 @@
       <c r="C37" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="47" t="s">
+      <c r="D37" s="46" t="s">
         <v>123</v>
       </c>
       <c r="E37" s="28">
         <v>1</v>
       </c>
       <c r="F37" s="28"/>
-      <c r="G37" s="51">
+      <c r="G37" s="50">
         <v>80000</v>
       </c>
-      <c r="H37" s="51">
+      <c r="H37" s="50">
         <v>60000</v>
       </c>
     </row>
@@ -3454,15 +3456,15 @@
         <v>1</v>
       </c>
       <c r="F38" s="28"/>
-      <c r="G38" s="51">
+      <c r="G38" s="50">
         <v>150000</v>
       </c>
-      <c r="H38" s="51">
+      <c r="H38" s="50">
         <v>135000</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F39" s="48"/>
+      <c r="F39" s="47"/>
       <c r="G39" s="25">
         <f>SUM(G2:G38)</f>
         <v>2224500</v>
@@ -3473,68 +3475,68 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="G40" s="55"/>
-      <c r="H40" s="56">
+      <c r="G40" s="54"/>
+      <c r="H40" s="55">
         <v>264500</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="48" t="s">
+      <c r="F41" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="G41" s="55"/>
+      <c r="G41" s="54"/>
       <c r="H41" s="25">
         <f>SUM(H39:H40)</f>
         <v>1987500</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F42" s="48" t="s">
+      <c r="F42" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="57"/>
-      <c r="H42" s="58">
+      <c r="G42" s="56"/>
+      <c r="H42" s="57">
         <v>1000000</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F43" s="48" t="s">
+      <c r="F43" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="G43" s="39"/>
-      <c r="H43" s="59">
+      <c r="G43" s="38"/>
+      <c r="H43" s="58">
         <v>987500</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="50" t="s">
+      <c r="F44" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="H44" s="61">
+      <c r="H44" s="60">
         <v>500000</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="50" t="s">
+      <c r="F45" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="H45" s="62">
+      <c r="H45" s="61">
         <v>487500</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="50" t="s">
+      <c r="F46" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="H46" s="63">
+      <c r="H46" s="62">
         <v>500000</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H47" s="64">
+      <c r="H47" s="63">
         <f>H46-H45</f>
         <v>12500</v>
       </c>
@@ -3550,11 +3552,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L81" sqref="L81"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3562,7 +3564,7 @@
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="72" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="70" customWidth="1"/>
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
@@ -3576,10 +3578,10 @@
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -3602,10 +3604,10 @@
       <c r="B2" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="68" t="s">
         <v>129</v>
       </c>
       <c r="E2" s="5">
@@ -3623,7 +3625,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="68" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="5">
@@ -3647,7 +3649,7 @@
       <c r="C4" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="68" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="5">
@@ -3671,7 +3673,7 @@
       <c r="C5" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="68" t="s">
         <v>134</v>
       </c>
       <c r="E5" s="5">
@@ -3695,7 +3697,7 @@
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="68" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="5">
@@ -3713,7 +3715,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="68" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="5">
@@ -3731,7 +3733,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="68" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="5">
@@ -3749,7 +3751,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="68" t="s">
         <v>138</v>
       </c>
       <c r="E9" s="5">
@@ -3767,7 +3769,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="68" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="5">
@@ -3785,7 +3787,7 @@
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="69" t="s">
         <v>139</v>
       </c>
       <c r="E11" s="9">
@@ -3809,7 +3811,7 @@
       <c r="C12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="69" t="s">
         <v>141</v>
       </c>
       <c r="E12" s="9">
@@ -3829,7 +3831,7 @@
       <c r="C13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="69" t="s">
         <v>83</v>
       </c>
       <c r="E13" s="9">
@@ -3853,7 +3855,7 @@
       <c r="C14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="69" t="s">
         <v>143</v>
       </c>
       <c r="E14" s="9">
@@ -3871,7 +3873,7 @@
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="69" t="s">
         <v>144</v>
       </c>
       <c r="E15" s="9">
@@ -3889,7 +3891,7 @@
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="69" t="s">
         <v>145</v>
       </c>
       <c r="E16" s="9">
@@ -3907,7 +3909,7 @@
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="69" t="s">
         <v>146</v>
       </c>
       <c r="E17" s="9">
@@ -3925,7 +3927,7 @@
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="69" t="s">
         <v>147</v>
       </c>
       <c r="E18" s="9">
@@ -3945,7 +3947,7 @@
       <c r="C19" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="69" t="s">
         <v>149</v>
       </c>
       <c r="E19" s="9">
@@ -3964,7 +3966,7 @@
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="69" t="s">
         <v>150</v>
       </c>
       <c r="E20" s="9">
@@ -3984,7 +3986,7 @@
       <c r="C21" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="69" t="s">
         <v>141</v>
       </c>
       <c r="E21" s="9">
@@ -4008,7 +4010,7 @@
       <c r="C22" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="69" t="s">
         <v>87</v>
       </c>
       <c r="E22" s="9">
@@ -4090,7 +4092,7 @@
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="70" t="s">
+      <c r="D26" s="68" t="s">
         <v>158</v>
       </c>
       <c r="E26" s="5">
@@ -4233,7 +4235,7 @@
     <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
-      <c r="C33" s="38"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="23" t="s">
         <v>137</v>
       </c>
@@ -4251,7 +4253,7 @@
     <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
-      <c r="C34" s="38"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="23" t="s">
         <v>166</v>
       </c>
@@ -4614,7 +4616,7 @@
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="70" t="s">
+      <c r="D52" s="68" t="s">
         <v>188</v>
       </c>
       <c r="E52" s="23">
@@ -4676,7 +4678,7 @@
       <c r="C55" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="70" t="s">
+      <c r="D55" s="68" t="s">
         <v>191</v>
       </c>
       <c r="E55" s="23">
@@ -4694,7 +4696,7 @@
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="70" t="s">
+      <c r="D56" s="68" t="s">
         <v>192</v>
       </c>
       <c r="E56" s="23">
@@ -4712,7 +4714,7 @@
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="70" t="s">
+      <c r="D57" s="68" t="s">
         <v>193</v>
       </c>
       <c r="E57" s="23">
@@ -4733,7 +4735,7 @@
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="70" t="s">
+      <c r="D58" s="68" t="s">
         <v>111</v>
       </c>
       <c r="E58" s="23">
@@ -4755,7 +4757,7 @@
         <v>194</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="70" t="s">
+      <c r="D59" s="68" t="s">
         <v>76</v>
       </c>
       <c r="E59" s="23">
@@ -4775,7 +4777,7 @@
       <c r="C60" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D60" s="70" t="s">
+      <c r="D60" s="68" t="s">
         <v>196</v>
       </c>
       <c r="E60" s="23">
@@ -4793,7 +4795,7 @@
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="70" t="s">
+      <c r="D61" s="68" t="s">
         <v>197</v>
       </c>
       <c r="E61" s="23">
@@ -4813,7 +4815,7 @@
       <c r="C62" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D62" s="70" t="s">
+      <c r="D62" s="68" t="s">
         <v>198</v>
       </c>
       <c r="E62" s="23">
@@ -4837,7 +4839,7 @@
       <c r="C63" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="70" t="s">
+      <c r="D63" s="68" t="s">
         <v>39</v>
       </c>
       <c r="E63" s="23">
@@ -4861,7 +4863,7 @@
       <c r="C64" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="70" t="s">
+      <c r="D64" s="68" t="s">
         <v>202</v>
       </c>
       <c r="E64" s="23">
@@ -4881,7 +4883,7 @@
       <c r="C65" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="70" t="s">
+      <c r="D65" s="68" t="s">
         <v>204</v>
       </c>
       <c r="E65" s="23">
@@ -4905,7 +4907,7 @@
       <c r="C66" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D66" s="70" t="s">
+      <c r="D66" s="68" t="s">
         <v>207</v>
       </c>
       <c r="E66" s="23">
@@ -4923,7 +4925,7 @@
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="70" t="s">
+      <c r="D67" s="68" t="s">
         <v>208</v>
       </c>
       <c r="E67" s="23">
@@ -4941,7 +4943,7 @@
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="70" t="s">
+      <c r="D68" s="68" t="s">
         <v>209</v>
       </c>
       <c r="E68" s="23">
@@ -4959,7 +4961,7 @@
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="70" t="s">
+      <c r="D69" s="68" t="s">
         <v>210</v>
       </c>
       <c r="E69" s="23">
@@ -4979,7 +4981,7 @@
       <c r="C70" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D70" s="70" t="s">
+      <c r="D70" s="68" t="s">
         <v>87</v>
       </c>
       <c r="E70" s="23">
@@ -5003,7 +5005,7 @@
       <c r="C71" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D71" s="70" t="s">
+      <c r="D71" s="68" t="s">
         <v>120</v>
       </c>
       <c r="E71" s="23">
@@ -5021,7 +5023,7 @@
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="35" t="s">
+      <c r="D72" s="34" t="s">
         <v>213</v>
       </c>
       <c r="E72" s="23">
@@ -5041,7 +5043,7 @@
       <c r="C73" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D73" s="42" t="s">
+      <c r="D73" s="41" t="s">
         <v>243</v>
       </c>
       <c r="E73" s="23">
@@ -5063,7 +5065,7 @@
         <f>SUM(G2:G73)</f>
         <v>3607500</v>
       </c>
-      <c r="H74" s="34">
+      <c r="H74" s="33">
         <f>SUM(H2:H73)</f>
         <v>2893000</v>
       </c>
@@ -5078,11 +5080,11 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F76" s="32" t="s">
+      <c r="F76" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="G76" s="33"/>
-      <c r="H76" s="34">
+      <c r="G76" s="32"/>
+      <c r="H76" s="33">
         <f>H74-H75</f>
         <v>2380500</v>
       </c>
@@ -5091,15 +5093,15 @@
       <c r="F77" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="H77" s="67">
+      <c r="H77" s="66">
         <v>500000</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F78" s="68" t="s">
+      <c r="F78" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="H78" s="69">
+      <c r="H78" s="103">
         <f>H76-H77</f>
         <v>1880500</v>
       </c>
@@ -5109,17 +5111,34 @@
         <v>320</v>
       </c>
       <c r="G79" s="30"/>
-      <c r="H79" s="105">
+      <c r="H79" s="104">
         <v>500000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F80" s="106" t="s">
+      <c r="F80" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="H80" s="69">
+      <c r="H80" s="103">
         <f>H78-H79</f>
         <v>1380500</v>
+      </c>
+    </row>
+    <row r="81" spans="6:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="F81" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="H81" s="104">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="82" spans="6:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F82" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="H82" s="103">
+        <f>H80-H81</f>
+        <v>880500</v>
       </c>
     </row>
   </sheetData>
@@ -5141,51 +5160,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4" style="75" customWidth="1"/>
-    <col min="2" max="2" width="13" style="75" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="73" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="73" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="75" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="75" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="75" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="75" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="75"/>
+    <col min="1" max="1" width="4" style="73" customWidth="1"/>
+    <col min="2" max="2" width="13" style="73" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="71" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="71" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="73" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="73" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="73" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="73" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="72" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="65">
-        <v>1</v>
-      </c>
-      <c r="B2" s="65" t="s">
+      <c r="A2" s="64">
+        <v>1</v>
+      </c>
+      <c r="B2" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="74" t="s">
         <v>217</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -5194,56 +5213,56 @@
       <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86">
+      <c r="F2" s="84"/>
+      <c r="G2" s="84">
         <v>15000</v>
       </c>
-      <c r="H2" s="86">
+      <c r="H2" s="84">
         <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="7" t="s">
         <v>218</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86">
+      <c r="F3" s="84"/>
+      <c r="G3" s="84">
         <v>25000</v>
       </c>
-      <c r="H3" s="86">
+      <c r="H3" s="84">
         <v>18000</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="7" t="s">
         <v>219</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86">
+      <c r="F4" s="84"/>
+      <c r="G4" s="84">
         <v>160000</v>
       </c>
-      <c r="H4" s="86">
+      <c r="H4" s="84">
         <v>130000</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="65">
+      <c r="A5" s="64">
         <v>2</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="64" t="s">
         <v>203</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -5252,36 +5271,36 @@
       <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86">
+      <c r="F5" s="84"/>
+      <c r="G5" s="84">
         <v>150000</v>
       </c>
-      <c r="H5" s="86">
+      <c r="H5" s="84">
         <v>120000</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="7" t="s">
         <v>223</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86">
+      <c r="F6" s="84"/>
+      <c r="G6" s="84">
         <v>150000</v>
       </c>
-      <c r="H6" s="86">
+      <c r="H6" s="84">
         <v>90000</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65" t="s">
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -5290,22 +5309,22 @@
       <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86">
+      <c r="F7" s="84"/>
+      <c r="G7" s="84">
         <v>85000</v>
       </c>
-      <c r="H7" s="86">
+      <c r="H7" s="84">
         <v>80000</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="65">
+      <c r="A8" s="64">
         <v>3</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="64" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -5314,22 +5333,22 @@
       <c r="E8" s="7">
         <v>1</v>
       </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86">
+      <c r="F8" s="84"/>
+      <c r="G8" s="84">
         <v>75000</v>
       </c>
-      <c r="H8" s="86">
+      <c r="H8" s="84">
         <v>28000</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="65">
+      <c r="A9" s="64">
         <v>4</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="64" t="s">
         <v>217</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -5338,22 +5357,22 @@
       <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86">
+      <c r="F9" s="84"/>
+      <c r="G9" s="84">
         <v>18000</v>
       </c>
-      <c r="H9" s="86">
+      <c r="H9" s="84">
         <v>13000</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="65">
+      <c r="A10" s="64">
         <v>5</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="64" t="s">
         <v>228</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -5362,22 +5381,22 @@
       <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86">
+      <c r="F10" s="84"/>
+      <c r="G10" s="84">
         <v>35000</v>
       </c>
-      <c r="H10" s="86">
+      <c r="H10" s="84">
         <v>24000</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="65">
+      <c r="A11" s="64">
         <v>6</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="64" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -5386,22 +5405,22 @@
       <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86">
+      <c r="F11" s="84"/>
+      <c r="G11" s="84">
         <v>60000</v>
       </c>
-      <c r="H11" s="86">
+      <c r="H11" s="84">
         <v>50000</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="66">
+      <c r="A12" s="65">
         <v>7</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="65" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -5410,190 +5429,190 @@
       <c r="E12" s="10">
         <v>1</v>
       </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88">
+      <c r="F12" s="86"/>
+      <c r="G12" s="86">
         <v>20000</v>
       </c>
-      <c r="H12" s="88">
+      <c r="H12" s="86">
         <v>18000</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="66"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="10" t="s">
         <v>156</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>
       </c>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88">
+      <c r="F13" s="86"/>
+      <c r="G13" s="86">
         <v>70000</v>
       </c>
-      <c r="H13" s="88">
+      <c r="H13" s="86">
         <v>55000</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="10" t="s">
         <v>232</v>
       </c>
       <c r="E14" s="10">
         <v>1</v>
       </c>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88">
+      <c r="F14" s="86"/>
+      <c r="G14" s="86">
         <v>65000</v>
       </c>
-      <c r="H14" s="88">
+      <c r="H14" s="86">
         <v>58000</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="66"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="10" t="s">
         <v>233</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88">
+      <c r="F15" s="86"/>
+      <c r="G15" s="86">
         <v>155000</v>
       </c>
-      <c r="H15" s="88">
+      <c r="H15" s="86">
         <v>145000</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="10" t="s">
         <v>234</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
       </c>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88">
+      <c r="F16" s="86"/>
+      <c r="G16" s="86">
         <v>23000</v>
       </c>
-      <c r="H16" s="88"/>
+      <c r="H16" s="86"/>
     </row>
     <row r="17" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="10" t="s">
         <v>235</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
       </c>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88">
+      <c r="F17" s="86"/>
+      <c r="G17" s="86">
         <v>8000</v>
       </c>
-      <c r="H17" s="88">
+      <c r="H17" s="86">
         <v>7000</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="10" t="s">
         <v>236</v>
       </c>
       <c r="E18" s="10">
         <v>1</v>
       </c>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88">
+      <c r="F18" s="86"/>
+      <c r="G18" s="86">
         <v>5000</v>
       </c>
-      <c r="H18" s="88"/>
+      <c r="H18" s="86"/>
     </row>
     <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="10" t="s">
         <v>237</v>
       </c>
       <c r="E19" s="10">
         <v>1</v>
       </c>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88">
+      <c r="F19" s="86"/>
+      <c r="G19" s="86">
         <v>10000</v>
       </c>
-      <c r="H19" s="88">
+      <c r="H19" s="86">
         <v>8000</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="66"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="10" t="s">
         <v>238</v>
       </c>
       <c r="E20" s="10">
         <v>1</v>
       </c>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88">
+      <c r="F20" s="86"/>
+      <c r="G20" s="86">
         <v>2000</v>
       </c>
-      <c r="H20" s="88"/>
+      <c r="H20" s="86"/>
     </row>
     <row r="21" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="66"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="10" t="s">
         <v>239</v>
       </c>
       <c r="E21" s="10">
         <v>1</v>
       </c>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88">
+      <c r="F21" s="86"/>
+      <c r="G21" s="86">
         <v>9000</v>
       </c>
-      <c r="H21" s="88">
+      <c r="H21" s="86">
         <v>8000</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="66"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="10" t="s">
         <v>147</v>
       </c>
       <c r="E22" s="10">
         <v>1</v>
       </c>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88">
+      <c r="F22" s="86"/>
+      <c r="G22" s="86">
         <v>25000</v>
       </c>
-      <c r="H22" s="88"/>
+      <c r="H22" s="86"/>
     </row>
     <row r="23" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="66"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66" t="s">
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65" t="s">
         <v>240</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -5602,18 +5621,18 @@
       <c r="E23" s="10">
         <v>1</v>
       </c>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88">
+      <c r="F23" s="86"/>
+      <c r="G23" s="86">
         <v>45000</v>
       </c>
-      <c r="H23" s="88">
+      <c r="H23" s="86">
         <v>30000</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="65"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="7" t="s">
         <v>242</v>
       </c>
@@ -5621,21 +5640,21 @@
         <v>1</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="89">
+      <c r="G24" s="87">
         <v>25000</v>
       </c>
-      <c r="H24" s="89">
+      <c r="H24" s="87">
         <v>19000</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="65">
+      <c r="A25" s="64">
         <v>8</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="64" t="s">
         <v>78</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -5647,15 +5666,15 @@
       <c r="F25" s="7">
         <v>135000</v>
       </c>
-      <c r="G25" s="86">
+      <c r="G25" s="84">
         <v>540000</v>
       </c>
-      <c r="H25" s="90"/>
+      <c r="H25" s="88"/>
     </row>
     <row r="26" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="7" t="s">
         <v>247</v>
       </c>
@@ -5663,17 +5682,17 @@
         <v>1</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="G26" s="86">
+      <c r="G26" s="84">
         <v>130000</v>
       </c>
-      <c r="H26" s="86">
+      <c r="H26" s="84">
         <v>120000</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="7" t="s">
         <v>248</v>
       </c>
@@ -5681,17 +5700,17 @@
         <v>1</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="86">
+      <c r="G27" s="84">
         <v>130000</v>
       </c>
-      <c r="H27" s="86">
+      <c r="H27" s="84">
         <v>120000</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65" t="s">
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64" t="s">
         <v>249</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -5701,17 +5720,17 @@
         <v>1</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="86">
+      <c r="G28" s="84">
         <v>10000</v>
       </c>
-      <c r="H28" s="86">
+      <c r="H28" s="84">
         <v>8500</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65" t="s">
+      <c r="A29" s="64"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64" t="s">
         <v>251</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -5721,21 +5740,21 @@
         <v>1</v>
       </c>
       <c r="F29" s="7"/>
-      <c r="G29" s="86">
+      <c r="G29" s="84">
         <v>35000</v>
       </c>
-      <c r="H29" s="86">
+      <c r="H29" s="84">
         <v>30000</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="65">
+      <c r="A30" s="64">
         <v>9</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="64" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -5745,21 +5764,21 @@
         <v>1</v>
       </c>
       <c r="F30" s="7"/>
-      <c r="G30" s="86">
+      <c r="G30" s="84">
         <v>35000</v>
       </c>
-      <c r="H30" s="86">
+      <c r="H30" s="84">
         <v>28000</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="65">
+      <c r="A31" s="64">
         <v>10</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="64" t="s">
         <v>253</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -5769,21 +5788,21 @@
         <v>1</v>
       </c>
       <c r="F31" s="7"/>
-      <c r="G31" s="86">
+      <c r="G31" s="84">
         <v>60000</v>
       </c>
-      <c r="H31" s="86">
+      <c r="H31" s="84">
         <v>40000</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="65">
+      <c r="A32" s="64">
         <v>11</v>
       </c>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="C32" s="65" t="s">
+      <c r="C32" s="64" t="s">
         <v>37</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -5793,21 +5812,21 @@
         <v>1</v>
       </c>
       <c r="F32" s="7"/>
-      <c r="G32" s="86">
+      <c r="G32" s="84">
         <v>6000</v>
       </c>
-      <c r="H32" s="86">
+      <c r="H32" s="84">
         <v>4000</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="65">
+      <c r="A33" s="64">
         <v>12</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="64" t="s">
         <v>249</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -5817,49 +5836,49 @@
         <v>2</v>
       </c>
       <c r="F33" s="7"/>
-      <c r="G33" s="86">
+      <c r="G33" s="84">
         <v>60000</v>
       </c>
-      <c r="H33" s="86">
+      <c r="H33" s="84">
         <v>30000</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="77"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="78"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="7" t="s">
         <v>257</v>
       </c>
       <c r="E34" s="7">
         <v>4</v>
       </c>
-      <c r="F34" s="91"/>
-      <c r="G34" s="86">
+      <c r="F34" s="89"/>
+      <c r="G34" s="84">
         <v>60000</v>
       </c>
-      <c r="H34" s="86"/>
+      <c r="H34" s="84"/>
     </row>
     <row r="35" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="78"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="7" t="s">
         <v>258</v>
       </c>
       <c r="E35" s="7">
         <v>2</v>
       </c>
-      <c r="F35" s="91"/>
-      <c r="G35" s="86">
+      <c r="F35" s="89"/>
+      <c r="G35" s="84">
         <v>76000</v>
       </c>
-      <c r="H35" s="86"/>
+      <c r="H35" s="84"/>
     </row>
     <row r="36" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65" t="s">
+      <c r="A36" s="64"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64" t="s">
         <v>70</v>
       </c>
       <c r="D36" s="7" t="s">
@@ -5868,72 +5887,72 @@
       <c r="E36" s="7">
         <v>2</v>
       </c>
-      <c r="F36" s="91"/>
-      <c r="G36" s="86">
+      <c r="F36" s="89"/>
+      <c r="G36" s="84">
         <v>70000</v>
       </c>
-      <c r="H36" s="86">
+      <c r="H36" s="84">
         <v>60000</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="7" t="s">
         <v>98</v>
       </c>
       <c r="E37" s="7">
         <v>2</v>
       </c>
-      <c r="F37" s="91"/>
-      <c r="G37" s="86">
+      <c r="F37" s="89"/>
+      <c r="G37" s="84">
         <v>36000</v>
       </c>
-      <c r="H37" s="86">
+      <c r="H37" s="84">
         <v>30000</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="7" t="s">
         <v>259</v>
       </c>
       <c r="E38" s="7">
         <v>2</v>
       </c>
-      <c r="F38" s="91"/>
-      <c r="G38" s="86">
+      <c r="F38" s="89"/>
+      <c r="G38" s="84">
         <v>16000</v>
       </c>
-      <c r="H38" s="86">
+      <c r="H38" s="84">
         <v>8000</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
+      <c r="A39" s="64"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="7" t="s">
         <v>260</v>
       </c>
       <c r="E39" s="7">
         <v>2</v>
       </c>
-      <c r="F39" s="91"/>
-      <c r="G39" s="86">
+      <c r="F39" s="89"/>
+      <c r="G39" s="84">
         <v>10000</v>
       </c>
-      <c r="H39" s="86">
+      <c r="H39" s="84">
         <v>6000</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65" t="s">
+      <c r="A40" s="64"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64" t="s">
         <v>78</v>
       </c>
       <c r="D40" s="7" t="s">
@@ -5942,52 +5961,52 @@
       <c r="E40" s="7">
         <v>1</v>
       </c>
-      <c r="F40" s="91"/>
-      <c r="G40" s="86">
+      <c r="F40" s="89"/>
+      <c r="G40" s="84">
         <v>45000</v>
       </c>
-      <c r="H40" s="86"/>
+      <c r="H40" s="84"/>
     </row>
     <row r="41" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="7" t="s">
         <v>184</v>
       </c>
       <c r="E41" s="7">
         <v>1</v>
       </c>
-      <c r="F41" s="91"/>
-      <c r="G41" s="86">
+      <c r="F41" s="89"/>
+      <c r="G41" s="84">
         <v>55000</v>
       </c>
-      <c r="H41" s="86"/>
+      <c r="H41" s="84"/>
     </row>
     <row r="42" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
+      <c r="A42" s="64"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="7" t="s">
         <v>237</v>
       </c>
       <c r="E42" s="7">
         <v>1</v>
       </c>
-      <c r="F42" s="91"/>
-      <c r="G42" s="86">
+      <c r="F42" s="89"/>
+      <c r="G42" s="84">
         <v>9000</v>
       </c>
-      <c r="H42" s="86"/>
+      <c r="H42" s="84"/>
     </row>
     <row r="43" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="65">
+      <c r="A43" s="64">
         <v>13</v>
       </c>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="64" t="s">
         <v>262</v>
       </c>
-      <c r="C43" s="65" t="s">
+      <c r="C43" s="64" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="7" t="s">
@@ -5996,72 +6015,72 @@
       <c r="E43" s="7">
         <v>1</v>
       </c>
-      <c r="F43" s="91"/>
-      <c r="G43" s="86">
+      <c r="F43" s="89"/>
+      <c r="G43" s="84">
         <v>75000</v>
       </c>
-      <c r="H43" s="86">
+      <c r="H43" s="84">
         <v>69000</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
+      <c r="A44" s="64"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="7" t="s">
         <v>263</v>
       </c>
       <c r="E44" s="7">
         <v>1</v>
       </c>
-      <c r="F44" s="91"/>
-      <c r="G44" s="86">
+      <c r="F44" s="89"/>
+      <c r="G44" s="84">
         <v>40000</v>
       </c>
-      <c r="H44" s="86">
+      <c r="H44" s="84">
         <v>38000</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="7" t="s">
         <v>184</v>
       </c>
       <c r="E45" s="7">
         <v>1</v>
       </c>
-      <c r="F45" s="91"/>
-      <c r="G45" s="86">
+      <c r="F45" s="89"/>
+      <c r="G45" s="84">
         <v>40000</v>
       </c>
-      <c r="H45" s="86">
+      <c r="H45" s="84">
         <v>38000</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="7" t="s">
         <v>264</v>
       </c>
       <c r="E46" s="7">
         <v>1</v>
       </c>
-      <c r="F46" s="91"/>
-      <c r="G46" s="86">
+      <c r="F46" s="89"/>
+      <c r="G46" s="84">
         <v>60000</v>
       </c>
-      <c r="H46" s="86">
+      <c r="H46" s="84">
         <v>55000</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="65"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65" t="s">
+      <c r="A47" s="64"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64" t="s">
         <v>265</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -6070,22 +6089,22 @@
       <c r="E47" s="7">
         <v>1</v>
       </c>
-      <c r="F47" s="91"/>
-      <c r="G47" s="86">
+      <c r="F47" s="89"/>
+      <c r="G47" s="84">
         <v>10000</v>
       </c>
-      <c r="H47" s="86">
+      <c r="H47" s="84">
         <v>10000</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="65">
+      <c r="A48" s="64">
         <v>14</v>
       </c>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="64" t="s">
         <v>267</v>
       </c>
-      <c r="C48" s="65" t="s">
+      <c r="C48" s="64" t="s">
         <v>268</v>
       </c>
       <c r="D48" s="7" t="s">
@@ -6094,40 +6113,40 @@
       <c r="E48" s="7">
         <v>1</v>
       </c>
-      <c r="F48" s="91"/>
-      <c r="G48" s="86">
+      <c r="F48" s="89"/>
+      <c r="G48" s="84">
         <v>25000</v>
       </c>
-      <c r="H48" s="86">
+      <c r="H48" s="84">
         <v>19000</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="7" t="s">
         <v>270</v>
       </c>
       <c r="E49" s="7">
         <v>1</v>
       </c>
-      <c r="F49" s="91"/>
-      <c r="G49" s="86">
+      <c r="F49" s="89"/>
+      <c r="G49" s="84">
         <v>22000</v>
       </c>
-      <c r="H49" s="86">
+      <c r="H49" s="84">
         <v>18000</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="65">
+      <c r="A50" s="64">
         <v>15</v>
       </c>
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="64" t="s">
         <v>271</v>
       </c>
-      <c r="C50" s="65" t="s">
+      <c r="C50" s="64" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="7" t="s">
@@ -6136,22 +6155,22 @@
       <c r="E50" s="7">
         <v>1</v>
       </c>
-      <c r="F50" s="91"/>
-      <c r="G50" s="86">
+      <c r="F50" s="89"/>
+      <c r="G50" s="84">
         <v>25000</v>
       </c>
-      <c r="H50" s="86">
+      <c r="H50" s="84">
         <v>12000</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="65">
+      <c r="A51" s="64">
         <v>16</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="C51" s="65" t="s">
+      <c r="C51" s="64" t="s">
         <v>49</v>
       </c>
       <c r="D51" s="7" t="s">
@@ -6160,58 +6179,58 @@
       <c r="E51" s="7">
         <v>1</v>
       </c>
-      <c r="F51" s="91"/>
-      <c r="G51" s="86">
+      <c r="F51" s="89"/>
+      <c r="G51" s="84">
         <v>85000</v>
       </c>
-      <c r="H51" s="86">
+      <c r="H51" s="84">
         <v>70000</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="65"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="7" t="s">
         <v>196</v>
       </c>
       <c r="E52" s="7">
         <v>1</v>
       </c>
-      <c r="F52" s="91"/>
-      <c r="G52" s="86">
+      <c r="F52" s="89"/>
+      <c r="G52" s="84">
         <v>35000</v>
       </c>
-      <c r="H52" s="86">
+      <c r="H52" s="84">
         <v>35000</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="65"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
       <c r="D53" s="7" t="s">
         <v>274</v>
       </c>
       <c r="E53" s="7">
         <v>1</v>
       </c>
-      <c r="F53" s="91"/>
-      <c r="G53" s="86">
+      <c r="F53" s="89"/>
+      <c r="G53" s="84">
         <v>150000</v>
       </c>
-      <c r="H53" s="86">
+      <c r="H53" s="84">
         <v>120000</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="65">
+      <c r="A54" s="64">
         <v>17</v>
       </c>
-      <c r="B54" s="65" t="s">
+      <c r="B54" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="C54" s="65" t="s">
+      <c r="C54" s="64" t="s">
         <v>276</v>
       </c>
       <c r="D54" s="7" t="s">
@@ -6220,18 +6239,18 @@
       <c r="E54" s="7">
         <v>1</v>
       </c>
-      <c r="F54" s="91"/>
-      <c r="G54" s="86">
+      <c r="F54" s="89"/>
+      <c r="G54" s="84">
         <v>170000</v>
       </c>
-      <c r="H54" s="86">
+      <c r="H54" s="84">
         <v>130000</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="65"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65" t="s">
+      <c r="A55" s="64"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64" t="s">
         <v>249</v>
       </c>
       <c r="D55" s="7" t="s">
@@ -6240,22 +6259,22 @@
       <c r="E55" s="7">
         <v>1</v>
       </c>
-      <c r="F55" s="91"/>
-      <c r="G55" s="86">
+      <c r="F55" s="89"/>
+      <c r="G55" s="84">
         <v>90000</v>
       </c>
-      <c r="H55" s="86">
+      <c r="H55" s="84">
         <v>75000</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="65">
+      <c r="A56" s="64">
         <v>18</v>
       </c>
-      <c r="B56" s="65" t="s">
+      <c r="B56" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="C56" s="65" t="s">
+      <c r="C56" s="64" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="7" t="s">
@@ -6264,279 +6283,279 @@
       <c r="E56" s="7">
         <v>1</v>
       </c>
-      <c r="F56" s="91"/>
-      <c r="G56" s="86">
+      <c r="F56" s="89"/>
+      <c r="G56" s="84">
         <v>25000</v>
       </c>
-      <c r="H56" s="86">
+      <c r="H56" s="84">
         <v>18000</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="65">
+      <c r="A57" s="64">
         <v>19</v>
       </c>
-      <c r="B57" s="65" t="s">
+      <c r="B57" s="64" t="s">
         <v>279</v>
       </c>
-      <c r="C57" s="65" t="s">
+      <c r="C57" s="64" t="s">
         <v>34</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="E57" s="42">
-        <v>1</v>
-      </c>
-      <c r="F57" s="91"/>
-      <c r="G57" s="86">
+      <c r="E57" s="41">
+        <v>1</v>
+      </c>
+      <c r="F57" s="89"/>
+      <c r="G57" s="84">
         <v>70000</v>
       </c>
-      <c r="H57" s="86">
+      <c r="H57" s="84">
         <v>55000</v>
       </c>
-      <c r="O57" s="75" t="s">
+      <c r="O57" s="73" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="65"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="E58" s="42">
-        <v>1</v>
-      </c>
-      <c r="F58" s="91"/>
-      <c r="G58" s="86">
+      <c r="E58" s="41">
+        <v>1</v>
+      </c>
+      <c r="F58" s="89"/>
+      <c r="G58" s="84">
         <v>35000</v>
       </c>
-      <c r="H58" s="86">
+      <c r="H58" s="84">
         <v>28000</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="65"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
+      <c r="A59" s="64"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
       <c r="D59" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="E59" s="42">
-        <v>1</v>
-      </c>
-      <c r="F59" s="91"/>
-      <c r="G59" s="86">
+      <c r="E59" s="41">
+        <v>1</v>
+      </c>
+      <c r="F59" s="89"/>
+      <c r="G59" s="84">
         <v>30000</v>
       </c>
-      <c r="H59" s="86">
+      <c r="H59" s="84">
         <v>25000</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="65">
+      <c r="A60" s="64">
         <v>20</v>
       </c>
-      <c r="B60" s="65" t="s">
+      <c r="B60" s="64" t="s">
         <v>283</v>
       </c>
-      <c r="C60" s="65" t="s">
+      <c r="C60" s="64" t="s">
         <v>10</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="E60" s="42">
-        <v>1</v>
-      </c>
-      <c r="F60" s="91"/>
-      <c r="G60" s="86">
+      <c r="E60" s="41">
+        <v>1</v>
+      </c>
+      <c r="F60" s="89"/>
+      <c r="G60" s="84">
         <v>48000</v>
       </c>
-      <c r="H60" s="86">
+      <c r="H60" s="84">
         <v>40000</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="65">
+      <c r="A61" s="64">
         <v>21</v>
       </c>
-      <c r="B61" s="65" t="s">
+      <c r="B61" s="64" t="s">
         <v>285</v>
       </c>
-      <c r="C61" s="65" t="s">
+      <c r="C61" s="64" t="s">
         <v>34</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="E61" s="42">
-        <v>1</v>
-      </c>
-      <c r="F61" s="91"/>
-      <c r="G61" s="86">
+      <c r="E61" s="41">
+        <v>1</v>
+      </c>
+      <c r="F61" s="89"/>
+      <c r="G61" s="84">
         <v>180000</v>
       </c>
-      <c r="H61" s="86">
+      <c r="H61" s="84">
         <v>130000</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="65"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="65" t="s">
+      <c r="A62" s="64"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64" t="s">
         <v>286</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E62" s="42">
-        <v>1</v>
-      </c>
-      <c r="F62" s="91"/>
-      <c r="G62" s="86">
+      <c r="E62" s="41">
+        <v>1</v>
+      </c>
+      <c r="F62" s="89"/>
+      <c r="G62" s="84">
         <v>20000</v>
       </c>
-      <c r="H62" s="86">
+      <c r="H62" s="84">
         <v>12000</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="65">
+      <c r="A63" s="64">
         <v>22</v>
       </c>
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="C63" s="65" t="s">
+      <c r="C63" s="64" t="s">
         <v>249</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="E63" s="42">
-        <v>1</v>
-      </c>
-      <c r="F63" s="91"/>
-      <c r="G63" s="86">
+      <c r="E63" s="41">
+        <v>1</v>
+      </c>
+      <c r="F63" s="89"/>
+      <c r="G63" s="84">
         <v>45000</v>
       </c>
-      <c r="H63" s="86">
+      <c r="H63" s="84">
         <v>38000</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="65"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
       <c r="D64" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="E64" s="42">
-        <v>1</v>
-      </c>
-      <c r="F64" s="91"/>
-      <c r="G64" s="86">
+      <c r="E64" s="41">
+        <v>1</v>
+      </c>
+      <c r="F64" s="89"/>
+      <c r="G64" s="84">
         <v>30000</v>
       </c>
-      <c r="H64" s="86">
+      <c r="H64" s="84">
         <v>15000</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="65"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
+      <c r="A65" s="64"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
       <c r="D65" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E65" s="42">
-        <v>1</v>
-      </c>
-      <c r="F65" s="91"/>
-      <c r="G65" s="86">
+      <c r="E65" s="41">
+        <v>1</v>
+      </c>
+      <c r="F65" s="89"/>
+      <c r="G65" s="84">
         <v>75000</v>
       </c>
-      <c r="H65" s="86">
+      <c r="H65" s="84">
         <v>69000</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="65"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
       <c r="D66" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E66" s="42">
-        <v>1</v>
-      </c>
-      <c r="F66" s="91"/>
-      <c r="G66" s="86">
+      <c r="E66" s="41">
+        <v>1</v>
+      </c>
+      <c r="F66" s="89"/>
+      <c r="G66" s="84">
         <v>40000</v>
       </c>
-      <c r="H66" s="86">
+      <c r="H66" s="84">
         <v>40000</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="65"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
       <c r="D67" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="E67" s="42">
-        <v>1</v>
-      </c>
-      <c r="F67" s="91"/>
-      <c r="G67" s="86">
+      <c r="E67" s="41">
+        <v>1</v>
+      </c>
+      <c r="F67" s="89"/>
+      <c r="G67" s="84">
         <v>77000</v>
       </c>
-      <c r="H67" s="86">
+      <c r="H67" s="84">
         <v>75000</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="65"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
+      <c r="A68" s="64"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
       <c r="D68" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E68" s="42">
-        <v>1</v>
-      </c>
-      <c r="F68" s="91"/>
-      <c r="G68" s="86">
+      <c r="E68" s="41">
+        <v>1</v>
+      </c>
+      <c r="F68" s="89"/>
+      <c r="G68" s="84">
         <v>30000</v>
       </c>
-      <c r="H68" s="86">
+      <c r="H68" s="84">
         <v>25000</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F69" s="79"/>
-      <c r="G69" s="95">
+      <c r="F69" s="77"/>
+      <c r="G69" s="93">
         <f>SUM(G2:G68)</f>
         <v>4150000</v>
       </c>
-      <c r="H69" s="95">
+      <c r="H69" s="93">
         <f>SUM(H2:H68)</f>
         <v>2654500</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="80"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="78"/>
     </row>
     <row r="71" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F71" s="81"/>
-      <c r="G71" s="82"/>
-      <c r="H71" s="83"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="80"/>
+      <c r="H71" s="81"/>
     </row>
   </sheetData>
   <pageMargins left="0.46" right="0.47" top="0.47" bottom="0.38" header="0.3" footer="0.3"/>
@@ -6555,17 +6574,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4" style="84" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="84" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="84" customWidth="1"/>
-    <col min="4" max="4" width="15" style="84" customWidth="1"/>
-    <col min="5" max="5" width="17" style="93" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" style="93" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" style="84" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="84" customWidth="1"/>
-    <col min="9" max="11" width="14.140625" style="84" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="84" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="84"/>
+    <col min="1" max="1" width="4" style="82" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="82" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="82" customWidth="1"/>
+    <col min="4" max="4" width="15" style="82" customWidth="1"/>
+    <col min="5" max="5" width="17" style="91" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" style="91" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" style="82" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="82" customWidth="1"/>
+    <col min="9" max="11" width="14.140625" style="82" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="82" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6614,10 +6633,10 @@
         <v>293</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="74" t="s">
         <v>294</v>
       </c>
-      <c r="E2" s="85" t="s">
+      <c r="E2" s="83" t="s">
         <v>49</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -6627,20 +6646,20 @@
         <v>1</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86">
+      <c r="I2" s="84"/>
+      <c r="J2" s="84">
         <v>70000</v>
       </c>
-      <c r="K2" s="86">
+      <c r="K2" s="84">
         <v>23000</v>
       </c>
-      <c r="L2" s="86"/>
+      <c r="L2" s="84"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="64" t="s">
         <v>295</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -6653,12 +6672,12 @@
         <v>1</v>
       </c>
       <c r="H3" s="7"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86">
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84">
         <v>50000</v>
       </c>
-      <c r="L3" s="86"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
@@ -6675,12 +6694,12 @@
         <v>1</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86">
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84">
         <v>1500</v>
       </c>
-      <c r="L4" s="86"/>
+      <c r="L4" s="84"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7"/>
@@ -6697,36 +6716,36 @@
         <v>1</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86">
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84">
         <v>13000</v>
       </c>
-      <c r="L5" s="86"/>
+      <c r="L5" s="84"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="85" t="s">
         <v>302</v>
       </c>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="85" t="s">
         <v>301</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="87" t="s">
+      <c r="H6" s="85" t="s">
         <v>292</v>
       </c>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86">
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84">
         <v>38000</v>
       </c>
-      <c r="L6" s="86"/>
+      <c r="L6" s="84"/>
     </row>
     <row r="7" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7">
@@ -6738,7 +6757,7 @@
       <c r="C7" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="100" t="s">
         <v>316</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -6751,12 +6770,12 @@
         <v>1</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86">
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84">
         <v>25000</v>
       </c>
-      <c r="L7" s="86"/>
+      <c r="L7" s="84"/>
     </row>
     <row r="8" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7"/>
@@ -6772,13 +6791,13 @@
       <c r="G8" s="7">
         <v>1</v>
       </c>
-      <c r="H8" s="87"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86">
+      <c r="H8" s="85"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84">
         <v>18000</v>
       </c>
-      <c r="L8" s="86"/>
+      <c r="L8" s="84"/>
     </row>
     <row r="9" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7"/>
@@ -6795,12 +6814,12 @@
         <v>1</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86">
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84">
         <v>23000</v>
       </c>
-      <c r="L9" s="86"/>
+      <c r="L9" s="84"/>
     </row>
     <row r="10" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7"/>
@@ -6821,14 +6840,14 @@
         <v>2</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="86">
+      <c r="I10" s="84">
         <v>75000</v>
       </c>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86">
+      <c r="J10" s="84"/>
+      <c r="K10" s="84">
         <v>150000</v>
       </c>
-      <c r="L10" s="100" t="s">
+      <c r="L10" s="98" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6847,12 +6866,12 @@
         <v>1</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86">
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84">
         <v>50000</v>
       </c>
-      <c r="L11" s="100" t="s">
+      <c r="L11" s="98" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6871,34 +6890,34 @@
         <v>1</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88">
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86">
         <v>45000</v>
       </c>
-      <c r="L12" s="88"/>
+      <c r="L12" s="86"/>
     </row>
     <row r="13" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="101" t="s">
+      <c r="E13" s="99" t="s">
         <v>314</v>
       </c>
-      <c r="F13" s="101" t="s">
+      <c r="F13" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="101">
-        <v>1</v>
-      </c>
-      <c r="H13" s="101" t="s">
+      <c r="G13" s="99">
+        <v>1</v>
+      </c>
+      <c r="H13" s="99" t="s">
         <v>319</v>
       </c>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10"/>
@@ -6919,12 +6938,12 @@
         <v>1</v>
       </c>
       <c r="H14" s="10"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88">
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86">
         <v>200000</v>
       </c>
-      <c r="L14" s="88"/>
+      <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10"/>
@@ -6935,10 +6954,10 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10"/>
@@ -6949,10 +6968,10 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
     </row>
     <row r="17" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10"/>
@@ -6963,10 +6982,10 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10"/>
@@ -6977,10 +6996,10 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10"/>
@@ -6991,10 +7010,10 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
     </row>
     <row r="20" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10"/>
@@ -7005,10 +7024,10 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
     </row>
     <row r="21" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10"/>
@@ -7019,10 +7038,10 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
     </row>
     <row r="22" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10"/>
@@ -7033,10 +7052,10 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10"/>
@@ -7047,24 +7066,24 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
     </row>
     <row r="24" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
     </row>
     <row r="25" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7">
@@ -7078,9 +7097,9 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="90"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="88"/>
     </row>
     <row r="26" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7"/>
@@ -7092,9 +7111,9 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
     </row>
     <row r="27" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7"/>
@@ -7106,9 +7125,9 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
     </row>
     <row r="28" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7"/>
@@ -7120,9 +7139,9 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
     </row>
     <row r="29" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7"/>
@@ -7134,9 +7153,9 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
     </row>
     <row r="30" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7">
@@ -7150,9 +7169,9 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
     </row>
     <row r="31" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7">
@@ -7166,9 +7185,9 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7">
@@ -7182,9 +7201,9 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="86"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
     </row>
     <row r="33" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7">
@@ -7198,37 +7217,37 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
     </row>
     <row r="34" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="91"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="92"/>
+      <c r="A34" s="89"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="90"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
     </row>
     <row r="35" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="91"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="92"/>
+      <c r="A35" s="89"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="90"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
     </row>
     <row r="36" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7"/>
@@ -7239,10 +7258,10 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="86"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
     </row>
     <row r="37" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7"/>
@@ -7253,10 +7272,10 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="86"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="84"/>
     </row>
     <row r="38" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7"/>
@@ -7267,10 +7286,10 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="86"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="84"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7"/>
@@ -7281,10 +7300,10 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="86"/>
-      <c r="L39" s="86"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="84"/>
     </row>
     <row r="40" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7"/>
@@ -7295,10 +7314,10 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="86"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="84"/>
     </row>
     <row r="41" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7"/>
@@ -7309,10 +7328,10 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="86"/>
-      <c r="L41" s="86"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="84"/>
     </row>
     <row r="42" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7"/>
@@ -7323,10 +7342,10 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="84"/>
     </row>
     <row r="43" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7">
@@ -7339,10 +7358,10 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="91"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
     </row>
     <row r="44" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7"/>
@@ -7353,10 +7372,10 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="91"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="84"/>
     </row>
     <row r="45" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7"/>
@@ -7367,10 +7386,10 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="84"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7"/>
@@ -7381,10 +7400,10 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="91"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="86"/>
-      <c r="L46" s="86"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="84"/>
     </row>
     <row r="47" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7"/>
@@ -7395,10 +7414,10 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="86"/>
-      <c r="L47" s="86"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="84"/>
     </row>
     <row r="48" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7">
@@ -7411,10 +7430,10 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="91"/>
-      <c r="J48" s="86"/>
-      <c r="K48" s="86"/>
-      <c r="L48" s="86"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="84"/>
+      <c r="L48" s="84"/>
     </row>
     <row r="49" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7"/>
@@ -7425,10 +7444,10 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="91"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="86"/>
-      <c r="L49" s="86"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="84"/>
     </row>
     <row r="50" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7">
@@ -7441,10 +7460,10 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="91"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="86"/>
-      <c r="L50" s="86"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="84"/>
     </row>
     <row r="51" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7">
@@ -7457,10 +7476,10 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-      <c r="I51" s="91"/>
-      <c r="J51" s="86"/>
-      <c r="K51" s="86"/>
-      <c r="L51" s="86"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="84"/>
+      <c r="K51" s="84"/>
+      <c r="L51" s="84"/>
     </row>
     <row r="52" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7"/>
@@ -7471,10 +7490,10 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
-      <c r="I52" s="91"/>
-      <c r="J52" s="86"/>
-      <c r="K52" s="86"/>
-      <c r="L52" s="86"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="84"/>
     </row>
     <row r="53" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7"/>
@@ -7485,10 +7504,10 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
-      <c r="I53" s="91"/>
-      <c r="J53" s="86"/>
-      <c r="K53" s="86"/>
-      <c r="L53" s="86"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84"/>
     </row>
     <row r="54" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7">
@@ -7501,10 +7520,10 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
-      <c r="I54" s="91"/>
-      <c r="J54" s="86"/>
-      <c r="K54" s="86"/>
-      <c r="L54" s="86"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="84"/>
     </row>
     <row r="55" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7"/>
@@ -7515,10 +7534,10 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
-      <c r="I55" s="91"/>
-      <c r="J55" s="86"/>
-      <c r="K55" s="86"/>
-      <c r="L55" s="86"/>
+      <c r="I55" s="89"/>
+      <c r="J55" s="84"/>
+      <c r="K55" s="84"/>
+      <c r="L55" s="84"/>
     </row>
     <row r="56" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7">
@@ -7531,10 +7550,10 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
-      <c r="I56" s="91"/>
-      <c r="J56" s="86"/>
-      <c r="K56" s="86"/>
-      <c r="L56" s="86"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="84"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="84"/>
     </row>
     <row r="57" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7">
@@ -7545,13 +7564,13 @@
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="91"/>
-      <c r="J57" s="86"/>
-      <c r="K57" s="86"/>
-      <c r="L57" s="86"/>
-      <c r="S57" s="84" t="s">
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="89"/>
+      <c r="J57" s="84"/>
+      <c r="K57" s="84"/>
+      <c r="L57" s="84"/>
+      <c r="S57" s="82" t="s">
         <v>199</v>
       </c>
     </row>
@@ -7562,12 +7581,12 @@
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="91"/>
-      <c r="J58" s="86"/>
-      <c r="K58" s="86"/>
-      <c r="L58" s="86"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="89"/>
+      <c r="J58" s="84"/>
+      <c r="K58" s="84"/>
+      <c r="L58" s="84"/>
     </row>
     <row r="59" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7"/>
@@ -7576,12 +7595,12 @@
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="91"/>
-      <c r="J59" s="86"/>
-      <c r="K59" s="86"/>
-      <c r="L59" s="86"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="89"/>
+      <c r="J59" s="84"/>
+      <c r="K59" s="84"/>
+      <c r="L59" s="84"/>
     </row>
     <row r="60" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7">
@@ -7592,12 +7611,12 @@
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="91"/>
-      <c r="J60" s="86"/>
-      <c r="K60" s="86"/>
-      <c r="L60" s="86"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="89"/>
+      <c r="J60" s="84"/>
+      <c r="K60" s="84"/>
+      <c r="L60" s="84"/>
     </row>
     <row r="61" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="7">
@@ -7608,12 +7627,12 @@
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="91"/>
-      <c r="J61" s="86"/>
-      <c r="K61" s="86"/>
-      <c r="L61" s="86"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="89"/>
+      <c r="J61" s="84"/>
+      <c r="K61" s="84"/>
+      <c r="L61" s="84"/>
     </row>
     <row r="62" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7"/>
@@ -7622,12 +7641,12 @@
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="91"/>
-      <c r="J62" s="86"/>
-      <c r="K62" s="86"/>
-      <c r="L62" s="86"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="89"/>
+      <c r="J62" s="84"/>
+      <c r="K62" s="84"/>
+      <c r="L62" s="84"/>
     </row>
     <row r="63" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7">
@@ -7638,12 +7657,12 @@
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="91"/>
-      <c r="J63" s="86"/>
-      <c r="K63" s="86"/>
-      <c r="L63" s="86"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="89"/>
+      <c r="J63" s="84"/>
+      <c r="K63" s="84"/>
+      <c r="L63" s="84"/>
     </row>
     <row r="64" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="7"/>
@@ -7652,12 +7671,12 @@
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="91"/>
-      <c r="J64" s="86"/>
-      <c r="K64" s="86"/>
-      <c r="L64" s="86"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="89"/>
+      <c r="J64" s="84"/>
+      <c r="K64" s="84"/>
+      <c r="L64" s="84"/>
     </row>
     <row r="65" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="7"/>
@@ -7666,12 +7685,12 @@
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="91"/>
-      <c r="J65" s="86"/>
-      <c r="K65" s="86"/>
-      <c r="L65" s="86"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="89"/>
+      <c r="J65" s="84"/>
+      <c r="K65" s="84"/>
+      <c r="L65" s="84"/>
     </row>
     <row r="66" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="7"/>
@@ -7680,12 +7699,12 @@
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="91"/>
-      <c r="J66" s="86"/>
-      <c r="K66" s="86"/>
-      <c r="L66" s="86"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="89"/>
+      <c r="J66" s="84"/>
+      <c r="K66" s="84"/>
+      <c r="L66" s="84"/>
     </row>
     <row r="67" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="7"/>
@@ -7694,12 +7713,12 @@
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="91"/>
-      <c r="J67" s="86"/>
-      <c r="K67" s="86"/>
-      <c r="L67" s="86"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="89"/>
+      <c r="J67" s="84"/>
+      <c r="K67" s="84"/>
+      <c r="L67" s="84"/>
     </row>
     <row r="68" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="7"/>
@@ -7708,30 +7727,30 @@
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="91"/>
-      <c r="J68" s="86"/>
-      <c r="K68" s="86"/>
-      <c r="L68" s="86"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="89"/>
+      <c r="J68" s="84"/>
+      <c r="K68" s="84"/>
+      <c r="L68" s="84"/>
     </row>
     <row r="69" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="I69" s="94"/>
-      <c r="J69" s="95"/>
-      <c r="K69" s="95"/>
-      <c r="L69" s="95"/>
+      <c r="I69" s="92"/>
+      <c r="J69" s="93"/>
+      <c r="K69" s="93"/>
+      <c r="L69" s="93"/>
     </row>
     <row r="70" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="I70" s="94"/>
-      <c r="J70" s="94"/>
-      <c r="K70" s="94"/>
-      <c r="L70" s="96"/>
+      <c r="I70" s="92"/>
+      <c r="J70" s="92"/>
+      <c r="K70" s="92"/>
+      <c r="L70" s="94"/>
     </row>
     <row r="71" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="I71" s="97"/>
-      <c r="J71" s="98"/>
-      <c r="K71" s="98"/>
-      <c r="L71" s="99"/>
+      <c r="I71" s="95"/>
+      <c r="J71" s="96"/>
+      <c r="K71" s="96"/>
+      <c r="L71" s="97"/>
     </row>
   </sheetData>
   <pageMargins left="0.48" right="0.24" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GB-3 BAYINTNAUNG.xlsx
+++ b/GB-3 BAYINTNAUNG.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="323">
   <si>
     <t>Mitsubishi RVR</t>
   </si>
@@ -1000,6 +1000,9 @@
   </si>
   <si>
     <t>Paid 12.9.2018</t>
+  </si>
+  <si>
+    <t>Paid 16.9.2018</t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1622,17 +1625,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="39" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1951,12 +1955,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
     </row>
     <row r="2" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
@@ -2079,16 +2083,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -3552,11 +3556,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J71" sqref="J71"/>
+      <selection pane="bottomLeft" activeCell="N82" sqref="N82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5080,7 +5084,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F76" s="105" t="s">
+      <c r="F76" s="103" t="s">
         <v>61</v>
       </c>
       <c r="G76" s="32"/>
@@ -5101,7 +5105,7 @@
       <c r="F78" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="H78" s="103">
+      <c r="H78" s="101">
         <f>H76-H77</f>
         <v>1880500</v>
       </c>
@@ -5111,15 +5115,15 @@
         <v>320</v>
       </c>
       <c r="G79" s="30"/>
-      <c r="H79" s="104">
+      <c r="H79" s="102">
         <v>500000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F80" s="105" t="s">
+      <c r="F80" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="H80" s="103">
+      <c r="H80" s="101">
         <f>H78-H79</f>
         <v>1380500</v>
       </c>
@@ -5128,7 +5132,7 @@
       <c r="F81" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="H81" s="104">
+      <c r="H81" s="102">
         <v>500000</v>
       </c>
     </row>
@@ -5136,9 +5140,26 @@
       <c r="F82" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="H82" s="103">
+      <c r="H82" s="101">
         <f>H80-H81</f>
         <v>880500</v>
+      </c>
+    </row>
+    <row r="83" spans="6:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F83" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="H83" s="106">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="84" spans="6:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F84" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="H84" s="101">
+        <f>H82-H83</f>
+        <v>860500</v>
       </c>
     </row>
   </sheetData>

--- a/GB-3 BAYINTNAUNG.xlsx
+++ b/GB-3 BAYINTNAUNG.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="324">
   <si>
     <t>Mitsubishi RVR</t>
   </si>
@@ -1003,6 +1003,9 @@
   </si>
   <si>
     <t>Paid 16.9.2018</t>
+  </si>
+  <si>
+    <t>Paid 22.9.2018</t>
   </si>
 </sst>
 </file>
@@ -1630,13 +1633,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1955,12 +1958,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
@@ -2083,16 +2086,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -3556,11 +3559,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:O84"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N82" sqref="N82"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5149,7 +5152,7 @@
       <c r="F83" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="H83" s="106">
+      <c r="H83" s="104">
         <v>20000</v>
       </c>
     </row>
@@ -5160,6 +5163,25 @@
       <c r="H84" s="101">
         <f>H82-H83</f>
         <v>860500</v>
+      </c>
+    </row>
+    <row r="85" spans="6:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F85" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="G85" s="30"/>
+      <c r="H85" s="66">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="86" spans="6:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F86" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="G86" s="30"/>
+      <c r="H86" s="101">
+        <f>H84-H85</f>
+        <v>560500</v>
       </c>
     </row>
   </sheetData>
